--- a/mcr_aglomerados.xlsx
+++ b/mcr_aglomerados.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t xml:space="preserve">aglomerado</t>
   </si>
@@ -152,6 +152,18 @@
     <t xml:space="preserve">juina</t>
   </si>
   <si>
+    <t xml:space="preserve">Barra do Buges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tangara da Serra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barra do buges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tangara da serra</t>
+  </si>
+  <si>
     <t xml:space="preserve">Barra do Garcas</t>
   </si>
   <si>
@@ -170,60 +182,54 @@
     <t xml:space="preserve">caceres</t>
   </si>
   <si>
+    <t xml:space="preserve">Campo Novo do Parecis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo novo do parecis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campo verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campos de Julio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pontes e Lacerda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">campos de julio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pontes e lacerda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canarana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canarana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chapada dos Guimaraes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chapada dos guimaraes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colider</t>
+  </si>
+  <si>
     <t xml:space="preserve">Comodoro</t>
   </si>
   <si>
-    <t xml:space="preserve">Pontes e Lacerda</t>
-  </si>
-  <si>
     <t xml:space="preserve">comodoro</t>
   </si>
   <si>
-    <t xml:space="preserve">pontes e lacerda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campo Novo do Parecis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tangara da Serra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo novo do parecis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tangara da serra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campo Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campo verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campos de Julio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campos de julio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canarana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canarana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapada dos Guimaraes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chapada dos guimaraes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colider</t>
-  </si>
-  <si>
     <t xml:space="preserve">Confresa</t>
   </si>
   <si>
@@ -260,12 +266,6 @@
     <t xml:space="preserve">curvelandia</t>
   </si>
   <si>
-    <t xml:space="preserve">Denise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">denise</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dom Aquino</t>
   </si>
   <si>
@@ -390,6 +390,12 @@
   </si>
   <si>
     <t xml:space="preserve">nova lacerda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nova Maringa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nova maringa</t>
   </si>
   <si>
     <t xml:space="preserve">Nova Monte Verde</t>
@@ -1024,9 +1030,7 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>43980</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" t="n">
         <v>0.058</v>
       </c>
@@ -1043,13 +1047,13 @@
         <v>0.6</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0302005868876875</v>
+        <v>0.0260170845945237</v>
       </c>
       <c r="L2" t="n">
-        <v>7.83915734078916</v>
+        <v>8.34838260522377</v>
       </c>
       <c r="M2" t="n">
-        <v>0.580538062585856</v>
+        <v>0.477411735707108</v>
       </c>
       <c r="N2" t="n">
         <v>3.6</v>
@@ -1058,7 +1062,7 @@
         <v>19</v>
       </c>
       <c r="P2" t="n">
-        <v>0.642857142857143</v>
+        <v>1.07142857142857</v>
       </c>
       <c r="Q2" t="s">
         <v>20</v>
@@ -1080,9 +1084,7 @@
       <c r="D3" t="n">
         <v>77</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>43980</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" t="n">
         <v>0.058</v>
       </c>
@@ -1136,9 +1138,7 @@
       <c r="D4" t="n">
         <v>141</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>43980</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" t="n">
         <v>0.058</v>
       </c>
@@ -1155,13 +1155,13 @@
         <v>0.6</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0179237850663928</v>
+        <v>0.0459113026344562</v>
       </c>
       <c r="L4" t="n">
-        <v>4.72236295496729</v>
+        <v>4.58877668358955</v>
       </c>
       <c r="M4" t="n">
-        <v>13.3713006252865</v>
+        <v>11.8777817235985</v>
       </c>
       <c r="N4" t="n">
         <v>3.6</v>
@@ -1170,7 +1170,7 @@
         <v>24</v>
       </c>
       <c r="P4" t="n">
-        <v>83.7142857142857</v>
+        <v>23.7857142857143</v>
       </c>
       <c r="Q4" t="s">
         <v>25</v>
@@ -1192,9 +1192,7 @@
       <c r="D5" t="n">
         <v>98</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>43980</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" t="n">
         <v>0.058</v>
       </c>
@@ -1211,13 +1209,13 @@
         <v>0.6</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0336</v>
+        <v>0.0421410613598508</v>
       </c>
       <c r="L5" t="n">
-        <v>6.822</v>
+        <v>4.39056657558839</v>
       </c>
       <c r="M5" t="n">
-        <v>8.9133</v>
+        <v>10.466102940335</v>
       </c>
       <c r="N5" t="n">
         <v>3.6</v>
@@ -1226,7 +1224,7 @@
         <v>27</v>
       </c>
       <c r="P5" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>3.14285714285714</v>
       </c>
       <c r="Q5" t="s">
         <v>28</v>
@@ -1248,9 +1246,7 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <v>43980</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" t="n">
         <v>0.058</v>
       </c>
@@ -1304,9 +1300,7 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <v>43980</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" t="n">
         <v>0.058</v>
       </c>
@@ -1360,9 +1354,7 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <v>43980</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" t="n">
         <v>0.058</v>
       </c>
@@ -1416,9 +1408,7 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="1" t="n">
-        <v>43980</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" t="n">
         <v>0.058</v>
       </c>
@@ -1472,9 +1462,7 @@
       <c r="D10" t="n">
         <v>33</v>
       </c>
-      <c r="E10" s="1" t="n">
-        <v>43980</v>
-      </c>
+      <c r="E10" s="1"/>
       <c r="F10" t="n">
         <v>0.058</v>
       </c>
@@ -1491,13 +1479,13 @@
         <v>0.6</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0439977449866959</v>
+        <v>0.018448686199482</v>
       </c>
       <c r="L10" t="n">
-        <v>4.59599099211053</v>
+        <v>16.6935840478545</v>
       </c>
       <c r="M10" t="n">
-        <v>20.025380711263</v>
+        <v>18.7260217669949</v>
       </c>
       <c r="N10" t="n">
         <v>3.6</v>
@@ -1506,7 +1494,7 @@
         <v>43</v>
       </c>
       <c r="P10" t="n">
-        <v>1.78571428571429</v>
+        <v>7.07142857142857</v>
       </c>
       <c r="Q10" t="s">
         <v>44</v>
@@ -1520,17 +1508,15 @@
         <v>46</v>
       </c>
       <c r="B11" t="n">
-        <v>61012</v>
+        <v>34966</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>114</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E11" s="1"/>
       <c r="F11" t="n">
         <v>0.058</v>
       </c>
@@ -1547,46 +1533,44 @@
         <v>0.6</v>
       </c>
       <c r="K11" t="n">
-        <v>0.00994663938193819</v>
+        <v>0.051591803</v>
       </c>
       <c r="L11" t="n">
-        <v>14.2741902459592</v>
+        <v>1.597906366</v>
       </c>
       <c r="M11" t="n">
-        <v>10.1672695023122</v>
+        <v>0.83135002</v>
       </c>
       <c r="N11" t="n">
         <v>3.6</v>
       </c>
       <c r="O11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P11" t="n">
-        <v>945</v>
+        <v>290.7142857</v>
       </c>
       <c r="Q11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>6580</v>
+        <v>61012</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E12" s="1"/>
       <c r="F12" t="n">
         <v>0.058</v>
       </c>
@@ -1603,46 +1587,44 @@
         <v>0.6</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0306</v>
+        <v>0.006310623</v>
       </c>
       <c r="L12" t="n">
-        <v>7.683</v>
+        <v>3.40991953</v>
       </c>
       <c r="M12" t="n">
-        <v>8.088</v>
+        <v>0.920126644</v>
       </c>
       <c r="N12" t="n">
         <v>3.6</v>
       </c>
       <c r="O12" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="P12" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>66.35714286</v>
       </c>
       <c r="Q12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R12" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" t="n">
-        <v>94376</v>
+        <v>6580</v>
       </c>
       <c r="C13" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>225</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1"/>
       <c r="F13" t="n">
         <v>0.058</v>
       </c>
@@ -1659,46 +1641,44 @@
         <v>0.6</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0170276248263716</v>
+        <v>0.0306</v>
       </c>
       <c r="L13" t="n">
-        <v>1.28870714107299</v>
+        <v>7.683</v>
       </c>
       <c r="M13" t="n">
-        <v>50.5917179019674</v>
+        <v>8.088</v>
       </c>
       <c r="N13" t="n">
         <v>3.6</v>
       </c>
       <c r="O13" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="P13" t="n">
-        <v>5.28571428571429</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="R13" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B14" t="n">
-        <v>20763</v>
+        <v>94376</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E14" s="1"/>
       <c r="F14" t="n">
         <v>0.058</v>
       </c>
@@ -1715,25 +1695,25 @@
         <v>0.6</v>
       </c>
       <c r="K14" t="n">
-        <v>0.012703974</v>
+        <v>0.009779299</v>
       </c>
       <c r="L14" t="n">
-        <v>20.32214124</v>
+        <v>5.240894721</v>
       </c>
       <c r="M14" t="n">
-        <v>14.51748441</v>
+        <v>28.29453349</v>
       </c>
       <c r="N14" t="n">
         <v>3.6</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
-        <v>9.571428571</v>
+        <v>3.571428571</v>
       </c>
       <c r="Q14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R14" t="s">
         <v>55</v>
@@ -1752,9 +1732,7 @@
       <c r="D15" t="n">
         <v>32</v>
       </c>
-      <c r="E15" s="1" t="n">
-        <v>43980</v>
-      </c>
+      <c r="E15" s="1"/>
       <c r="F15" t="n">
         <v>0.058</v>
       </c>
@@ -1771,33 +1749,33 @@
         <v>0.6</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0254353698278208</v>
+        <v>0.019977942</v>
       </c>
       <c r="L15" t="n">
-        <v>9.7316642563403</v>
+        <v>7.525547279</v>
       </c>
       <c r="M15" t="n">
-        <v>9.43309430073513</v>
+        <v>0.959400015</v>
       </c>
       <c r="N15" t="n">
         <v>3.6</v>
       </c>
       <c r="O15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.285714286</v>
+      </c>
+      <c r="Q15" t="s">
         <v>57</v>
       </c>
-      <c r="P15" t="n">
-        <v>7.57142857142857</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>58</v>
-      </c>
       <c r="R15" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" t="n">
         <v>44041</v>
@@ -1808,9 +1786,7 @@
       <c r="D16" t="n">
         <v>67</v>
       </c>
-      <c r="E16" s="1" t="n">
-        <v>43980</v>
-      </c>
+      <c r="E16" s="1"/>
       <c r="F16" t="n">
         <v>0.058</v>
       </c>
@@ -1827,13 +1803,13 @@
         <v>0.6</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0276020403403085</v>
+        <v>0.048210204</v>
       </c>
       <c r="L16" t="n">
-        <v>6.55586891463636</v>
+        <v>8.865559903</v>
       </c>
       <c r="M16" t="n">
-        <v>9.1193063410834</v>
+        <v>10.80553365</v>
       </c>
       <c r="N16" t="n">
         <v>3.6</v>
@@ -1842,10 +1818,10 @@
         <v>27</v>
       </c>
       <c r="P16" t="n">
-        <v>145.857142857143</v>
+        <v>24.42857143</v>
       </c>
       <c r="Q16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R16" t="s">
         <v>29</v>
@@ -1853,7 +1829,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B17" t="n">
         <v>6891</v>
@@ -1864,9 +1840,7 @@
       <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="E17" s="1" t="n">
-        <v>43980</v>
-      </c>
+      <c r="E17" s="1"/>
       <c r="F17" t="n">
         <v>0.058</v>
       </c>
@@ -1895,16 +1869,16 @@
         <v>3.6</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P17" t="n">
         <v>9.571428571</v>
       </c>
       <c r="Q17" t="s">
+        <v>62</v>
+      </c>
+      <c r="R17" t="s">
         <v>63</v>
-      </c>
-      <c r="R17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -1920,9 +1894,7 @@
       <c r="D18" t="n">
         <v>48</v>
       </c>
-      <c r="E18" s="1" t="n">
-        <v>43980</v>
-      </c>
+      <c r="E18" s="1"/>
       <c r="F18" t="n">
         <v>0.058</v>
       </c>
@@ -1939,13 +1911,13 @@
         <v>0.6</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0341588474617854</v>
+        <v>0.026618153</v>
       </c>
       <c r="L18" t="n">
-        <v>7.85718189181035</v>
+        <v>7.285567626</v>
       </c>
       <c r="M18" t="n">
-        <v>8.06643199986826</v>
+        <v>9.19421699</v>
       </c>
       <c r="N18" t="n">
         <v>3.6</v>
@@ -1954,7 +1926,7 @@
         <v>22</v>
       </c>
       <c r="P18" t="n">
-        <v>1.71428571428571</v>
+        <v>1.285714286</v>
       </c>
       <c r="Q18" t="s">
         <v>65</v>
@@ -1976,9 +1948,7 @@
       <c r="D19" t="n">
         <v>2</v>
       </c>
-      <c r="E19" s="1" t="n">
-        <v>43980</v>
-      </c>
+      <c r="E19" s="1"/>
       <c r="F19" t="n">
         <v>0.058</v>
       </c>
@@ -1995,13 +1965,13 @@
         <v>0.6</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0122090711942019</v>
+        <v>0.013746252</v>
       </c>
       <c r="L19" t="n">
-        <v>4.79748832308714</v>
+        <v>3.470740813</v>
       </c>
       <c r="M19" t="n">
-        <v>19.1404753293141</v>
+        <v>29.39666826</v>
       </c>
       <c r="N19" t="n">
         <v>3.6</v>
@@ -2010,7 +1980,7 @@
         <v>19</v>
       </c>
       <c r="P19" t="n">
-        <v>1.5</v>
+        <v>0.714285714</v>
       </c>
       <c r="Q19" t="s">
         <v>67</v>
@@ -2032,9 +2002,7 @@
       <c r="D20" t="n">
         <v>113</v>
       </c>
-      <c r="E20" s="1" t="n">
-        <v>43980</v>
-      </c>
+      <c r="E20" s="1"/>
       <c r="F20" t="n">
         <v>0.058</v>
       </c>
@@ -2080,17 +2048,15 @@
         <v>70</v>
       </c>
       <c r="B21" t="n">
-        <v>30933</v>
+        <v>20763</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>53</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E21" s="1"/>
       <c r="F21" t="n">
         <v>0.058</v>
       </c>
@@ -2107,84 +2073,82 @@
         <v>0.6</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0432322956855495</v>
+        <v>0.012703974</v>
       </c>
       <c r="L21" t="n">
-        <v>3.30172804358114</v>
+        <v>20.32214124</v>
       </c>
       <c r="M21" t="n">
-        <v>36.1234474438543</v>
+        <v>14.51748441</v>
       </c>
       <c r="N21" t="n">
         <v>3.6</v>
       </c>
       <c r="O21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" t="n">
+        <v>9.571428571</v>
+      </c>
+      <c r="Q21" t="s">
         <v>71</v>
       </c>
-      <c r="P21" t="n">
-        <v>14.0714285714286</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>72</v>
-      </c>
       <c r="R21" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="n">
+        <v>30933</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>53</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.030170534</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5.342364116</v>
+      </c>
+      <c r="M22" t="n">
+        <v>30.32955559</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O22" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Q22" t="s">
         <v>74</v>
       </c>
-      <c r="B22" t="n">
-        <v>4038</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>43980</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.0306</v>
-      </c>
-      <c r="L22" t="n">
-        <v>7.683</v>
-      </c>
-      <c r="M22" t="n">
-        <v>8.088</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
-      </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>75</v>
-      </c>
-      <c r="R22" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23">
@@ -2192,17 +2156,15 @@
         <v>76</v>
       </c>
       <c r="B23" t="n">
-        <v>19750</v>
+        <v>4038</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>33</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E23" s="1"/>
       <c r="F23" t="n">
         <v>0.058</v>
       </c>
@@ -2231,7 +2193,7 @@
         <v>3.6</v>
       </c>
       <c r="O23" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="P23" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
@@ -2240,7 +2202,7 @@
         <v>77</v>
       </c>
       <c r="R23" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24">
@@ -2248,17 +2210,15 @@
         <v>78</v>
       </c>
       <c r="B24" t="n">
-        <v>612547</v>
+        <v>19750</v>
       </c>
       <c r="C24" t="n">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1898</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E24" s="1"/>
       <c r="F24" t="n">
         <v>0.058</v>
       </c>
@@ -2275,28 +2235,28 @@
         <v>0.6</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0255225198131163</v>
+        <v>0.0306</v>
       </c>
       <c r="L24" t="n">
-        <v>6.56226292953098</v>
+        <v>7.683</v>
       </c>
       <c r="M24" t="n">
-        <v>20.8364109476391</v>
+        <v>8.088</v>
       </c>
       <c r="N24" t="n">
         <v>3.6</v>
       </c>
       <c r="O24" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="P24" t="n">
-        <v>3270.64285714286</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q24" t="s">
         <v>79</v>
       </c>
       <c r="R24" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -2304,17 +2264,15 @@
         <v>80</v>
       </c>
       <c r="B25" t="n">
-        <v>5219</v>
+        <v>612547</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>1898</v>
+      </c>
+      <c r="E25" s="1"/>
       <c r="F25" t="n">
         <v>0.058</v>
       </c>
@@ -2331,28 +2289,28 @@
         <v>0.6</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0306</v>
+        <v>0.022949579</v>
       </c>
       <c r="L25" t="n">
-        <v>7.683</v>
+        <v>5.646002608</v>
       </c>
       <c r="M25" t="n">
-        <v>8.088</v>
+        <v>47.21198293</v>
       </c>
       <c r="N25" t="n">
         <v>3.6</v>
       </c>
       <c r="O25" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="P25" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>204.6428571</v>
       </c>
       <c r="Q25" t="s">
         <v>81</v>
       </c>
       <c r="R25" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -2360,7 +2318,7 @@
         <v>82</v>
       </c>
       <c r="B26" t="n">
-        <v>9462</v>
+        <v>5219</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2368,9 +2326,7 @@
       <c r="D26" t="n">
         <v>0</v>
       </c>
-      <c r="E26" s="1" t="n">
-        <v>43980</v>
-      </c>
+      <c r="E26" s="1"/>
       <c r="F26" t="n">
         <v>0.058</v>
       </c>
@@ -2387,46 +2343,44 @@
         <v>0.6</v>
       </c>
       <c r="K26" t="n">
-        <v>0.041736166</v>
+        <v>0.0306</v>
       </c>
       <c r="L26" t="n">
-        <v>3.559643653</v>
+        <v>7.683</v>
       </c>
       <c r="M26" t="n">
-        <v>0.983200816</v>
+        <v>8.088</v>
       </c>
       <c r="N26" t="n">
         <v>3.6</v>
       </c>
       <c r="O26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
-        <v>239.2142857</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q26" t="s">
         <v>83</v>
       </c>
       <c r="R26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B27" t="n">
-        <v>8178</v>
+        <v>9462</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>20</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E27" s="1"/>
       <c r="F27" t="n">
         <v>0.058</v>
       </c>
@@ -2443,46 +2397,44 @@
         <v>0.6</v>
       </c>
       <c r="K27" t="n">
-        <v>0.033660158</v>
+        <v>0.041736166</v>
       </c>
       <c r="L27" t="n">
-        <v>5.827907827</v>
+        <v>3.559643653</v>
       </c>
       <c r="M27" t="n">
-        <v>12.74171193</v>
+        <v>0.983200816</v>
       </c>
       <c r="N27" t="n">
         <v>3.6</v>
       </c>
       <c r="O27" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="P27" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>239.2142857</v>
       </c>
       <c r="Q27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="R27" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B28" t="n">
-        <v>35016</v>
+        <v>8178</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>48</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E28" s="1"/>
       <c r="F28" t="n">
         <v>0.058</v>
       </c>
@@ -2499,46 +2451,44 @@
         <v>0.6</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0306</v>
+        <v>0.033660158</v>
       </c>
       <c r="L28" t="n">
-        <v>7.683</v>
+        <v>5.827907827</v>
       </c>
       <c r="M28" t="n">
-        <v>8.088</v>
+        <v>12.74171193</v>
       </c>
       <c r="N28" t="n">
         <v>3.6</v>
       </c>
       <c r="O28" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="P28" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R28" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B29" t="n">
-        <v>15141</v>
+        <v>35016</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>22</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E29" s="1"/>
       <c r="F29" t="n">
         <v>0.058</v>
       </c>
@@ -2555,46 +2505,44 @@
         <v>0.6</v>
       </c>
       <c r="K29" t="n">
-        <v>0.029629965</v>
+        <v>0.0306</v>
       </c>
       <c r="L29" t="n">
-        <v>5.792212078</v>
+        <v>7.683</v>
       </c>
       <c r="M29" t="n">
-        <v>17.39054258</v>
+        <v>8.088</v>
       </c>
       <c r="N29" t="n">
         <v>3.6</v>
       </c>
       <c r="O29" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="P29" t="n">
-        <v>172.8571429</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="R29" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B30" t="n">
-        <v>7667</v>
+        <v>15141</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E30" s="1"/>
       <c r="F30" t="n">
         <v>0.058</v>
       </c>
@@ -2611,36 +2559,36 @@
         <v>0.6</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0306</v>
+        <v>0.029629965</v>
       </c>
       <c r="L30" t="n">
-        <v>7.683</v>
+        <v>5.792212078</v>
       </c>
       <c r="M30" t="n">
-        <v>8.088</v>
+        <v>17.39054258</v>
       </c>
       <c r="N30" t="n">
         <v>3.6</v>
       </c>
       <c r="O30" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="P30" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>172.8571429</v>
       </c>
       <c r="Q30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="R30" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B31" t="n">
-        <v>6737</v>
+        <v>7667</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2648,9 +2596,7 @@
       <c r="D31" t="n">
         <v>0</v>
       </c>
-      <c r="E31" s="1" t="n">
-        <v>43980</v>
-      </c>
+      <c r="E31" s="1"/>
       <c r="F31" t="n">
         <v>0.058</v>
       </c>
@@ -2667,13 +2613,13 @@
         <v>0.6</v>
       </c>
       <c r="K31" t="n">
-        <v>0.026663023</v>
+        <v>0.0306</v>
       </c>
       <c r="L31" t="n">
-        <v>6.941391743</v>
+        <v>7.683</v>
       </c>
       <c r="M31" t="n">
-        <v>8.402639483</v>
+        <v>8.088</v>
       </c>
       <c r="N31" t="n">
         <v>3.6</v>
@@ -2682,10 +2628,10 @@
         <v>93</v>
       </c>
       <c r="P31" t="n">
-        <v>53.85714286</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="R31" t="s">
         <v>95</v>
@@ -2693,20 +2639,18 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B32" t="n">
-        <v>27776</v>
+        <v>6737</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>60</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E32" s="1"/>
       <c r="F32" t="n">
         <v>0.058</v>
       </c>
@@ -2723,46 +2667,44 @@
         <v>0.6</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0343531703183581</v>
+        <v>0.026663023</v>
       </c>
       <c r="L32" t="n">
-        <v>8.99678843304174</v>
+        <v>6.941391743</v>
       </c>
       <c r="M32" t="n">
-        <v>11.5033465279679</v>
+        <v>8.402639483</v>
       </c>
       <c r="N32" t="n">
         <v>3.6</v>
       </c>
       <c r="O32" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="P32" t="n">
-        <v>12.6428571428571</v>
+        <v>53.85714286</v>
       </c>
       <c r="Q32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R32" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B33" t="n">
-        <v>8409</v>
+        <v>27776</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E33" s="1"/>
       <c r="F33" t="n">
         <v>0.058</v>
       </c>
@@ -2779,46 +2721,44 @@
         <v>0.6</v>
       </c>
       <c r="K33" t="n">
-        <v>0.01370345097405</v>
+        <v>0.069645977</v>
       </c>
       <c r="L33" t="n">
-        <v>3.57585084960885</v>
+        <v>4.153498272</v>
       </c>
       <c r="M33" t="n">
-        <v>11.7117303517354</v>
+        <v>10.90377979</v>
       </c>
       <c r="N33" t="n">
         <v>3.6</v>
       </c>
       <c r="O33" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="P33" t="n">
-        <v>11.5714285714286</v>
+        <v>14.57142857</v>
       </c>
       <c r="Q33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R33" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B34" t="n">
-        <v>8793</v>
+        <v>8409</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>37</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E34" s="1"/>
       <c r="F34" t="n">
         <v>0.058</v>
       </c>
@@ -2835,46 +2775,44 @@
         <v>0.6</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0276</v>
+        <v>0.00950126</v>
       </c>
       <c r="L34" t="n">
-        <v>7.683</v>
+        <v>2.416326327</v>
       </c>
       <c r="M34" t="n">
-        <v>8.088</v>
+        <v>29.0867683</v>
       </c>
       <c r="N34" t="n">
         <v>3.6</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="P34" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>6.857142857</v>
       </c>
       <c r="Q34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R34" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B35" t="n">
-        <v>34974</v>
+        <v>8793</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>65</v>
-      </c>
-      <c r="E35" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E35" s="1"/>
       <c r="F35" t="n">
         <v>0.058</v>
       </c>
@@ -2891,46 +2829,44 @@
         <v>0.6</v>
       </c>
       <c r="K35" t="n">
-        <v>0.036980711</v>
+        <v>0.0276</v>
       </c>
       <c r="L35" t="n">
-        <v>5.277084777</v>
+        <v>7.683</v>
       </c>
       <c r="M35" t="n">
-        <v>14.43647743</v>
+        <v>8.088</v>
       </c>
       <c r="N35" t="n">
         <v>3.6</v>
       </c>
       <c r="O35" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="P35" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="R35" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="B36" t="n">
-        <v>40997</v>
+        <v>34974</v>
       </c>
       <c r="C36" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>129</v>
-      </c>
-      <c r="E36" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E36" s="1"/>
       <c r="F36" t="n">
         <v>0.058</v>
       </c>
@@ -2947,46 +2883,44 @@
         <v>0.6</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0306</v>
+        <v>0.036980711</v>
       </c>
       <c r="L36" t="n">
-        <v>7.683</v>
+        <v>5.277084777</v>
       </c>
       <c r="M36" t="n">
-        <v>8.088</v>
+        <v>14.43647743</v>
       </c>
       <c r="N36" t="n">
         <v>3.6</v>
       </c>
       <c r="O36" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="P36" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q36" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="R36" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="B37" t="n">
-        <v>11221</v>
+        <v>40997</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D37" t="n">
-        <v>33</v>
-      </c>
-      <c r="E37" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="E37" s="1"/>
       <c r="F37" t="n">
         <v>0.058</v>
       </c>
@@ -3003,46 +2937,44 @@
         <v>0.6</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0336</v>
+        <v>0.0306</v>
       </c>
       <c r="L37" t="n">
-        <v>6.822</v>
+        <v>7.683</v>
       </c>
       <c r="M37" t="n">
-        <v>8.9133</v>
+        <v>8.088</v>
       </c>
       <c r="N37" t="n">
         <v>3.6</v>
       </c>
       <c r="O37" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="P37" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q37" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="R37" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B38" t="n">
-        <v>6121</v>
+        <v>11221</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E38" s="1"/>
       <c r="F38" t="n">
         <v>0.058</v>
       </c>
@@ -3059,46 +2991,44 @@
         <v>0.6</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0306</v>
+        <v>0.0336</v>
       </c>
       <c r="L38" t="n">
-        <v>7.683</v>
+        <v>6.822</v>
       </c>
       <c r="M38" t="n">
-        <v>8.088</v>
+        <v>8.9133</v>
       </c>
       <c r="N38" t="n">
         <v>3.6</v>
       </c>
       <c r="O38" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="P38" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R38" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B39" t="n">
-        <v>65534</v>
+        <v>6121</v>
       </c>
       <c r="C39" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>101</v>
-      </c>
-      <c r="E39" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E39" s="1"/>
       <c r="F39" t="n">
         <v>0.058</v>
       </c>
@@ -3115,46 +3045,44 @@
         <v>0.6</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0213199635081573</v>
+        <v>0.0306</v>
       </c>
       <c r="L39" t="n">
-        <v>3.91272249515186</v>
+        <v>7.683</v>
       </c>
       <c r="M39" t="n">
-        <v>21.6995850662691</v>
+        <v>8.088</v>
       </c>
       <c r="N39" t="n">
         <v>3.6</v>
       </c>
       <c r="O39" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
-        <v>22.5714285714286</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="R39" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B40" t="n">
-        <v>2077</v>
+        <v>65534</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E40" s="1"/>
       <c r="F40" t="n">
         <v>0.058</v>
       </c>
@@ -3171,46 +3099,44 @@
         <v>0.6</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0306</v>
+        <v>0.011363294</v>
       </c>
       <c r="L40" t="n">
-        <v>7.683</v>
+        <v>7.446116658</v>
       </c>
       <c r="M40" t="n">
-        <v>8.088</v>
+        <v>20.40108581</v>
       </c>
       <c r="N40" t="n">
         <v>3.6</v>
       </c>
       <c r="O40" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="P40" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>22.57142857</v>
       </c>
       <c r="Q40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R40" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B41" t="n">
-        <v>16566</v>
+        <v>2077</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>44</v>
-      </c>
-      <c r="E41" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E41" s="1"/>
       <c r="F41" t="n">
         <v>0.058</v>
       </c>
@@ -3227,46 +3153,44 @@
         <v>0.6</v>
       </c>
       <c r="K41" t="n">
-        <v>0.027908568</v>
+        <v>0.0306</v>
       </c>
       <c r="L41" t="n">
-        <v>7.806058271</v>
+        <v>7.683</v>
       </c>
       <c r="M41" t="n">
-        <v>7.511047218</v>
+        <v>8.088</v>
       </c>
       <c r="N41" t="n">
         <v>3.6</v>
       </c>
       <c r="O41" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="P41" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="R41" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B42" t="n">
-        <v>27739</v>
+        <v>16566</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>90</v>
-      </c>
-      <c r="E42" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E42" s="1"/>
       <c r="F42" t="n">
         <v>0.058</v>
       </c>
@@ -3283,46 +3207,44 @@
         <v>0.6</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0306</v>
+        <v>0.027908568</v>
       </c>
       <c r="L42" t="n">
-        <v>7.683</v>
+        <v>7.806058271</v>
       </c>
       <c r="M42" t="n">
-        <v>8.088</v>
+        <v>7.511047218</v>
       </c>
       <c r="N42" t="n">
         <v>3.6</v>
       </c>
       <c r="O42" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="P42" t="n">
-        <v>6.21428571428571</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R42" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B43" t="n">
-        <v>15336</v>
+        <v>27739</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>41</v>
-      </c>
-      <c r="E43" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E43" s="1"/>
       <c r="F43" t="n">
         <v>0.058</v>
       </c>
@@ -3351,34 +3273,32 @@
         <v>3.6</v>
       </c>
       <c r="O43" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>6.214285714</v>
       </c>
       <c r="Q43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R43" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B44" t="n">
-        <v>13216</v>
+        <v>15336</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>16</v>
-      </c>
-      <c r="E44" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E44" s="1"/>
       <c r="F44" t="n">
         <v>0.058</v>
       </c>
@@ -3395,46 +3315,44 @@
         <v>0.6</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0296647385288338</v>
+        <v>0.0306</v>
       </c>
       <c r="L44" t="n">
-        <v>7.4701511261174</v>
+        <v>7.683</v>
       </c>
       <c r="M44" t="n">
-        <v>7.70972158228065</v>
+        <v>8.088</v>
       </c>
       <c r="N44" t="n">
         <v>3.6</v>
       </c>
       <c r="O44" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="P44" t="n">
-        <v>1.64285714285714</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R44" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B45" t="n">
-        <v>4519</v>
+        <v>13216</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E45" s="1"/>
       <c r="F45" t="n">
         <v>0.058</v>
       </c>
@@ -3451,46 +3369,44 @@
         <v>0.6</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0306</v>
+        <v>0.038250899</v>
       </c>
       <c r="L45" t="n">
-        <v>7.683</v>
+        <v>3.653086829</v>
       </c>
       <c r="M45" t="n">
-        <v>8.088</v>
+        <v>11.47915988</v>
       </c>
       <c r="N45" t="n">
         <v>3.6</v>
       </c>
       <c r="O45" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="P45" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>0.714285714</v>
       </c>
       <c r="Q45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R45" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B46" t="n">
-        <v>6640</v>
+        <v>4519</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>6</v>
-      </c>
-      <c r="E46" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E46" s="1"/>
       <c r="F46" t="n">
         <v>0.058</v>
       </c>
@@ -3519,34 +3435,32 @@
         <v>3.6</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="P46" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R46" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B47" t="n">
-        <v>9178</v>
+        <v>6640</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>13</v>
-      </c>
-      <c r="E47" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E47" s="1"/>
       <c r="F47" t="n">
         <v>0.058</v>
       </c>
@@ -3575,90 +3489,86 @@
         <v>3.6</v>
       </c>
       <c r="O47" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="P47" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="R47" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B48" t="n">
-        <v>45378</v>
+        <v>22041</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.0306</v>
+      </c>
+      <c r="L48" t="n">
+        <v>7.683</v>
+      </c>
+      <c r="M48" t="n">
+        <v>8.088</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O48" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="1" t="n">
-        <v>43980</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.0498706463034198</v>
-      </c>
-      <c r="L48" t="n">
-        <v>2.3826347976817</v>
-      </c>
-      <c r="M48" t="n">
-        <v>10.4481456395012</v>
-      </c>
-      <c r="N48" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O48" t="s">
-        <v>93</v>
-      </c>
       <c r="P48" t="n">
-        <v>20.2142857142857</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R48" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B49" t="n">
-        <v>20301</v>
+        <v>9178</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>50</v>
-      </c>
-      <c r="E49" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E49" s="1"/>
       <c r="F49" t="n">
         <v>0.058</v>
       </c>
@@ -3687,34 +3597,32 @@
         <v>3.6</v>
       </c>
       <c r="O49" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="P49" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R49" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B50" t="n">
-        <v>3718</v>
+        <v>45378</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E50" s="1"/>
       <c r="F50" t="n">
         <v>0.058</v>
       </c>
@@ -3731,46 +3639,44 @@
         <v>0.6</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0306</v>
+        <v>0.015578166</v>
       </c>
       <c r="L50" t="n">
-        <v>7.683</v>
+        <v>11.99163669</v>
       </c>
       <c r="M50" t="n">
-        <v>8.088</v>
+        <v>18.69451795</v>
       </c>
       <c r="N50" t="n">
         <v>3.6</v>
       </c>
       <c r="O50" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="P50" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>2.071428571</v>
       </c>
       <c r="Q50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R50" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B51" t="n">
-        <v>11982</v>
+        <v>20301</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E51" s="1"/>
       <c r="F51" t="n">
         <v>0.058</v>
       </c>
@@ -3787,46 +3693,44 @@
         <v>0.6</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0491780008037086</v>
+        <v>0.0306</v>
       </c>
       <c r="L51" t="n">
-        <v>6.39012537615037</v>
+        <v>7.683</v>
       </c>
       <c r="M51" t="n">
-        <v>13.5074990763696</v>
+        <v>8.088</v>
       </c>
       <c r="N51" t="n">
         <v>3.6</v>
       </c>
       <c r="O51" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="P51" t="n">
-        <v>8.35714285714286</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q51" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R51" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B52" t="n">
-        <v>21374</v>
+        <v>3718</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>34</v>
-      </c>
-      <c r="E52" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E52" s="1"/>
       <c r="F52" t="n">
         <v>0.058</v>
       </c>
@@ -3855,24 +3759,24 @@
         <v>3.6</v>
       </c>
       <c r="O52" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="P52" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="R52" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B53" t="n">
-        <v>9178</v>
+        <v>11982</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -3880,9 +3784,7 @@
       <c r="D53" t="n">
         <v>0</v>
       </c>
-      <c r="E53" s="1" t="n">
-        <v>43980</v>
-      </c>
+      <c r="E53" s="1"/>
       <c r="F53" t="n">
         <v>0.058</v>
       </c>
@@ -3899,46 +3801,44 @@
         <v>0.6</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0306</v>
+        <v>0.040216496</v>
       </c>
       <c r="L53" t="n">
-        <v>7.683</v>
+        <v>8.213276233</v>
       </c>
       <c r="M53" t="n">
-        <v>8.088</v>
+        <v>9.177596187</v>
       </c>
       <c r="N53" t="n">
         <v>3.6</v>
       </c>
       <c r="O53" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P53" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>9.857142857</v>
       </c>
       <c r="Q53" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R53" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B54" t="n">
-        <v>2640</v>
+        <v>21374</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E54" s="1"/>
       <c r="F54" t="n">
         <v>0.058</v>
       </c>
@@ -3967,34 +3867,32 @@
         <v>3.6</v>
       </c>
       <c r="O54" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="P54" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q54" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R54" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B55" t="n">
-        <v>11225</v>
+        <v>9178</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>32</v>
-      </c>
-      <c r="E55" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E55" s="1"/>
       <c r="F55" t="n">
         <v>0.058</v>
       </c>
@@ -4011,102 +3909,98 @@
         <v>0.6</v>
       </c>
       <c r="K55" t="n">
-        <v>0.016163788</v>
+        <v>0.0306</v>
       </c>
       <c r="L55" t="n">
-        <v>4.999584583</v>
+        <v>7.683</v>
       </c>
       <c r="M55" t="n">
-        <v>11.78338213</v>
+        <v>8.088</v>
       </c>
       <c r="N55" t="n">
         <v>3.6</v>
       </c>
       <c r="O55" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="P55" t="n">
-        <v>3.428571429</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q55" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R55" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B56" t="n">
-        <v>17626</v>
+        <v>2640</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.0306</v>
+      </c>
+      <c r="L56" t="n">
+        <v>7.683</v>
+      </c>
+      <c r="M56" t="n">
+        <v>8.088</v>
+      </c>
+      <c r="N56" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O56" t="s">
         <v>31</v>
-      </c>
-      <c r="E56" s="1" t="n">
-        <v>43980</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.033660158</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5.827907827</v>
-      </c>
-      <c r="M56" t="n">
-        <v>12.74171193</v>
-      </c>
-      <c r="N56" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O56" t="s">
-        <v>27</v>
       </c>
       <c r="P56" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q56" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R56" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="B57" t="n">
-        <v>34976</v>
+        <v>11225</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>56</v>
-      </c>
-      <c r="E57" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E57" s="1"/>
       <c r="F57" t="n">
         <v>0.058</v>
       </c>
@@ -4123,28 +4017,28 @@
         <v>0.6</v>
       </c>
       <c r="K57" t="n">
-        <v>0.0113388465996081</v>
+        <v>0.016163788</v>
       </c>
       <c r="L57" t="n">
-        <v>7.02724124658893</v>
+        <v>4.999584583</v>
       </c>
       <c r="M57" t="n">
-        <v>7.25838269392971</v>
+        <v>11.78338213</v>
       </c>
       <c r="N57" t="n">
         <v>3.6</v>
       </c>
       <c r="O57" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="P57" t="n">
-        <v>17.5714285714286</v>
+        <v>3.428571429</v>
       </c>
       <c r="Q57" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="R57" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58">
@@ -4152,17 +4046,15 @@
         <v>146</v>
       </c>
       <c r="B58" t="n">
-        <v>32843</v>
+        <v>17626</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>64</v>
-      </c>
-      <c r="E58" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E58" s="1"/>
       <c r="F58" t="n">
         <v>0.058</v>
       </c>
@@ -4179,19 +4071,19 @@
         <v>0.6</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0306</v>
+        <v>0.033660158</v>
       </c>
       <c r="L58" t="n">
-        <v>7.683</v>
+        <v>5.827907827</v>
       </c>
       <c r="M58" t="n">
-        <v>8.088</v>
+        <v>12.74171193</v>
       </c>
       <c r="N58" t="n">
         <v>3.6</v>
       </c>
       <c r="O58" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="P58" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
@@ -4200,25 +4092,23 @@
         <v>147</v>
       </c>
       <c r="R58" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="B59" t="n">
-        <v>6711</v>
+        <v>34976</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E59" s="1"/>
       <c r="F59" t="n">
         <v>0.058</v>
       </c>
@@ -4235,46 +4125,44 @@
         <v>0.6</v>
       </c>
       <c r="K59" t="n">
-        <v>0.0286549636528969</v>
+        <v>0.033900478</v>
       </c>
       <c r="L59" t="n">
-        <v>6.28657927034239</v>
+        <v>4.166551781</v>
       </c>
       <c r="M59" t="n">
-        <v>7.69352438500675</v>
+        <v>11.59731613</v>
       </c>
       <c r="N59" t="n">
         <v>3.6</v>
       </c>
       <c r="O59" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="P59" t="n">
-        <v>7.64285714285714</v>
+        <v>7.642857143</v>
       </c>
       <c r="Q59" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="R59" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B60" t="n">
-        <v>1576</v>
+        <v>32843</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>21</v>
-      </c>
-      <c r="E60" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E60" s="1"/>
       <c r="F60" t="n">
         <v>0.058</v>
       </c>
@@ -4303,34 +4191,32 @@
         <v>3.6</v>
       </c>
       <c r="O60" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="P60" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q60" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R60" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="B61" t="n">
-        <v>45093</v>
+        <v>6711</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>69</v>
-      </c>
-      <c r="E61" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E61" s="1"/>
       <c r="F61" t="n">
         <v>0.058</v>
       </c>
@@ -4347,46 +4233,44 @@
         <v>0.6</v>
       </c>
       <c r="K61" t="n">
-        <v>0.0123749407507632</v>
+        <v>0.021779467</v>
       </c>
       <c r="L61" t="n">
-        <v>16.7904197237618</v>
+        <v>2.397102273</v>
       </c>
       <c r="M61" t="n">
-        <v>17.9903986232168</v>
+        <v>37.23467509</v>
       </c>
       <c r="N61" t="n">
         <v>3.6</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P61" t="n">
-        <v>12.6428571428571</v>
+        <v>0.214285714</v>
       </c>
       <c r="Q61" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="R61" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="B62" t="n">
-        <v>12517</v>
+        <v>1576</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>18</v>
-      </c>
-      <c r="E62" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E62" s="1"/>
       <c r="F62" t="n">
         <v>0.058</v>
       </c>
@@ -4415,34 +4299,32 @@
         <v>3.6</v>
       </c>
       <c r="O62" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="P62" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q62" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="R62" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12017</v>
+        <v>45093</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E63" s="1"/>
       <c r="F63" t="n">
         <v>0.058</v>
       </c>
@@ -4459,46 +4341,44 @@
         <v>0.6</v>
       </c>
       <c r="K63" t="n">
-        <v>0.009065261</v>
+        <v>0.024041681</v>
       </c>
       <c r="L63" t="n">
-        <v>3.417739283</v>
+        <v>9.251814022</v>
       </c>
       <c r="M63" t="n">
-        <v>33.08135546</v>
+        <v>19.27673719</v>
       </c>
       <c r="N63" t="n">
         <v>3.6</v>
       </c>
       <c r="O63" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="P63" t="n">
-        <v>5.071428571</v>
+        <v>11.21428571</v>
       </c>
       <c r="Q63" t="s">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="R63" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="B64" t="n">
-        <v>16219</v>
+        <v>12517</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>96</v>
-      </c>
-      <c r="E64" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E64" s="1"/>
       <c r="F64" t="n">
         <v>0.058</v>
       </c>
@@ -4515,46 +4395,44 @@
         <v>0.6</v>
       </c>
       <c r="K64" t="n">
-        <v>0.0336</v>
+        <v>0.0306</v>
       </c>
       <c r="L64" t="n">
-        <v>6.822</v>
+        <v>7.683</v>
       </c>
       <c r="M64" t="n">
-        <v>8.9133</v>
+        <v>8.088</v>
       </c>
       <c r="N64" t="n">
         <v>3.6</v>
       </c>
       <c r="O64" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="P64" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q64" t="s">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="R64" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B65" t="n">
-        <v>62019</v>
+        <v>12017</v>
       </c>
       <c r="C65" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>162</v>
-      </c>
-      <c r="E65" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E65" s="1"/>
       <c r="F65" t="n">
         <v>0.058</v>
       </c>
@@ -4571,46 +4449,44 @@
         <v>0.6</v>
       </c>
       <c r="K65" t="n">
-        <v>0.0103423749368155</v>
+        <v>0.009065261</v>
       </c>
       <c r="L65" t="n">
-        <v>15.6892258095808</v>
+        <v>3.417739283</v>
       </c>
       <c r="M65" t="n">
-        <v>15.7522892818423</v>
+        <v>33.08135546</v>
       </c>
       <c r="N65" t="n">
         <v>3.6</v>
       </c>
       <c r="O65" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
-        <v>351</v>
+        <v>5.071428571</v>
       </c>
       <c r="Q65" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R65" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B66" t="n">
-        <v>17479</v>
+        <v>16219</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>31</v>
-      </c>
-      <c r="E66" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E66" s="1"/>
       <c r="F66" t="n">
         <v>0.058</v>
       </c>
@@ -4627,46 +4503,44 @@
         <v>0.6</v>
       </c>
       <c r="K66" t="n">
-        <v>0.0147946014901885</v>
+        <v>0.0336</v>
       </c>
       <c r="L66" t="n">
-        <v>5.32212423043465</v>
+        <v>6.822</v>
       </c>
       <c r="M66" t="n">
-        <v>0.932184259671815</v>
+        <v>8.9133</v>
       </c>
       <c r="N66" t="n">
         <v>3.6</v>
       </c>
       <c r="O66" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P66" t="n">
-        <v>13.2857142857143</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q66" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="R66" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B67" t="n">
-        <v>10206</v>
+        <v>62019</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D67" t="n">
-        <v>32</v>
-      </c>
-      <c r="E67" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E67" s="1"/>
       <c r="F67" t="n">
         <v>0.058</v>
       </c>
@@ -4683,46 +4557,44 @@
         <v>0.6</v>
       </c>
       <c r="K67" t="n">
-        <v>0.0306</v>
+        <v>0.010792288</v>
       </c>
       <c r="L67" t="n">
-        <v>7.683</v>
+        <v>9.96414484</v>
       </c>
       <c r="M67" t="n">
-        <v>8.088</v>
+        <v>61.90580714</v>
       </c>
       <c r="N67" t="n">
         <v>3.6</v>
       </c>
       <c r="O67" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P67" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>16.64285714</v>
       </c>
       <c r="Q67" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R67" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B68" t="n">
-        <v>5156</v>
+        <v>17479</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>18</v>
-      </c>
-      <c r="E68" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E68" s="1"/>
       <c r="F68" t="n">
         <v>0.058</v>
       </c>
@@ -4739,46 +4611,44 @@
         <v>0.6</v>
       </c>
       <c r="K68" t="n">
-        <v>0.0306</v>
+        <v>0.01675045</v>
       </c>
       <c r="L68" t="n">
-        <v>7.683</v>
+        <v>4.572354043</v>
       </c>
       <c r="M68" t="n">
-        <v>8.088</v>
+        <v>0.923854503</v>
       </c>
       <c r="N68" t="n">
         <v>3.6</v>
       </c>
       <c r="O68" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="P68" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>12.71428571</v>
       </c>
       <c r="Q68" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="R68" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B69" t="n">
-        <v>4001</v>
+        <v>10206</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E69" s="1"/>
       <c r="F69" t="n">
         <v>0.058</v>
       </c>
@@ -4807,34 +4677,32 @@
         <v>3.6</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="P69" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q69" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R69" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="B70" t="n">
-        <v>232491</v>
+        <v>5156</v>
       </c>
       <c r="C70" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>526</v>
-      </c>
-      <c r="E70" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E70" s="1"/>
       <c r="F70" t="n">
         <v>0.058</v>
       </c>
@@ -4851,28 +4719,28 @@
         <v>0.6</v>
       </c>
       <c r="K70" t="n">
-        <v>0.028707306867348</v>
+        <v>0.0306</v>
       </c>
       <c r="L70" t="n">
-        <v>4.77115257615507</v>
+        <v>7.683</v>
       </c>
       <c r="M70" t="n">
-        <v>36.6878402862112</v>
+        <v>8.088</v>
       </c>
       <c r="N70" t="n">
         <v>3.6</v>
       </c>
       <c r="O70" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
-        <v>111.142857142857</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q70" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="R70" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71">
@@ -4880,17 +4748,15 @@
         <v>166</v>
       </c>
       <c r="B71" t="n">
-        <v>17151</v>
+        <v>4001</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>63</v>
-      </c>
-      <c r="E71" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E71" s="1"/>
       <c r="F71" t="n">
         <v>0.058</v>
       </c>
@@ -4907,46 +4773,44 @@
         <v>0.6</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0038835756582796</v>
+        <v>0.0306</v>
       </c>
       <c r="L71" t="n">
-        <v>13.5576338855452</v>
+        <v>7.683</v>
       </c>
       <c r="M71" t="n">
-        <v>0.256967165569706</v>
+        <v>8.088</v>
       </c>
       <c r="N71" t="n">
         <v>3.6</v>
       </c>
       <c r="O71" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="P71" t="n">
-        <v>420.928571428571</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q71" t="s">
         <v>167</v>
       </c>
       <c r="R71" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="B72" t="n">
-        <v>3429</v>
+        <v>232491</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="E72" s="1"/>
       <c r="F72" t="n">
         <v>0.058</v>
       </c>
@@ -4963,46 +4827,44 @@
         <v>0.6</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0306</v>
+        <v>0.035174527</v>
       </c>
       <c r="L72" t="n">
-        <v>7.683</v>
+        <v>3.959561107</v>
       </c>
       <c r="M72" t="n">
-        <v>8.088</v>
+        <v>31.99503328</v>
       </c>
       <c r="N72" t="n">
         <v>3.6</v>
       </c>
       <c r="O72" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="P72" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>145.6428571</v>
       </c>
       <c r="Q72" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="R72" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B73" t="n">
-        <v>3146</v>
+        <v>17151</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E73" s="1"/>
       <c r="F73" t="n">
         <v>0.058</v>
       </c>
@@ -5019,46 +4881,44 @@
         <v>0.6</v>
       </c>
       <c r="K73" t="n">
-        <v>0.041736166</v>
+        <v>0.000808592</v>
       </c>
       <c r="L73" t="n">
-        <v>3.559643653</v>
+        <v>4.413414322</v>
       </c>
       <c r="M73" t="n">
-        <v>0.983200816</v>
+        <v>0.452892713</v>
       </c>
       <c r="N73" t="n">
         <v>3.6</v>
       </c>
       <c r="O73" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="P73" t="n">
-        <v>239.2142857</v>
+        <v>244.5714286</v>
       </c>
       <c r="Q73" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="R73" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B74" t="n">
-        <v>16628</v>
+        <v>3429</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>20</v>
-      </c>
-      <c r="E74" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E74" s="1"/>
       <c r="F74" t="n">
         <v>0.058</v>
       </c>
@@ -5087,34 +4947,32 @@
         <v>3.6</v>
       </c>
       <c r="O74" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="P74" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q74" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R74" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="B75" t="n">
-        <v>11708</v>
+        <v>3146</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>40</v>
-      </c>
-      <c r="E75" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E75" s="1"/>
       <c r="F75" t="n">
         <v>0.058</v>
       </c>
@@ -5131,28 +4989,28 @@
         <v>0.6</v>
       </c>
       <c r="K75" t="n">
-        <v>0.0306</v>
+        <v>0.041736166</v>
       </c>
       <c r="L75" t="n">
-        <v>7.683</v>
+        <v>3.559643653</v>
       </c>
       <c r="M75" t="n">
-        <v>8.088</v>
+        <v>0.983200816</v>
       </c>
       <c r="N75" t="n">
         <v>3.6</v>
       </c>
       <c r="O75" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="P75" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>239.2142857</v>
       </c>
       <c r="Q75" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="R75" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76">
@@ -5160,17 +5018,15 @@
         <v>174</v>
       </c>
       <c r="B76" t="n">
-        <v>4063</v>
+        <v>16628</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E76" s="1"/>
       <c r="F76" t="n">
         <v>0.058</v>
       </c>
@@ -5187,19 +5043,19 @@
         <v>0.6</v>
       </c>
       <c r="K76" t="n">
-        <v>0.0336</v>
+        <v>0.0306</v>
       </c>
       <c r="L76" t="n">
-        <v>6.822</v>
+        <v>7.683</v>
       </c>
       <c r="M76" t="n">
-        <v>8.9133</v>
+        <v>8.088</v>
       </c>
       <c r="N76" t="n">
         <v>3.6</v>
       </c>
       <c r="O76" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="P76" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
@@ -5208,25 +5064,23 @@
         <v>175</v>
       </c>
       <c r="R76" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="B77" t="n">
-        <v>5595</v>
+        <v>11708</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>8</v>
-      </c>
-      <c r="E77" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E77" s="1"/>
       <c r="F77" t="n">
         <v>0.058</v>
       </c>
@@ -5255,34 +5109,32 @@
         <v>3.6</v>
       </c>
       <c r="O77" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="P77" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q77" t="s">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="R77" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B78" t="n">
-        <v>18906</v>
+        <v>4063</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>25</v>
-      </c>
-      <c r="E78" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E78" s="1"/>
       <c r="F78" t="n">
         <v>0.058</v>
       </c>
@@ -5299,46 +5151,44 @@
         <v>0.6</v>
       </c>
       <c r="K78" t="n">
-        <v>0.00941992098493599</v>
+        <v>0.0336</v>
       </c>
       <c r="L78" t="n">
-        <v>10.8575952112825</v>
+        <v>6.822</v>
       </c>
       <c r="M78" t="n">
-        <v>16.9057446095362</v>
+        <v>8.9133</v>
       </c>
       <c r="N78" t="n">
         <v>3.6</v>
       </c>
       <c r="O78" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="P78" t="n">
-        <v>0.0714285714285714</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q78" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="R78" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B79" t="n">
-        <v>4727</v>
+        <v>5595</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E79" s="1"/>
       <c r="F79" t="n">
         <v>0.058</v>
       </c>
@@ -5355,46 +5205,44 @@
         <v>0.6</v>
       </c>
       <c r="K79" t="n">
-        <v>0.011144884233302</v>
+        <v>0.0306</v>
       </c>
       <c r="L79" t="n">
-        <v>8.15551350086683</v>
+        <v>7.683</v>
       </c>
       <c r="M79" t="n">
-        <v>8.73082265871564</v>
+        <v>8.088</v>
       </c>
       <c r="N79" t="n">
         <v>3.6</v>
       </c>
       <c r="O79" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="P79" t="n">
-        <v>1.57142857142857</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q79" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R79" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B80" t="n">
-        <v>25881</v>
+        <v>18906</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>53</v>
-      </c>
-      <c r="E80" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E80" s="1"/>
       <c r="F80" t="n">
         <v>0.058</v>
       </c>
@@ -5411,46 +5259,44 @@
         <v>0.6</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0366</v>
+        <v>0.047121185</v>
       </c>
       <c r="L80" t="n">
-        <v>7.683</v>
+        <v>1.71852428</v>
       </c>
       <c r="M80" t="n">
-        <v>8.088</v>
+        <v>16.3980957</v>
       </c>
       <c r="N80" t="n">
         <v>3.6</v>
       </c>
       <c r="O80" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>0.071428571</v>
       </c>
       <c r="Q80" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="R80" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="B81" t="n">
-        <v>139000</v>
+        <v>4727</v>
       </c>
       <c r="C81" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>266</v>
-      </c>
-      <c r="E81" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E81" s="1"/>
       <c r="F81" t="n">
         <v>0.058</v>
       </c>
@@ -5467,28 +5313,28 @@
         <v>0.6</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0509510997371284</v>
+        <v>0.010689864</v>
       </c>
       <c r="L81" t="n">
-        <v>2.15256651499971</v>
+        <v>8.317893074</v>
       </c>
       <c r="M81" t="n">
-        <v>48.8954545629443</v>
+        <v>10.7961697</v>
       </c>
       <c r="N81" t="n">
         <v>3.6</v>
       </c>
       <c r="O81" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="P81" t="n">
-        <v>6.64285714285714</v>
+        <v>1.5</v>
       </c>
       <c r="Q81" t="s">
-        <v>95</v>
+        <v>183</v>
       </c>
       <c r="R81" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
@@ -5496,17 +5342,15 @@
         <v>184</v>
       </c>
       <c r="B82" t="n">
-        <v>90313</v>
+        <v>25881</v>
       </c>
       <c r="C82" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>160</v>
-      </c>
-      <c r="E82" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E82" s="1"/>
       <c r="F82" t="n">
         <v>0.058</v>
       </c>
@@ -5523,46 +5367,44 @@
         <v>0.6</v>
       </c>
       <c r="K82" t="n">
-        <v>0.0220620980836503</v>
+        <v>0.0366</v>
       </c>
       <c r="L82" t="n">
-        <v>4.36016804887154</v>
+        <v>7.683</v>
       </c>
       <c r="M82" t="n">
-        <v>17.5908706500203</v>
+        <v>8.088</v>
       </c>
       <c r="N82" t="n">
         <v>3.6</v>
       </c>
       <c r="O82" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="P82" t="n">
-        <v>73</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q82" t="s">
         <v>185</v>
       </c>
       <c r="R82" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="B83" t="n">
-        <v>103750</v>
+        <v>139000</v>
       </c>
       <c r="C83" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D83" t="n">
-        <v>200</v>
-      </c>
-      <c r="E83" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="E83" s="1"/>
       <c r="F83" t="n">
         <v>0.058</v>
       </c>
@@ -5579,28 +5421,28 @@
         <v>0.6</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0425383085775981</v>
+        <v>0.010083197</v>
       </c>
       <c r="L83" t="n">
-        <v>1.89932989261466</v>
+        <v>8.31766505</v>
       </c>
       <c r="M83" t="n">
-        <v>0.458868206275402</v>
+        <v>0.918223745</v>
       </c>
       <c r="N83" t="n">
         <v>3.6</v>
       </c>
       <c r="O83" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="P83" t="n">
-        <v>294.785714285714</v>
+        <v>8.5</v>
       </c>
       <c r="Q83" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="R83" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84">
@@ -5608,17 +5450,15 @@
         <v>186</v>
       </c>
       <c r="B84" t="n">
-        <v>13705</v>
+        <v>90313</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D84" t="n">
-        <v>20</v>
-      </c>
-      <c r="E84" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="E84" s="1"/>
       <c r="F84" t="n">
         <v>0.058</v>
       </c>
@@ -5635,13 +5475,13 @@
         <v>0.6</v>
       </c>
       <c r="K84" t="n">
-        <v>0.0107758088502964</v>
+        <v>0.02418042</v>
       </c>
       <c r="L84" t="n">
-        <v>12.7887034202759</v>
+        <v>3.239810757</v>
       </c>
       <c r="M84" t="n">
-        <v>9.19248727739886</v>
+        <v>17.24934459</v>
       </c>
       <c r="N84" t="n">
         <v>3.6</v>
@@ -5650,7 +5490,7 @@
         <v>93</v>
       </c>
       <c r="P84" t="n">
-        <v>28.4285714285714</v>
+        <v>56.92857143</v>
       </c>
       <c r="Q84" t="s">
         <v>187</v>
@@ -5661,20 +5501,18 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B85" t="n">
-        <v>9667</v>
+        <v>103750</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D85" t="n">
-        <v>37</v>
-      </c>
-      <c r="E85" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E85" s="1"/>
       <c r="F85" t="n">
         <v>0.058</v>
       </c>
@@ -5691,46 +5529,44 @@
         <v>0.6</v>
       </c>
       <c r="K85" t="n">
-        <v>0.027908568</v>
+        <v>0.051591803</v>
       </c>
       <c r="L85" t="n">
-        <v>7.806058271</v>
+        <v>1.597906366</v>
       </c>
       <c r="M85" t="n">
-        <v>7.511047218</v>
+        <v>0.83135002</v>
       </c>
       <c r="N85" t="n">
         <v>3.6</v>
       </c>
       <c r="O85" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="P85" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>290.7142857</v>
       </c>
       <c r="Q85" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="R85" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B86" t="n">
-        <v>3525</v>
+        <v>13705</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E86" s="1"/>
       <c r="F86" t="n">
         <v>0.058</v>
       </c>
@@ -5747,13 +5583,13 @@
         <v>0.6</v>
       </c>
       <c r="K86" t="n">
-        <v>0.0306</v>
+        <v>0.010377512</v>
       </c>
       <c r="L86" t="n">
-        <v>7.683</v>
+        <v>6.498560453</v>
       </c>
       <c r="M86" t="n">
-        <v>8.088</v>
+        <v>20.49619836</v>
       </c>
       <c r="N86" t="n">
         <v>3.6</v>
@@ -5762,10 +5598,10 @@
         <v>93</v>
       </c>
       <c r="P86" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>3.571428571</v>
       </c>
       <c r="Q86" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="R86" t="s">
         <v>95</v>
@@ -5773,20 +5609,18 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B87" t="n">
-        <v>3127</v>
+        <v>9667</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>5</v>
-      </c>
-      <c r="E87" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E87" s="1"/>
       <c r="F87" t="n">
         <v>0.058</v>
       </c>
@@ -5803,46 +5637,44 @@
         <v>0.6</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0306</v>
+        <v>0.027908568</v>
       </c>
       <c r="L87" t="n">
-        <v>7.683</v>
+        <v>7.806058271</v>
       </c>
       <c r="M87" t="n">
-        <v>8.088</v>
+        <v>7.511047218</v>
       </c>
       <c r="N87" t="n">
         <v>3.6</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="P87" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q87" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="R87" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B88" t="n">
-        <v>284971</v>
+        <v>3525</v>
       </c>
       <c r="C88" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>368</v>
-      </c>
-      <c r="E88" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E88" s="1"/>
       <c r="F88" t="n">
         <v>0.058</v>
       </c>
@@ -5859,46 +5691,44 @@
         <v>0.6</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0125957273809184</v>
+        <v>0.0306</v>
       </c>
       <c r="L88" t="n">
-        <v>10.6582232641913</v>
+        <v>7.683</v>
       </c>
       <c r="M88" t="n">
-        <v>26.6139442399196</v>
+        <v>8.088</v>
       </c>
       <c r="N88" t="n">
         <v>3.6</v>
       </c>
       <c r="O88" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="P88" t="n">
-        <v>101.714285714286</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q88" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R88" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B89" t="n">
-        <v>11309</v>
+        <v>3127</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E89" s="1"/>
       <c r="F89" t="n">
         <v>0.058</v>
       </c>
@@ -5927,34 +5757,32 @@
         <v>3.6</v>
       </c>
       <c r="O89" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="P89" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
       <c r="Q89" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R89" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B90" t="n">
-        <v>16128</v>
+        <v>284971</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D90" t="n">
-        <v>47</v>
-      </c>
-      <c r="E90" s="1" t="n">
-        <v>43980</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="E90" s="1"/>
       <c r="F90" t="n">
         <v>0.058</v>
       </c>
@@ -5971,84 +5799,190 @@
         <v>0.6</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0306</v>
+        <v>0.005776417</v>
       </c>
       <c r="L90" t="n">
-        <v>7.683</v>
+        <v>21.65713644</v>
       </c>
       <c r="M90" t="n">
-        <v>8.088</v>
+        <v>28.1133255</v>
       </c>
       <c r="N90" t="n">
         <v>3.6</v>
       </c>
       <c r="O90" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="P90" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>71.14285714</v>
       </c>
       <c r="Q90" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R90" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>198</v>
+      </c>
+      <c r="B91" t="n">
+        <v>11309</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0306</v>
+      </c>
+      <c r="L91" t="n">
+        <v>7.683</v>
+      </c>
+      <c r="M91" t="n">
+        <v>8.088</v>
+      </c>
+      <c r="N91" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O91" t="s">
+        <v>93</v>
+      </c>
+      <c r="P91" t="n">
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>199</v>
+      </c>
+      <c r="R91" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
         <v>200</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B92" t="n">
+        <v>16128</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>47</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.0306</v>
+      </c>
+      <c r="L92" t="n">
+        <v>7.683</v>
+      </c>
+      <c r="M92" t="n">
+        <v>8.088</v>
+      </c>
+      <c r="N92" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O92" t="s">
+        <v>61</v>
+      </c>
+      <c r="P92" t="n">
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>201</v>
+      </c>
+      <c r="R92" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>202</v>
+      </c>
+      <c r="B93" t="n">
         <v>26037</v>
       </c>
-      <c r="C91" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
         <v>21</v>
       </c>
-      <c r="E91" s="1" t="n">
-        <v>43980</v>
-      </c>
-      <c r="F91" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0295711804547951</v>
-      </c>
-      <c r="L91" t="n">
-        <v>3.59368393418243</v>
-      </c>
-      <c r="M91" t="n">
-        <v>25.4654260139062</v>
-      </c>
-      <c r="N91" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O91" t="s">
-        <v>71</v>
-      </c>
-      <c r="P91" t="n">
-        <v>4.85714285714286</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>201</v>
-      </c>
-      <c r="R91" t="s">
+      <c r="E93" s="1"/>
+      <c r="F93" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.053746421</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1.957159446</v>
+      </c>
+      <c r="M93" t="n">
+        <v>61.99407372</v>
+      </c>
+      <c r="N93" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O93" t="s">
         <v>73</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1.642857143</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>203</v>
+      </c>
+      <c r="R93" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/mcr_aglomerados.xlsx
+++ b/mcr_aglomerados.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t xml:space="preserve">aglomerado</t>
   </si>
@@ -62,568 +62,292 @@
     <t xml:space="preserve">mse</t>
   </si>
   <si>
-    <t xml:space="preserve">i_msa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ers_msa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Acorizal</t>
   </si>
   <si>
     <t xml:space="preserve">Baixada Cuiabana</t>
   </si>
   <si>
-    <t xml:space="preserve">acorizal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baixada cuiabana</t>
-  </si>
-  <si>
     <t xml:space="preserve">Agua Boa</t>
   </si>
   <si>
-    <t xml:space="preserve">agua boa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alta Floresta</t>
   </si>
   <si>
-    <t xml:space="preserve">alta floresta</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alto Araguaia</t>
   </si>
   <si>
     <t xml:space="preserve">Rondonopolis</t>
   </si>
   <si>
-    <t xml:space="preserve">alto araguaia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rondonopolis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alto Boa Vista</t>
   </si>
   <si>
     <t xml:space="preserve">Sao Felix do Araguaia</t>
   </si>
   <si>
-    <t xml:space="preserve">alto boa vista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sao felix do araguaia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alto Garcas</t>
   </si>
   <si>
-    <t xml:space="preserve">alto garcas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alto Paraguai</t>
   </si>
   <si>
     <t xml:space="preserve">Diamantino</t>
   </si>
   <si>
-    <t xml:space="preserve">alto paraguai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diamantino</t>
+    <t xml:space="preserve">Araputanga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caceres</t>
   </si>
   <si>
     <t xml:space="preserve">Arenapolis</t>
   </si>
   <si>
-    <t xml:space="preserve">arenapolis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aripuana</t>
   </si>
   <si>
     <t xml:space="preserve">Juina</t>
   </si>
   <si>
-    <t xml:space="preserve">aripuana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">juina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barra do Buges</t>
+    <t xml:space="preserve">Barra do Bugres</t>
   </si>
   <si>
     <t xml:space="preserve">Tangara da Serra</t>
   </si>
   <si>
-    <t xml:space="preserve">barra do buges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tangara da serra</t>
-  </si>
-  <si>
     <t xml:space="preserve">Barra do Garcas</t>
   </si>
   <si>
-    <t xml:space="preserve">barra do garcas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bom Jesus do Araguaia</t>
   </si>
   <si>
-    <t xml:space="preserve">bom jesus do araguaia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caceres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caceres</t>
-  </si>
-  <si>
     <t xml:space="preserve">Campo Novo do Parecis</t>
   </si>
   <si>
-    <t xml:space="preserve">campo novo do parecis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Campo Verde</t>
   </si>
   <si>
-    <t xml:space="preserve">campo verde</t>
-  </si>
-  <si>
     <t xml:space="preserve">Campos de Julio</t>
   </si>
   <si>
     <t xml:space="preserve">Pontes e Lacerda</t>
   </si>
   <si>
-    <t xml:space="preserve">campos de julio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pontes e lacerda</t>
-  </si>
-  <si>
     <t xml:space="preserve">Canarana</t>
   </si>
   <si>
-    <t xml:space="preserve">canarana</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chapada dos Guimaraes</t>
   </si>
   <si>
-    <t xml:space="preserve">chapada dos guimaraes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Colider</t>
   </si>
   <si>
-    <t xml:space="preserve">colider</t>
+    <t xml:space="preserve">Colniza</t>
   </si>
   <si>
     <t xml:space="preserve">Comodoro</t>
   </si>
   <si>
-    <t xml:space="preserve">comodoro</t>
-  </si>
-  <si>
     <t xml:space="preserve">Confresa</t>
   </si>
   <si>
     <t xml:space="preserve">Porto Alegre do Norte</t>
   </si>
   <si>
-    <t xml:space="preserve">confresa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">porto alegre do norte</t>
-  </si>
-  <si>
     <t xml:space="preserve">Conquista do Oeste</t>
   </si>
   <si>
-    <t xml:space="preserve">conquista do oeste</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cotriguacu</t>
   </si>
   <si>
-    <t xml:space="preserve">cotriguacu</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cuiaba</t>
   </si>
   <si>
-    <t xml:space="preserve">cuiaba</t>
-  </si>
-  <si>
     <t xml:space="preserve">Curvelandia</t>
   </si>
   <si>
-    <t xml:space="preserve">curvelandia</t>
+    <t xml:space="preserve">Denise</t>
   </si>
   <si>
     <t xml:space="preserve">Dom Aquino</t>
   </si>
   <si>
-    <t xml:space="preserve">dom aquino</t>
-  </si>
-  <si>
     <t xml:space="preserve">Guaranta do Norte</t>
   </si>
   <si>
     <t xml:space="preserve">Peixoto de Azevedo</t>
   </si>
   <si>
-    <t xml:space="preserve">guaranta do norte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peixoto de azevedo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Guiratinga</t>
   </si>
   <si>
-    <t xml:space="preserve">guiratinga</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ipiranga do Norte</t>
   </si>
   <si>
     <t xml:space="preserve">Sinop</t>
   </si>
   <si>
-    <t xml:space="preserve">ipiranga do norte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sinop</t>
-  </si>
-  <si>
     <t xml:space="preserve">Itanhanga</t>
   </si>
   <si>
-    <t xml:space="preserve">itanhanga</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jaciara</t>
   </si>
   <si>
-    <t xml:space="preserve">jaciara</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jangada</t>
   </si>
   <si>
-    <t xml:space="preserve">jangada</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jauru</t>
   </si>
   <si>
-    <t xml:space="preserve">jauru</t>
-  </si>
-  <si>
     <t xml:space="preserve">Juara</t>
   </si>
   <si>
-    <t xml:space="preserve">juara</t>
-  </si>
-  <si>
     <t xml:space="preserve">Juscimeira</t>
   </si>
   <si>
-    <t xml:space="preserve">juscimeira</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lambari do Oeste</t>
   </si>
   <si>
-    <t xml:space="preserve">lambari do oeste</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lucas do Rio Verde</t>
   </si>
   <si>
-    <t xml:space="preserve">lucas do rio verde</t>
-  </si>
-  <si>
     <t xml:space="preserve">Luciara</t>
   </si>
   <si>
-    <t xml:space="preserve">luciara</t>
-  </si>
-  <si>
     <t xml:space="preserve">Matupa</t>
   </si>
   <si>
-    <t xml:space="preserve">matupa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mirassol do Oeste</t>
   </si>
   <si>
-    <t xml:space="preserve">mirassol do oeste</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nobres</t>
   </si>
   <si>
-    <t xml:space="preserve">nobres</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nossa Senhora do Livramento</t>
   </si>
   <si>
-    <t xml:space="preserve">nossa senhora do livramento</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nova Guarita</t>
   </si>
   <si>
-    <t xml:space="preserve">nova guarita</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nova Lacerda</t>
   </si>
   <si>
-    <t xml:space="preserve">nova lacerda</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nova Maringa</t>
   </si>
   <si>
-    <t xml:space="preserve">nova maringa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nova Monte Verde</t>
   </si>
   <si>
-    <t xml:space="preserve">nova monte verde</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nova Mutum</t>
   </si>
   <si>
-    <t xml:space="preserve">nova mutum</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nova Olimpia</t>
   </si>
   <si>
-    <t xml:space="preserve">nova olimpia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nova Santa Helena</t>
   </si>
   <si>
-    <t xml:space="preserve">nova santa helena</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nova Ubirata</t>
   </si>
   <si>
-    <t xml:space="preserve">nova ubirata</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nova Xavantina</t>
   </si>
   <si>
-    <t xml:space="preserve">nova xavantina</t>
-  </si>
-  <si>
     <t xml:space="preserve">Novo Mundo</t>
   </si>
   <si>
-    <t xml:space="preserve">novo mundo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Novo Santo Antonio</t>
   </si>
   <si>
-    <t xml:space="preserve">novo santo antonio</t>
-  </si>
-  <si>
     <t xml:space="preserve">Paranaita</t>
   </si>
   <si>
-    <t xml:space="preserve">paranaita</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pedra Preta</t>
   </si>
   <si>
-    <t xml:space="preserve">pedra preta</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pocone</t>
   </si>
   <si>
-    <t xml:space="preserve">pocone</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pontal do Araguaia</t>
   </si>
   <si>
-    <t xml:space="preserve">pontal do araguaia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ponte Branca</t>
   </si>
   <si>
-    <t xml:space="preserve">ponte branca</t>
-  </si>
-  <si>
     <t xml:space="preserve">Porto Esperidiao</t>
   </si>
   <si>
-    <t xml:space="preserve">porto esperidiao</t>
-  </si>
-  <si>
     <t xml:space="preserve">Poxoreu</t>
   </si>
   <si>
-    <t xml:space="preserve">poxoreu</t>
-  </si>
-  <si>
     <t xml:space="preserve">Primavera do Leste</t>
   </si>
   <si>
-    <t xml:space="preserve">primavera do leste</t>
-  </si>
-  <si>
     <t xml:space="preserve">Querencia</t>
   </si>
   <si>
-    <t xml:space="preserve">querencia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ribeirao Cascalheira</t>
   </si>
   <si>
-    <t xml:space="preserve">ribeirao cascalheira</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rio Branco</t>
   </si>
   <si>
-    <t xml:space="preserve">rio branco</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rondolandia</t>
   </si>
   <si>
-    <t xml:space="preserve">rondolandia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rosario Oeste</t>
   </si>
   <si>
-    <t xml:space="preserve">rosario oeste</t>
-  </si>
-  <si>
     <t xml:space="preserve">Santa Rita do Trivelato</t>
   </si>
   <si>
-    <t xml:space="preserve">santa rita do trivelato</t>
-  </si>
-  <si>
     <t xml:space="preserve">Santo Afonso</t>
   </si>
   <si>
-    <t xml:space="preserve">santo afonso</t>
-  </si>
-  <si>
     <t xml:space="preserve">Santo Antonio do Leverger</t>
   </si>
   <si>
-    <t xml:space="preserve">santo antonio do leverger</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sao Jose do Povo</t>
   </si>
   <si>
-    <t xml:space="preserve">sao jose do povo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sao Jose do Xingu</t>
   </si>
   <si>
-    <t xml:space="preserve">sao jose do xingu</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sao Jose dos Quatro Marcos</t>
   </si>
   <si>
-    <t xml:space="preserve">sao jose dos quatro marcos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sao Pedro da Cipa</t>
   </si>
   <si>
-    <t xml:space="preserve">sao pedro da cipa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sapezal</t>
   </si>
   <si>
-    <t xml:space="preserve">sapezal</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sorriso</t>
   </si>
   <si>
-    <t xml:space="preserve">sorriso</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tapurah</t>
   </si>
   <si>
-    <t xml:space="preserve">tapurah</t>
-  </si>
-  <si>
     <t xml:space="preserve">Terra Nova do Norte</t>
   </si>
   <si>
-    <t xml:space="preserve">terra nova do norte</t>
-  </si>
-  <si>
     <t xml:space="preserve">Uniao do Sul</t>
   </si>
   <si>
-    <t xml:space="preserve">uniao do sul</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vale de Sao Domingos</t>
   </si>
   <si>
-    <t xml:space="preserve">vale de sao domingos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Varzea Grande</t>
   </si>
   <si>
-    <t xml:space="preserve">varzea grande</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vera</t>
   </si>
   <si>
-    <t xml:space="preserve">vera</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vila Bela da Santissima Trindade</t>
   </si>
   <si>
-    <t xml:space="preserve">vila bela da santissima trindade</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vila Rica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vila rica</t>
   </si>
 </sst>
 </file>
@@ -1010,16 +734,10 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" t="n">
         <v>5399</v>
@@ -1030,7 +748,9 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F2" t="n">
         <v>0.058</v>
       </c>
@@ -1047,33 +767,27 @@
         <v>0.6</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0260170845945237</v>
+        <v>0.0299203859394207</v>
       </c>
       <c r="L2" t="n">
-        <v>8.34838260522377</v>
+        <v>7.17294568963489</v>
       </c>
       <c r="M2" t="n">
-        <v>0.477411735707108</v>
+        <v>0.445990039502988</v>
       </c>
       <c r="N2" t="n">
         <v>3.6</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P2" t="n">
-        <v>1.07142857142857</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" t="n">
         <v>24032</v>
@@ -1084,7 +798,9 @@
       <c r="D3" t="n">
         <v>77</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F3" t="n">
         <v>0.058</v>
       </c>
@@ -1113,21 +829,15 @@
         <v>3.6</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P3" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
         <v>51782</v>
@@ -1138,7 +848,9 @@
       <c r="D4" t="n">
         <v>141</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F4" t="n">
         <v>0.058</v>
       </c>
@@ -1155,33 +867,27 @@
         <v>0.6</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0459113026344562</v>
+        <v>0.0288350169634605</v>
       </c>
       <c r="L4" t="n">
-        <v>4.58877668358955</v>
+        <v>5.85906130962716</v>
       </c>
       <c r="M4" t="n">
-        <v>11.8777817235985</v>
+        <v>18.8106909259408</v>
       </c>
       <c r="N4" t="n">
         <v>3.6</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="P4" t="n">
-        <v>23.7857142857143</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R4" t="s">
-        <v>25</v>
+        <v>17.3571428571429</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
         <v>19044</v>
@@ -1192,7 +898,9 @@
       <c r="D5" t="n">
         <v>98</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F5" t="n">
         <v>0.058</v>
       </c>
@@ -1209,33 +917,27 @@
         <v>0.6</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0421410613598508</v>
+        <v>0.0473497466631955</v>
       </c>
       <c r="L5" t="n">
-        <v>4.39056657558839</v>
+        <v>4.97248978737766</v>
       </c>
       <c r="M5" t="n">
-        <v>10.466102940335</v>
+        <v>9.95141858050192</v>
       </c>
       <c r="N5" t="n">
         <v>3.6</v>
       </c>
       <c r="O5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="P5" t="n">
-        <v>3.14285714285714</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" t="s">
-        <v>29</v>
+        <v>4.07142857142857</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B6" t="n">
         <v>6822</v>
@@ -1246,7 +948,9 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F6" t="n">
         <v>0.058</v>
       </c>
@@ -1275,21 +979,15 @@
         <v>3.6</v>
       </c>
       <c r="O6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="P6" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B7" t="n">
         <v>12030</v>
@@ -1300,7 +998,9 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F7" t="n">
         <v>0.058</v>
       </c>
@@ -1329,21 +1029,15 @@
         <v>3.6</v>
       </c>
       <c r="O7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="P7" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B8" t="n">
         <v>11356</v>
@@ -1354,7 +1048,9 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F8" t="n">
         <v>0.058</v>
       </c>
@@ -1383,32 +1079,28 @@
         <v>3.6</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="P8" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q8" t="s">
-        <v>38</v>
-      </c>
-      <c r="R8" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B9" t="n">
-        <v>9607</v>
+        <v>16822</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F9" t="n">
         <v>0.058</v>
       </c>
@@ -1425,44 +1117,40 @@
         <v>0.6</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0306</v>
+        <v>0.009779299</v>
       </c>
       <c r="L9" t="n">
-        <v>7.683</v>
+        <v>5.240894721</v>
       </c>
       <c r="M9" t="n">
-        <v>8.088</v>
+        <v>28.29453349</v>
       </c>
       <c r="N9" t="n">
         <v>3.6</v>
       </c>
       <c r="O9" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="P9" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>41</v>
-      </c>
-      <c r="R9" t="s">
-        <v>39</v>
+        <v>3.571428571</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B10" t="n">
-        <v>22354</v>
+        <v>9607</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>33</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F10" t="n">
         <v>0.058</v>
       </c>
@@ -1479,44 +1167,40 @@
         <v>0.6</v>
       </c>
       <c r="K10" t="n">
-        <v>0.018448686199482</v>
+        <v>0.0306</v>
       </c>
       <c r="L10" t="n">
-        <v>16.6935840478545</v>
+        <v>7.683</v>
       </c>
       <c r="M10" t="n">
-        <v>18.7260217669949</v>
+        <v>8.088</v>
       </c>
       <c r="N10" t="n">
         <v>3.6</v>
       </c>
       <c r="O10" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="P10" t="n">
-        <v>7.07142857142857</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>44</v>
-      </c>
-      <c r="R10" t="s">
-        <v>45</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B11" t="n">
-        <v>34966</v>
+        <v>22354</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>59</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F11" t="n">
         <v>0.058</v>
       </c>
@@ -1533,44 +1217,40 @@
         <v>0.6</v>
       </c>
       <c r="K11" t="n">
-        <v>0.051591803</v>
+        <v>0.0191843620359967</v>
       </c>
       <c r="L11" t="n">
-        <v>1.597906366</v>
+        <v>17.2307455043667</v>
       </c>
       <c r="M11" t="n">
-        <v>0.83135002</v>
+        <v>27.3661121094003</v>
       </c>
       <c r="N11" t="n">
         <v>3.6</v>
       </c>
       <c r="O11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="P11" t="n">
-        <v>290.7142857</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>48</v>
-      </c>
-      <c r="R11" t="s">
-        <v>49</v>
+        <v>7.28571428571429</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B12" t="n">
-        <v>61012</v>
+        <v>34966</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>114</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F12" t="n">
         <v>0.058</v>
       </c>
@@ -1587,44 +1267,40 @@
         <v>0.6</v>
       </c>
       <c r="K12" t="n">
-        <v>0.006310623</v>
+        <v>0.051591803</v>
       </c>
       <c r="L12" t="n">
-        <v>3.40991953</v>
+        <v>1.597906366</v>
       </c>
       <c r="M12" t="n">
-        <v>0.920126644</v>
+        <v>0.83135002</v>
       </c>
       <c r="N12" t="n">
         <v>3.6</v>
       </c>
       <c r="O12" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="P12" t="n">
-        <v>66.35714286</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>51</v>
-      </c>
-      <c r="R12" t="s">
-        <v>51</v>
+        <v>290.7142857</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B13" t="n">
-        <v>6580</v>
+        <v>61012</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F13" t="n">
         <v>0.058</v>
       </c>
@@ -1641,44 +1317,40 @@
         <v>0.6</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0306</v>
+        <v>0.00322377312537881</v>
       </c>
       <c r="L13" t="n">
-        <v>7.683</v>
+        <v>2.05858467694226</v>
       </c>
       <c r="M13" t="n">
-        <v>8.088</v>
+        <v>0.206082171450231</v>
       </c>
       <c r="N13" t="n">
         <v>3.6</v>
       </c>
       <c r="O13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P13" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>53</v>
-      </c>
-      <c r="R13" t="s">
-        <v>33</v>
+        <v>98.2142857142857</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B14" t="n">
-        <v>94376</v>
+        <v>6580</v>
       </c>
       <c r="C14" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>225</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F14" t="n">
         <v>0.058</v>
       </c>
@@ -1695,44 +1367,40 @@
         <v>0.6</v>
       </c>
       <c r="K14" t="n">
-        <v>0.009779299</v>
+        <v>0.0306</v>
       </c>
       <c r="L14" t="n">
-        <v>5.240894721</v>
+        <v>7.683</v>
       </c>
       <c r="M14" t="n">
-        <v>28.29453349</v>
+        <v>8.088</v>
       </c>
       <c r="N14" t="n">
         <v>3.6</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="P14" t="n">
-        <v>3.571428571</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>55</v>
-      </c>
-      <c r="R14" t="s">
-        <v>55</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B15" t="n">
-        <v>35360</v>
+        <v>94376</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>225</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F15" t="n">
         <v>0.058</v>
       </c>
@@ -1749,44 +1417,40 @@
         <v>0.6</v>
       </c>
       <c r="K15" t="n">
-        <v>0.019977942</v>
+        <v>0.0143275712762328</v>
       </c>
       <c r="L15" t="n">
-        <v>7.525547279</v>
+        <v>6.99227813798714</v>
       </c>
       <c r="M15" t="n">
-        <v>0.959400015</v>
+        <v>15.409815856818</v>
       </c>
       <c r="N15" t="n">
         <v>3.6</v>
       </c>
       <c r="O15" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="P15" t="n">
-        <v>1.285714286</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>57</v>
-      </c>
-      <c r="R15" t="s">
-        <v>49</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B16" t="n">
-        <v>44041</v>
+        <v>35360</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>67</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F16" t="n">
         <v>0.058</v>
       </c>
@@ -1803,44 +1467,40 @@
         <v>0.6</v>
       </c>
       <c r="K16" t="n">
-        <v>0.048210204</v>
+        <v>0.0212535280844268</v>
       </c>
       <c r="L16" t="n">
-        <v>8.865559903</v>
+        <v>8.08305757896702</v>
       </c>
       <c r="M16" t="n">
-        <v>10.80553365</v>
+        <v>0.838056983568618</v>
       </c>
       <c r="N16" t="n">
         <v>3.6</v>
       </c>
       <c r="O16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="P16" t="n">
-        <v>24.42857143</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>59</v>
-      </c>
-      <c r="R16" t="s">
-        <v>29</v>
+        <v>1.57142857142857</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B17" t="n">
-        <v>6891</v>
+        <v>44041</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
-      </c>
-      <c r="E17" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F17" t="n">
         <v>0.058</v>
       </c>
@@ -1857,44 +1517,40 @@
         <v>0.6</v>
       </c>
       <c r="K17" t="n">
-        <v>0.012703974</v>
+        <v>0.0506070350744436</v>
       </c>
       <c r="L17" t="n">
-        <v>20.32214124</v>
+        <v>7.45688841458627</v>
       </c>
       <c r="M17" t="n">
-        <v>14.51748441</v>
+        <v>11.8729304318132</v>
       </c>
       <c r="N17" t="n">
         <v>3.6</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="P17" t="n">
-        <v>9.571428571</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>62</v>
-      </c>
-      <c r="R17" t="s">
-        <v>63</v>
+        <v>55.8571428571429</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B18" t="n">
-        <v>21579</v>
+        <v>6891</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>48</v>
-      </c>
-      <c r="E18" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F18" t="n">
         <v>0.058</v>
       </c>
@@ -1911,44 +1567,40 @@
         <v>0.6</v>
       </c>
       <c r="K18" t="n">
-        <v>0.026618153</v>
+        <v>0.012703974</v>
       </c>
       <c r="L18" t="n">
-        <v>7.285567626</v>
+        <v>20.32214124</v>
       </c>
       <c r="M18" t="n">
-        <v>9.19421699</v>
+        <v>14.51748441</v>
       </c>
       <c r="N18" t="n">
         <v>3.6</v>
       </c>
       <c r="O18" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="P18" t="n">
-        <v>1.285714286</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>65</v>
-      </c>
-      <c r="R18" t="s">
-        <v>23</v>
+        <v>9.571428571</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B19" t="n">
-        <v>19752</v>
+        <v>21579</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F19" t="n">
         <v>0.058</v>
       </c>
@@ -1965,44 +1617,40 @@
         <v>0.6</v>
       </c>
       <c r="K19" t="n">
-        <v>0.013746252</v>
+        <v>0.026618153</v>
       </c>
       <c r="L19" t="n">
-        <v>3.470740813</v>
+        <v>7.285567626</v>
       </c>
       <c r="M19" t="n">
-        <v>29.39666826</v>
+        <v>9.19421699</v>
       </c>
       <c r="N19" t="n">
         <v>3.6</v>
       </c>
       <c r="O19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P19" t="n">
-        <v>0.714285714</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>67</v>
-      </c>
-      <c r="R19" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="B20" t="n">
-        <v>33438</v>
+        <v>19752</v>
       </c>
       <c r="C20" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>113</v>
-      </c>
-      <c r="E20" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F20" t="n">
         <v>0.058</v>
       </c>
@@ -2019,44 +1667,40 @@
         <v>0.6</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0306</v>
+        <v>0.0124264078122861</v>
       </c>
       <c r="L20" t="n">
-        <v>7.683</v>
+        <v>4.92077203768328</v>
       </c>
       <c r="M20" t="n">
-        <v>8.088</v>
+        <v>15.7123392424054</v>
       </c>
       <c r="N20" t="n">
         <v>3.6</v>
       </c>
       <c r="O20" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="P20" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>69</v>
-      </c>
-      <c r="R20" t="s">
-        <v>69</v>
+        <v>0.714285714285714</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B21" t="n">
-        <v>20763</v>
+        <v>33438</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F21" t="n">
         <v>0.058</v>
       </c>
@@ -2073,44 +1717,40 @@
         <v>0.6</v>
       </c>
       <c r="K21" t="n">
-        <v>0.012703974</v>
+        <v>0.0306</v>
       </c>
       <c r="L21" t="n">
-        <v>20.32214124</v>
+        <v>7.683</v>
       </c>
       <c r="M21" t="n">
-        <v>14.51748441</v>
+        <v>8.088</v>
       </c>
       <c r="N21" t="n">
         <v>3.6</v>
       </c>
       <c r="O21" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="P21" t="n">
-        <v>9.571428571</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>71</v>
-      </c>
-      <c r="R21" t="s">
-        <v>63</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B22" t="n">
-        <v>30933</v>
+        <v>38582</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>53</v>
-      </c>
-      <c r="E22" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F22" t="n">
         <v>0.058</v>
       </c>
@@ -2127,44 +1767,40 @@
         <v>0.6</v>
       </c>
       <c r="K22" t="n">
-        <v>0.030170534</v>
+        <v>0.0306</v>
       </c>
       <c r="L22" t="n">
-        <v>5.342364116</v>
+        <v>7.683</v>
       </c>
       <c r="M22" t="n">
-        <v>30.32955559</v>
+        <v>8.088</v>
       </c>
       <c r="N22" t="n">
         <v>3.6</v>
       </c>
       <c r="O22" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="P22" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>74</v>
-      </c>
-      <c r="R22" t="s">
-        <v>75</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B23" t="n">
-        <v>4038</v>
+        <v>20763</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F23" t="n">
         <v>0.058</v>
       </c>
@@ -2181,44 +1817,40 @@
         <v>0.6</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0306</v>
+        <v>0.012703974</v>
       </c>
       <c r="L23" t="n">
-        <v>7.683</v>
+        <v>20.32214124</v>
       </c>
       <c r="M23" t="n">
-        <v>8.088</v>
+        <v>14.51748441</v>
       </c>
       <c r="N23" t="n">
         <v>3.6</v>
       </c>
       <c r="O23" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="P23" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>77</v>
-      </c>
-      <c r="R23" t="s">
-        <v>63</v>
+        <v>9.571428571</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="B24" t="n">
-        <v>19750</v>
+        <v>30933</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>33</v>
-      </c>
-      <c r="E24" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F24" t="n">
         <v>0.058</v>
       </c>
@@ -2235,44 +1867,40 @@
         <v>0.6</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0306</v>
+        <v>0.0196529444519433</v>
       </c>
       <c r="L24" t="n">
-        <v>7.683</v>
+        <v>7.25093392009641</v>
       </c>
       <c r="M24" t="n">
-        <v>8.088</v>
+        <v>32.6690937011047</v>
       </c>
       <c r="N24" t="n">
         <v>3.6</v>
       </c>
       <c r="O24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P24" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>79</v>
-      </c>
-      <c r="R24" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="B25" t="n">
-        <v>612547</v>
+        <v>4038</v>
       </c>
       <c r="C25" t="n">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1898</v>
-      </c>
-      <c r="E25" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F25" t="n">
         <v>0.058</v>
       </c>
@@ -2289,44 +1917,40 @@
         <v>0.6</v>
       </c>
       <c r="K25" t="n">
-        <v>0.022949579</v>
+        <v>0.0306</v>
       </c>
       <c r="L25" t="n">
-        <v>5.646002608</v>
+        <v>7.683</v>
       </c>
       <c r="M25" t="n">
-        <v>47.21198293</v>
+        <v>8.088</v>
       </c>
       <c r="N25" t="n">
         <v>3.6</v>
       </c>
       <c r="O25" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="P25" t="n">
-        <v>204.6428571</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>81</v>
-      </c>
-      <c r="R25" t="s">
-        <v>21</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="B26" t="n">
-        <v>5219</v>
+        <v>19750</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F26" t="n">
         <v>0.058</v>
       </c>
@@ -2355,32 +1979,28 @@
         <v>3.6</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="P26" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q26" t="s">
-        <v>83</v>
-      </c>
-      <c r="R26" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="B27" t="n">
-        <v>9462</v>
+        <v>612547</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1"/>
+        <v>1898</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F27" t="n">
         <v>0.058</v>
       </c>
@@ -2397,44 +2017,40 @@
         <v>0.6</v>
       </c>
       <c r="K27" t="n">
-        <v>0.041736166</v>
+        <v>0.022949579</v>
       </c>
       <c r="L27" t="n">
-        <v>3.559643653</v>
+        <v>5.646002608</v>
       </c>
       <c r="M27" t="n">
-        <v>0.983200816</v>
+        <v>47.21198293</v>
       </c>
       <c r="N27" t="n">
         <v>3.6</v>
       </c>
       <c r="O27" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="P27" t="n">
-        <v>239.2142857</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>83</v>
-      </c>
-      <c r="R27" t="s">
-        <v>49</v>
+        <v>204.6428571</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B28" t="n">
-        <v>8178</v>
+        <v>5219</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>20</v>
-      </c>
-      <c r="E28" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F28" t="n">
         <v>0.058</v>
       </c>
@@ -2451,44 +2067,40 @@
         <v>0.6</v>
       </c>
       <c r="K28" t="n">
-        <v>0.033660158</v>
+        <v>0.0306</v>
       </c>
       <c r="L28" t="n">
-        <v>5.827907827</v>
+        <v>7.683</v>
       </c>
       <c r="M28" t="n">
-        <v>12.74171193</v>
+        <v>8.088</v>
       </c>
       <c r="N28" t="n">
         <v>3.6</v>
       </c>
       <c r="O28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P28" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q28" t="s">
-        <v>85</v>
-      </c>
-      <c r="R28" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="B29" t="n">
-        <v>35016</v>
+        <v>9462</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>48</v>
-      </c>
-      <c r="E29" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F29" t="n">
         <v>0.058</v>
       </c>
@@ -2505,44 +2117,40 @@
         <v>0.6</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0306</v>
+        <v>0.041736166</v>
       </c>
       <c r="L29" t="n">
-        <v>7.683</v>
+        <v>3.559643653</v>
       </c>
       <c r="M29" t="n">
-        <v>8.088</v>
+        <v>0.983200816</v>
       </c>
       <c r="N29" t="n">
         <v>3.6</v>
       </c>
       <c r="O29" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="P29" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>88</v>
-      </c>
-      <c r="R29" t="s">
-        <v>89</v>
+        <v>239.2142857</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="B30" t="n">
-        <v>15141</v>
+        <v>8178</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>22</v>
-      </c>
-      <c r="E30" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F30" t="n">
         <v>0.058</v>
       </c>
@@ -2559,44 +2167,40 @@
         <v>0.6</v>
       </c>
       <c r="K30" t="n">
-        <v>0.029629965</v>
+        <v>0.033660158</v>
       </c>
       <c r="L30" t="n">
-        <v>5.792212078</v>
+        <v>5.827907827</v>
       </c>
       <c r="M30" t="n">
-        <v>17.39054258</v>
+        <v>12.74171193</v>
       </c>
       <c r="N30" t="n">
         <v>3.6</v>
       </c>
       <c r="O30" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="P30" t="n">
-        <v>172.8571429</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>91</v>
-      </c>
-      <c r="R30" t="s">
-        <v>29</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>7667</v>
+        <v>35016</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F31" t="n">
         <v>0.058</v>
       </c>
@@ -2625,32 +2229,28 @@
         <v>3.6</v>
       </c>
       <c r="O31" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q31" t="s">
-        <v>94</v>
-      </c>
-      <c r="R31" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>6737</v>
+        <v>15141</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F32" t="n">
         <v>0.058</v>
       </c>
@@ -2667,44 +2267,40 @@
         <v>0.6</v>
       </c>
       <c r="K32" t="n">
-        <v>0.026663023</v>
+        <v>0.029629965</v>
       </c>
       <c r="L32" t="n">
-        <v>6.941391743</v>
+        <v>5.792212078</v>
       </c>
       <c r="M32" t="n">
-        <v>8.402639483</v>
+        <v>17.39054258</v>
       </c>
       <c r="N32" t="n">
         <v>3.6</v>
       </c>
       <c r="O32" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="P32" t="n">
-        <v>53.85714286</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>97</v>
-      </c>
-      <c r="R32" t="s">
-        <v>95</v>
+        <v>172.8571429</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>27776</v>
+        <v>7667</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>60</v>
-      </c>
-      <c r="E33" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F33" t="n">
         <v>0.058</v>
       </c>
@@ -2721,36 +2317,30 @@
         <v>0.6</v>
       </c>
       <c r="K33" t="n">
-        <v>0.069645977</v>
+        <v>0.0306</v>
       </c>
       <c r="L33" t="n">
-        <v>4.153498272</v>
+        <v>7.683</v>
       </c>
       <c r="M33" t="n">
-        <v>10.90377979</v>
+        <v>8.088</v>
       </c>
       <c r="N33" t="n">
         <v>3.6</v>
       </c>
       <c r="O33" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="P33" t="n">
-        <v>14.57142857</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>99</v>
-      </c>
-      <c r="R33" t="s">
-        <v>29</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="B34" t="n">
-        <v>8409</v>
+        <v>6737</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -2758,7 +2348,9 @@
       <c r="D34" t="n">
         <v>0</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F34" t="n">
         <v>0.058</v>
       </c>
@@ -2775,44 +2367,40 @@
         <v>0.6</v>
       </c>
       <c r="K34" t="n">
-        <v>0.00950126</v>
+        <v>0.026663023</v>
       </c>
       <c r="L34" t="n">
-        <v>2.416326327</v>
+        <v>6.941391743</v>
       </c>
       <c r="M34" t="n">
-        <v>29.0867683</v>
+        <v>8.402639483</v>
       </c>
       <c r="N34" t="n">
         <v>3.6</v>
       </c>
       <c r="O34" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="P34" t="n">
-        <v>6.857142857</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>101</v>
-      </c>
-      <c r="R34" t="s">
-        <v>21</v>
+        <v>53.85714286</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="B35" t="n">
-        <v>8793</v>
+        <v>27776</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>37</v>
-      </c>
-      <c r="E35" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F35" t="n">
         <v>0.058</v>
       </c>
@@ -2829,44 +2417,40 @@
         <v>0.6</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0276</v>
+        <v>0.069645977</v>
       </c>
       <c r="L35" t="n">
-        <v>7.683</v>
+        <v>4.153498272</v>
       </c>
       <c r="M35" t="n">
-        <v>8.088</v>
+        <v>10.90377979</v>
       </c>
       <c r="N35" t="n">
         <v>3.6</v>
       </c>
       <c r="O35" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="P35" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>103</v>
-      </c>
-      <c r="R35" t="s">
-        <v>63</v>
+        <v>14.57142857</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="B36" t="n">
-        <v>34974</v>
+        <v>8409</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>65</v>
-      </c>
-      <c r="E36" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F36" t="n">
         <v>0.058</v>
       </c>
@@ -2883,44 +2467,40 @@
         <v>0.6</v>
       </c>
       <c r="K36" t="n">
-        <v>0.036980711</v>
+        <v>0.00950126</v>
       </c>
       <c r="L36" t="n">
-        <v>5.277084777</v>
+        <v>2.416326327</v>
       </c>
       <c r="M36" t="n">
-        <v>14.43647743</v>
+        <v>29.0867683</v>
       </c>
       <c r="N36" t="n">
         <v>3.6</v>
       </c>
       <c r="O36" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="P36" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>105</v>
-      </c>
-      <c r="R36" t="s">
-        <v>105</v>
+        <v>6.857142857</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B37" t="n">
-        <v>40997</v>
+        <v>8793</v>
       </c>
       <c r="C37" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>129</v>
-      </c>
-      <c r="E37" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F37" t="n">
         <v>0.058</v>
       </c>
@@ -2937,7 +2517,7 @@
         <v>0.6</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0306</v>
+        <v>0.0276</v>
       </c>
       <c r="L37" t="n">
         <v>7.683</v>
@@ -2949,32 +2529,28 @@
         <v>3.6</v>
       </c>
       <c r="O37" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P37" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q37" t="s">
-        <v>45</v>
-      </c>
-      <c r="R37" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="B38" t="n">
-        <v>11221</v>
+        <v>34974</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>33</v>
-      </c>
-      <c r="E38" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F38" t="n">
         <v>0.058</v>
       </c>
@@ -2991,44 +2567,40 @@
         <v>0.6</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0336</v>
+        <v>0.036980711</v>
       </c>
       <c r="L38" t="n">
-        <v>6.822</v>
+        <v>5.277084777</v>
       </c>
       <c r="M38" t="n">
-        <v>8.9133</v>
+        <v>14.43647743</v>
       </c>
       <c r="N38" t="n">
         <v>3.6</v>
       </c>
       <c r="O38" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="P38" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q38" t="s">
-        <v>107</v>
-      </c>
-      <c r="R38" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="B39" t="n">
-        <v>6121</v>
+        <v>40997</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F39" t="n">
         <v>0.058</v>
       </c>
@@ -3057,32 +2629,28 @@
         <v>3.6</v>
       </c>
       <c r="O39" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="P39" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q39" t="s">
-        <v>109</v>
-      </c>
-      <c r="R39" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>65534</v>
+        <v>11221</v>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>101</v>
-      </c>
-      <c r="E40" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F40" t="n">
         <v>0.058</v>
       </c>
@@ -3099,36 +2667,30 @@
         <v>0.6</v>
       </c>
       <c r="K40" t="n">
-        <v>0.011363294</v>
+        <v>0.0336</v>
       </c>
       <c r="L40" t="n">
-        <v>7.446116658</v>
+        <v>6.822</v>
       </c>
       <c r="M40" t="n">
-        <v>20.40108581</v>
+        <v>8.9133</v>
       </c>
       <c r="N40" t="n">
         <v>3.6</v>
       </c>
       <c r="O40" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="P40" t="n">
-        <v>22.57142857</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>111</v>
-      </c>
-      <c r="R40" t="s">
-        <v>95</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>2077</v>
+        <v>6121</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3136,7 +2698,9 @@
       <c r="D41" t="n">
         <v>0</v>
       </c>
-      <c r="E41" s="1"/>
+      <c r="E41" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F41" t="n">
         <v>0.058</v>
       </c>
@@ -3165,32 +2729,28 @@
         <v>3.6</v>
       </c>
       <c r="O41" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P41" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q41" t="s">
-        <v>113</v>
-      </c>
-      <c r="R41" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>16566</v>
+        <v>65534</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D42" t="n">
-        <v>44</v>
-      </c>
-      <c r="E42" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F42" t="n">
         <v>0.058</v>
       </c>
@@ -3207,44 +2767,40 @@
         <v>0.6</v>
       </c>
       <c r="K42" t="n">
-        <v>0.027908568</v>
+        <v>0.011363294</v>
       </c>
       <c r="L42" t="n">
-        <v>7.806058271</v>
+        <v>7.446116658</v>
       </c>
       <c r="M42" t="n">
-        <v>7.511047218</v>
+        <v>20.40108581</v>
       </c>
       <c r="N42" t="n">
         <v>3.6</v>
       </c>
       <c r="O42" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="P42" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>115</v>
-      </c>
-      <c r="R42" t="s">
-        <v>89</v>
+        <v>22.57142857</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>27739</v>
+        <v>2077</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>90</v>
-      </c>
-      <c r="E43" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F43" t="n">
         <v>0.058</v>
       </c>
@@ -3273,32 +2829,28 @@
         <v>3.6</v>
       </c>
       <c r="O43" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="P43" t="n">
-        <v>6.214285714</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>117</v>
-      </c>
-      <c r="R43" t="s">
-        <v>55</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>15336</v>
+        <v>16566</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>41</v>
-      </c>
-      <c r="E44" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F44" t="n">
         <v>0.058</v>
       </c>
@@ -3315,44 +2867,40 @@
         <v>0.6</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0306</v>
+        <v>0.027908568</v>
       </c>
       <c r="L44" t="n">
-        <v>7.683</v>
+        <v>7.806058271</v>
       </c>
       <c r="M44" t="n">
-        <v>8.088</v>
+        <v>7.511047218</v>
       </c>
       <c r="N44" t="n">
         <v>3.6</v>
       </c>
       <c r="O44" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q44" t="s">
-        <v>119</v>
-      </c>
-      <c r="R44" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>13216</v>
+        <v>27739</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>16</v>
-      </c>
-      <c r="E45" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F45" t="n">
         <v>0.058</v>
       </c>
@@ -3369,44 +2917,40 @@
         <v>0.6</v>
       </c>
       <c r="K45" t="n">
-        <v>0.038250899</v>
+        <v>0.0306</v>
       </c>
       <c r="L45" t="n">
-        <v>3.653086829</v>
+        <v>7.683</v>
       </c>
       <c r="M45" t="n">
-        <v>11.47915988</v>
+        <v>8.088</v>
       </c>
       <c r="N45" t="n">
         <v>3.6</v>
       </c>
       <c r="O45" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P45" t="n">
-        <v>0.714285714</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>121</v>
-      </c>
-      <c r="R45" t="s">
-        <v>21</v>
+        <v>6.214285714</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>4519</v>
+        <v>15336</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F46" t="n">
         <v>0.058</v>
       </c>
@@ -3435,32 +2979,28 @@
         <v>3.6</v>
       </c>
       <c r="O46" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="P46" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q46" t="s">
-        <v>123</v>
-      </c>
-      <c r="R46" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>6640</v>
+        <v>13216</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>6</v>
-      </c>
-      <c r="E47" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F47" t="n">
         <v>0.058</v>
       </c>
@@ -3477,44 +3017,40 @@
         <v>0.6</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0306</v>
+        <v>0.038250899</v>
       </c>
       <c r="L47" t="n">
-        <v>7.683</v>
+        <v>3.653086829</v>
       </c>
       <c r="M47" t="n">
-        <v>8.088</v>
+        <v>11.47915988</v>
       </c>
       <c r="N47" t="n">
         <v>3.6</v>
       </c>
       <c r="O47" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="P47" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>125</v>
-      </c>
-      <c r="R47" t="s">
-        <v>63</v>
+        <v>0.714285714</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="B48" t="n">
-        <v>22041</v>
+        <v>4519</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>6</v>
-      </c>
-      <c r="E48" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F48" t="n">
         <v>0.058</v>
       </c>
@@ -3543,32 +3079,28 @@
         <v>3.6</v>
       </c>
       <c r="O48" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="P48" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q48" t="s">
-        <v>127</v>
-      </c>
-      <c r="R48" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>9178</v>
+        <v>6640</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>13</v>
-      </c>
-      <c r="E49" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F49" t="n">
         <v>0.058</v>
       </c>
@@ -3597,32 +3129,28 @@
         <v>3.6</v>
       </c>
       <c r="O49" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="P49" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q49" t="s">
-        <v>129</v>
-      </c>
-      <c r="R49" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="B50" t="n">
-        <v>45378</v>
+        <v>22041</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>37</v>
-      </c>
-      <c r="E50" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F50" t="n">
         <v>0.058</v>
       </c>
@@ -3639,44 +3167,40 @@
         <v>0.6</v>
       </c>
       <c r="K50" t="n">
-        <v>0.015578166</v>
+        <v>0.0306</v>
       </c>
       <c r="L50" t="n">
-        <v>11.99163669</v>
+        <v>7.683</v>
       </c>
       <c r="M50" t="n">
-        <v>18.69451795</v>
+        <v>8.088</v>
       </c>
       <c r="N50" t="n">
         <v>3.6</v>
       </c>
       <c r="O50" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="P50" t="n">
-        <v>2.071428571</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>131</v>
-      </c>
-      <c r="R50" t="s">
-        <v>95</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="B51" t="n">
-        <v>20301</v>
+        <v>9178</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>50</v>
-      </c>
-      <c r="E51" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F51" t="n">
         <v>0.058</v>
       </c>
@@ -3705,32 +3229,28 @@
         <v>3.6</v>
       </c>
       <c r="O51" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="P51" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q51" t="s">
-        <v>133</v>
-      </c>
-      <c r="R51" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="B52" t="n">
-        <v>3718</v>
+        <v>45378</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F52" t="n">
         <v>0.058</v>
       </c>
@@ -3747,44 +3267,40 @@
         <v>0.6</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0306</v>
+        <v>0.015578166</v>
       </c>
       <c r="L52" t="n">
-        <v>7.683</v>
+        <v>11.99163669</v>
       </c>
       <c r="M52" t="n">
-        <v>8.088</v>
+        <v>18.69451795</v>
       </c>
       <c r="N52" t="n">
         <v>3.6</v>
       </c>
       <c r="O52" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="P52" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>135</v>
-      </c>
-      <c r="R52" t="s">
-        <v>69</v>
+        <v>2.071428571</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="B53" t="n">
-        <v>11982</v>
+        <v>20301</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F53" t="n">
         <v>0.058</v>
       </c>
@@ -3801,44 +3317,40 @@
         <v>0.6</v>
       </c>
       <c r="K53" t="n">
-        <v>0.040216496</v>
+        <v>0.0306</v>
       </c>
       <c r="L53" t="n">
-        <v>8.213276233</v>
+        <v>7.683</v>
       </c>
       <c r="M53" t="n">
-        <v>9.177596187</v>
+        <v>8.088</v>
       </c>
       <c r="N53" t="n">
         <v>3.6</v>
       </c>
       <c r="O53" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="P53" t="n">
-        <v>9.857142857</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>137</v>
-      </c>
-      <c r="R53" t="s">
-        <v>95</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="B54" t="n">
-        <v>21374</v>
+        <v>3718</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>34</v>
-      </c>
-      <c r="E54" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F54" t="n">
         <v>0.058</v>
       </c>
@@ -3867,24 +3379,18 @@
         <v>3.6</v>
       </c>
       <c r="O54" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="P54" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q54" t="s">
-        <v>139</v>
-      </c>
-      <c r="R54" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="B55" t="n">
-        <v>9178</v>
+        <v>11982</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -3892,7 +3398,9 @@
       <c r="D55" t="n">
         <v>0</v>
       </c>
-      <c r="E55" s="1"/>
+      <c r="E55" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F55" t="n">
         <v>0.058</v>
       </c>
@@ -3909,44 +3417,40 @@
         <v>0.6</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0306</v>
+        <v>0.040216496</v>
       </c>
       <c r="L55" t="n">
-        <v>7.683</v>
+        <v>8.213276233</v>
       </c>
       <c r="M55" t="n">
-        <v>8.088</v>
+        <v>9.177596187</v>
       </c>
       <c r="N55" t="n">
         <v>3.6</v>
       </c>
       <c r="O55" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="P55" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>141</v>
-      </c>
-      <c r="R55" t="s">
-        <v>89</v>
+        <v>9.857142857</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="B56" t="n">
-        <v>2640</v>
+        <v>21374</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F56" t="n">
         <v>0.058</v>
       </c>
@@ -3975,32 +3479,28 @@
         <v>3.6</v>
       </c>
       <c r="O56" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P56" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q56" t="s">
-        <v>143</v>
-      </c>
-      <c r="R56" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="B57" t="n">
-        <v>11225</v>
+        <v>9178</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>32</v>
-      </c>
-      <c r="E57" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F57" t="n">
         <v>0.058</v>
       </c>
@@ -4017,44 +3517,40 @@
         <v>0.6</v>
       </c>
       <c r="K57" t="n">
-        <v>0.016163788</v>
+        <v>0.0306</v>
       </c>
       <c r="L57" t="n">
-        <v>4.999584583</v>
+        <v>7.683</v>
       </c>
       <c r="M57" t="n">
-        <v>11.78338213</v>
+        <v>8.088</v>
       </c>
       <c r="N57" t="n">
         <v>3.6</v>
       </c>
       <c r="O57" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
-        <v>3.428571429</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>145</v>
-      </c>
-      <c r="R57" t="s">
-        <v>25</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="B58" t="n">
-        <v>17626</v>
+        <v>2640</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>31</v>
-      </c>
-      <c r="E58" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F58" t="n">
         <v>0.058</v>
       </c>
@@ -4071,44 +3567,40 @@
         <v>0.6</v>
       </c>
       <c r="K58" t="n">
-        <v>0.033660158</v>
+        <v>0.0306</v>
       </c>
       <c r="L58" t="n">
-        <v>5.827907827</v>
+        <v>7.683</v>
       </c>
       <c r="M58" t="n">
-        <v>12.74171193</v>
+        <v>8.088</v>
       </c>
       <c r="N58" t="n">
         <v>3.6</v>
       </c>
       <c r="O58" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P58" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q58" t="s">
-        <v>147</v>
-      </c>
-      <c r="R58" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B59" t="n">
-        <v>34976</v>
+        <v>11225</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>56</v>
-      </c>
-      <c r="E59" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F59" t="n">
         <v>0.058</v>
       </c>
@@ -4125,44 +3617,40 @@
         <v>0.6</v>
       </c>
       <c r="K59" t="n">
-        <v>0.033900478</v>
+        <v>0.016163788</v>
       </c>
       <c r="L59" t="n">
-        <v>4.166551781</v>
+        <v>4.999584583</v>
       </c>
       <c r="M59" t="n">
-        <v>11.59731613</v>
+        <v>11.78338213</v>
       </c>
       <c r="N59" t="n">
         <v>3.6</v>
       </c>
       <c r="O59" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="P59" t="n">
-        <v>7.642857143</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>89</v>
-      </c>
-      <c r="R59" t="s">
-        <v>89</v>
+        <v>3.428571429</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="B60" t="n">
-        <v>32843</v>
+        <v>17626</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>64</v>
-      </c>
-      <c r="E60" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F60" t="n">
         <v>0.058</v>
       </c>
@@ -4179,44 +3667,40 @@
         <v>0.6</v>
       </c>
       <c r="K60" t="n">
-        <v>0.0306</v>
+        <v>0.033660158</v>
       </c>
       <c r="L60" t="n">
-        <v>7.683</v>
+        <v>5.827907827</v>
       </c>
       <c r="M60" t="n">
-        <v>8.088</v>
+        <v>12.74171193</v>
       </c>
       <c r="N60" t="n">
         <v>3.6</v>
       </c>
       <c r="O60" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P60" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q60" t="s">
-        <v>149</v>
-      </c>
-      <c r="R60" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="B61" t="n">
-        <v>6711</v>
+        <v>34976</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F61" t="n">
         <v>0.058</v>
       </c>
@@ -4233,44 +3717,40 @@
         <v>0.6</v>
       </c>
       <c r="K61" t="n">
-        <v>0.021779467</v>
+        <v>0.033900478</v>
       </c>
       <c r="L61" t="n">
-        <v>2.397102273</v>
+        <v>4.166551781</v>
       </c>
       <c r="M61" t="n">
-        <v>37.23467509</v>
+        <v>11.59731613</v>
       </c>
       <c r="N61" t="n">
         <v>3.6</v>
       </c>
       <c r="O61" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
-        <v>0.214285714</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>151</v>
-      </c>
-      <c r="R61" t="s">
-        <v>51</v>
+        <v>7.642857143</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="B62" t="n">
-        <v>1576</v>
+        <v>32843</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>21</v>
-      </c>
-      <c r="E62" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F62" t="n">
         <v>0.058</v>
       </c>
@@ -4299,32 +3779,28 @@
         <v>3.6</v>
       </c>
       <c r="O62" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="P62" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q62" t="s">
-        <v>153</v>
-      </c>
-      <c r="R62" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B63" t="n">
-        <v>45093</v>
+        <v>6711</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>69</v>
-      </c>
-      <c r="E63" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F63" t="n">
         <v>0.058</v>
       </c>
@@ -4341,44 +3817,40 @@
         <v>0.6</v>
       </c>
       <c r="K63" t="n">
-        <v>0.024041681</v>
+        <v>0.021779467</v>
       </c>
       <c r="L63" t="n">
-        <v>9.251814022</v>
+        <v>2.397102273</v>
       </c>
       <c r="M63" t="n">
-        <v>19.27673719</v>
+        <v>37.23467509</v>
       </c>
       <c r="N63" t="n">
         <v>3.6</v>
       </c>
       <c r="O63" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="P63" t="n">
-        <v>11.21428571</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>63</v>
-      </c>
-      <c r="R63" t="s">
-        <v>63</v>
+        <v>0.214285714</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B64" t="n">
-        <v>12517</v>
+        <v>1576</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>18</v>
-      </c>
-      <c r="E64" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F64" t="n">
         <v>0.058</v>
       </c>
@@ -4407,32 +3879,28 @@
         <v>3.6</v>
       </c>
       <c r="O64" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="P64" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q64" t="s">
-        <v>75</v>
-      </c>
-      <c r="R64" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="B65" t="n">
-        <v>12017</v>
+        <v>45093</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F65" t="n">
         <v>0.058</v>
       </c>
@@ -4449,44 +3917,40 @@
         <v>0.6</v>
       </c>
       <c r="K65" t="n">
-        <v>0.009065261</v>
+        <v>0.024041681</v>
       </c>
       <c r="L65" t="n">
-        <v>3.417739283</v>
+        <v>9.251814022</v>
       </c>
       <c r="M65" t="n">
-        <v>33.08135546</v>
+        <v>19.27673719</v>
       </c>
       <c r="N65" t="n">
         <v>3.6</v>
       </c>
       <c r="O65" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="P65" t="n">
-        <v>5.071428571</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>155</v>
-      </c>
-      <c r="R65" t="s">
-        <v>55</v>
+        <v>11.21428571</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="B66" t="n">
-        <v>16219</v>
+        <v>12517</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>96</v>
-      </c>
-      <c r="E66" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F66" t="n">
         <v>0.058</v>
       </c>
@@ -4503,44 +3967,40 @@
         <v>0.6</v>
       </c>
       <c r="K66" t="n">
-        <v>0.0336</v>
+        <v>0.0306</v>
       </c>
       <c r="L66" t="n">
-        <v>6.822</v>
+        <v>7.683</v>
       </c>
       <c r="M66" t="n">
-        <v>8.9133</v>
+        <v>8.088</v>
       </c>
       <c r="N66" t="n">
         <v>3.6</v>
       </c>
       <c r="O66" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="P66" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q66" t="s">
-        <v>157</v>
-      </c>
-      <c r="R66" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="B67" t="n">
-        <v>62019</v>
+        <v>12017</v>
       </c>
       <c r="C67" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>162</v>
-      </c>
-      <c r="E67" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F67" t="n">
         <v>0.058</v>
       </c>
@@ -4557,44 +4017,40 @@
         <v>0.6</v>
       </c>
       <c r="K67" t="n">
-        <v>0.010792288</v>
+        <v>0.009065261</v>
       </c>
       <c r="L67" t="n">
-        <v>9.96414484</v>
+        <v>3.417739283</v>
       </c>
       <c r="M67" t="n">
-        <v>61.90580714</v>
+        <v>33.08135546</v>
       </c>
       <c r="N67" t="n">
         <v>3.6</v>
       </c>
       <c r="O67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P67" t="n">
-        <v>16.64285714</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>159</v>
-      </c>
-      <c r="R67" t="s">
-        <v>29</v>
+        <v>5.071428571</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="B68" t="n">
-        <v>17479</v>
+        <v>16219</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>31</v>
-      </c>
-      <c r="E68" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F68" t="n">
         <v>0.058</v>
       </c>
@@ -4611,44 +4067,40 @@
         <v>0.6</v>
       </c>
       <c r="K68" t="n">
-        <v>0.01675045</v>
+        <v>0.0336</v>
       </c>
       <c r="L68" t="n">
-        <v>4.572354043</v>
+        <v>6.822</v>
       </c>
       <c r="M68" t="n">
-        <v>0.923854503</v>
+        <v>8.9133</v>
       </c>
       <c r="N68" t="n">
         <v>3.6</v>
       </c>
       <c r="O68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P68" t="n">
-        <v>12.71428571</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>161</v>
-      </c>
-      <c r="R68" t="s">
-        <v>23</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" t="n">
+        <v>62019</v>
+      </c>
+      <c r="C69" t="n">
+        <v>22</v>
+      </c>
+      <c r="D69" t="n">
         <v>162</v>
       </c>
-      <c r="B69" t="n">
-        <v>10206</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>32</v>
-      </c>
-      <c r="E69" s="1"/>
+      <c r="E69" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F69" t="n">
         <v>0.058</v>
       </c>
@@ -4665,98 +4117,90 @@
         <v>0.6</v>
       </c>
       <c r="K69" t="n">
-        <v>0.0306</v>
+        <v>0.010792288</v>
       </c>
       <c r="L69" t="n">
-        <v>7.683</v>
+        <v>9.96414484</v>
       </c>
       <c r="M69" t="n">
-        <v>8.088</v>
+        <v>61.90580714</v>
       </c>
       <c r="N69" t="n">
         <v>3.6</v>
       </c>
       <c r="O69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P69" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>163</v>
-      </c>
-      <c r="R69" t="s">
-        <v>23</v>
+        <v>16.64285714</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="B70" t="n">
-        <v>5156</v>
+        <v>17479</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
+        <v>31</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>43982</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.01675045</v>
+      </c>
+      <c r="L70" t="n">
+        <v>4.572354043</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.923854503</v>
+      </c>
+      <c r="N70" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O70" t="s">
         <v>18</v>
       </c>
-      <c r="E70" s="1"/>
-      <c r="F70" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0.0306</v>
-      </c>
-      <c r="L70" t="n">
-        <v>7.683</v>
-      </c>
-      <c r="M70" t="n">
-        <v>8.088</v>
-      </c>
-      <c r="N70" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O70" t="s">
-        <v>54</v>
-      </c>
       <c r="P70" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>165</v>
-      </c>
-      <c r="R70" t="s">
-        <v>55</v>
+        <v>12.71428571</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="B71" t="n">
-        <v>4001</v>
+        <v>10206</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F71" t="n">
         <v>0.058</v>
       </c>
@@ -4785,32 +4229,28 @@
         <v>3.6</v>
       </c>
       <c r="O71" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="P71" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q71" t="s">
-        <v>167</v>
-      </c>
-      <c r="R71" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="B72" t="n">
-        <v>232491</v>
+        <v>5156</v>
       </c>
       <c r="C72" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>526</v>
-      </c>
-      <c r="E72" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F72" t="n">
         <v>0.058</v>
       </c>
@@ -4827,44 +4267,40 @@
         <v>0.6</v>
       </c>
       <c r="K72" t="n">
-        <v>0.035174527</v>
+        <v>0.0306</v>
       </c>
       <c r="L72" t="n">
-        <v>3.959561107</v>
+        <v>7.683</v>
       </c>
       <c r="M72" t="n">
-        <v>31.99503328</v>
+        <v>8.088</v>
       </c>
       <c r="N72" t="n">
         <v>3.6</v>
       </c>
       <c r="O72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P72" t="n">
-        <v>145.6428571</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>29</v>
-      </c>
-      <c r="R72" t="s">
-        <v>29</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="B73" t="n">
-        <v>17151</v>
+        <v>4001</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>63</v>
-      </c>
-      <c r="E73" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F73" t="n">
         <v>0.058</v>
       </c>
@@ -4881,44 +4317,40 @@
         <v>0.6</v>
       </c>
       <c r="K73" t="n">
-        <v>0.000808592</v>
+        <v>0.0306</v>
       </c>
       <c r="L73" t="n">
-        <v>4.413414322</v>
+        <v>7.683</v>
       </c>
       <c r="M73" t="n">
-        <v>0.452892713</v>
+        <v>8.088</v>
       </c>
       <c r="N73" t="n">
         <v>3.6</v>
       </c>
       <c r="O73" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P73" t="n">
-        <v>244.5714286</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>169</v>
-      </c>
-      <c r="R73" t="s">
-        <v>39</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>3429</v>
+        <v>232491</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" s="1"/>
+        <v>526</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F74" t="n">
         <v>0.058</v>
       </c>
@@ -4935,44 +4367,40 @@
         <v>0.6</v>
       </c>
       <c r="K74" t="n">
-        <v>0.0306</v>
+        <v>0.035174527</v>
       </c>
       <c r="L74" t="n">
-        <v>7.683</v>
+        <v>3.959561107</v>
       </c>
       <c r="M74" t="n">
-        <v>8.088</v>
+        <v>31.99503328</v>
       </c>
       <c r="N74" t="n">
         <v>3.6</v>
       </c>
       <c r="O74" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="P74" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>171</v>
-      </c>
-      <c r="R74" t="s">
-        <v>95</v>
+        <v>145.6428571</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="B75" t="n">
-        <v>3146</v>
+        <v>17151</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F75" t="n">
         <v>0.058</v>
       </c>
@@ -4989,44 +4417,40 @@
         <v>0.6</v>
       </c>
       <c r="K75" t="n">
-        <v>0.041736166</v>
+        <v>0.000808592</v>
       </c>
       <c r="L75" t="n">
-        <v>3.559643653</v>
+        <v>4.413414322</v>
       </c>
       <c r="M75" t="n">
-        <v>0.983200816</v>
+        <v>0.452892713</v>
       </c>
       <c r="N75" t="n">
         <v>3.6</v>
       </c>
       <c r="O75" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="P75" t="n">
-        <v>239.2142857</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>173</v>
-      </c>
-      <c r="R75" t="s">
-        <v>49</v>
+        <v>244.5714286</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
       <c r="B76" t="n">
-        <v>16628</v>
+        <v>3429</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>20</v>
-      </c>
-      <c r="E76" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F76" t="n">
         <v>0.058</v>
       </c>
@@ -5055,32 +4479,28 @@
         <v>3.6</v>
       </c>
       <c r="O76" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="P76" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q76" t="s">
-        <v>175</v>
-      </c>
-      <c r="R76" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="B77" t="n">
-        <v>11708</v>
+        <v>3146</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>40</v>
-      </c>
-      <c r="E77" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F77" t="n">
         <v>0.058</v>
       </c>
@@ -5097,44 +4517,40 @@
         <v>0.6</v>
       </c>
       <c r="K77" t="n">
-        <v>0.0306</v>
+        <v>0.041736166</v>
       </c>
       <c r="L77" t="n">
-        <v>7.683</v>
+        <v>3.559643653</v>
       </c>
       <c r="M77" t="n">
-        <v>8.088</v>
+        <v>0.983200816</v>
       </c>
       <c r="N77" t="n">
         <v>3.6</v>
       </c>
       <c r="O77" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P77" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>33</v>
-      </c>
-      <c r="R77" t="s">
-        <v>33</v>
+        <v>239.2142857</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="B78" t="n">
-        <v>4063</v>
+        <v>16628</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F78" t="n">
         <v>0.058</v>
       </c>
@@ -5151,44 +4567,40 @@
         <v>0.6</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0336</v>
+        <v>0.0306</v>
       </c>
       <c r="L78" t="n">
-        <v>6.822</v>
+        <v>7.683</v>
       </c>
       <c r="M78" t="n">
-        <v>8.9133</v>
+        <v>8.088</v>
       </c>
       <c r="N78" t="n">
         <v>3.6</v>
       </c>
       <c r="O78" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="P78" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q78" t="s">
-        <v>177</v>
-      </c>
-      <c r="R78" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>178</v>
+        <v>23</v>
       </c>
       <c r="B79" t="n">
-        <v>5595</v>
+        <v>11708</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>8</v>
-      </c>
-      <c r="E79" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F79" t="n">
         <v>0.058</v>
       </c>
@@ -5217,32 +4629,28 @@
         <v>3.6</v>
       </c>
       <c r="O79" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="P79" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q79" t="s">
-        <v>179</v>
-      </c>
-      <c r="R79" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="B80" t="n">
-        <v>18906</v>
+        <v>4063</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>25</v>
-      </c>
-      <c r="E80" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F80" t="n">
         <v>0.058</v>
       </c>
@@ -5259,44 +4667,40 @@
         <v>0.6</v>
       </c>
       <c r="K80" t="n">
-        <v>0.047121185</v>
+        <v>0.0336</v>
       </c>
       <c r="L80" t="n">
-        <v>1.71852428</v>
+        <v>6.822</v>
       </c>
       <c r="M80" t="n">
-        <v>16.3980957</v>
+        <v>8.9133</v>
       </c>
       <c r="N80" t="n">
         <v>3.6</v>
       </c>
       <c r="O80" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="P80" t="n">
-        <v>0.071428571</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>181</v>
-      </c>
-      <c r="R80" t="s">
-        <v>55</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="B81" t="n">
-        <v>4727</v>
+        <v>5595</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F81" t="n">
         <v>0.058</v>
       </c>
@@ -5313,44 +4717,40 @@
         <v>0.6</v>
       </c>
       <c r="K81" t="n">
-        <v>0.010689864</v>
+        <v>0.0306</v>
       </c>
       <c r="L81" t="n">
-        <v>8.317893074</v>
+        <v>7.683</v>
       </c>
       <c r="M81" t="n">
-        <v>10.7961697</v>
+        <v>8.088</v>
       </c>
       <c r="N81" t="n">
         <v>3.6</v>
       </c>
       <c r="O81" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="P81" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>183</v>
-      </c>
-      <c r="R81" t="s">
-        <v>29</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="B82" t="n">
-        <v>25881</v>
+        <v>18906</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>53</v>
-      </c>
-      <c r="E82" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F82" t="n">
         <v>0.058</v>
       </c>
@@ -5367,44 +4767,40 @@
         <v>0.6</v>
       </c>
       <c r="K82" t="n">
-        <v>0.0366</v>
+        <v>0.047121185</v>
       </c>
       <c r="L82" t="n">
-        <v>7.683</v>
+        <v>1.71852428</v>
       </c>
       <c r="M82" t="n">
-        <v>8.088</v>
+        <v>16.3980957</v>
       </c>
       <c r="N82" t="n">
         <v>3.6</v>
       </c>
       <c r="O82" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="P82" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>185</v>
-      </c>
-      <c r="R82" t="s">
-        <v>49</v>
+        <v>0.071428571</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B83" t="n">
-        <v>139000</v>
+        <v>4727</v>
       </c>
       <c r="C83" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>266</v>
-      </c>
-      <c r="E83" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F83" t="n">
         <v>0.058</v>
       </c>
@@ -5421,44 +4817,40 @@
         <v>0.6</v>
       </c>
       <c r="K83" t="n">
-        <v>0.010083197</v>
+        <v>0.010689864</v>
       </c>
       <c r="L83" t="n">
-        <v>8.31766505</v>
+        <v>8.317893074</v>
       </c>
       <c r="M83" t="n">
-        <v>0.918223745</v>
+        <v>10.7961697</v>
       </c>
       <c r="N83" t="n">
         <v>3.6</v>
       </c>
       <c r="O83" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="P83" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>95</v>
-      </c>
-      <c r="R83" t="s">
-        <v>95</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="B84" t="n">
-        <v>90313</v>
+        <v>25881</v>
       </c>
       <c r="C84" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>160</v>
-      </c>
-      <c r="E84" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F84" t="n">
         <v>0.058</v>
       </c>
@@ -5475,44 +4867,40 @@
         <v>0.6</v>
       </c>
       <c r="K84" t="n">
-        <v>0.02418042</v>
+        <v>0.0366</v>
       </c>
       <c r="L84" t="n">
-        <v>3.239810757</v>
+        <v>7.683</v>
       </c>
       <c r="M84" t="n">
-        <v>17.24934459</v>
+        <v>8.088</v>
       </c>
       <c r="N84" t="n">
         <v>3.6</v>
       </c>
       <c r="O84" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="P84" t="n">
-        <v>56.92857143</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>187</v>
-      </c>
-      <c r="R84" t="s">
-        <v>95</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B85" t="n">
-        <v>103750</v>
+        <v>139000</v>
       </c>
       <c r="C85" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D85" t="n">
-        <v>200</v>
-      </c>
-      <c r="E85" s="1"/>
+        <v>266</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F85" t="n">
         <v>0.058</v>
       </c>
@@ -5529,44 +4917,40 @@
         <v>0.6</v>
       </c>
       <c r="K85" t="n">
-        <v>0.051591803</v>
+        <v>0.010083197</v>
       </c>
       <c r="L85" t="n">
-        <v>1.597906366</v>
+        <v>8.31766505</v>
       </c>
       <c r="M85" t="n">
-        <v>0.83135002</v>
+        <v>0.918223745</v>
       </c>
       <c r="N85" t="n">
         <v>3.6</v>
       </c>
       <c r="O85" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="P85" t="n">
-        <v>290.7142857</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>49</v>
-      </c>
-      <c r="R85" t="s">
-        <v>49</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="B86" t="n">
-        <v>13705</v>
+        <v>90313</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D86" t="n">
-        <v>20</v>
-      </c>
-      <c r="E86" s="1"/>
+        <v>160</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F86" t="n">
         <v>0.058</v>
       </c>
@@ -5583,44 +4967,40 @@
         <v>0.6</v>
       </c>
       <c r="K86" t="n">
-        <v>0.010377512</v>
+        <v>0.02418042</v>
       </c>
       <c r="L86" t="n">
-        <v>6.498560453</v>
+        <v>3.239810757</v>
       </c>
       <c r="M86" t="n">
-        <v>20.49619836</v>
+        <v>17.24934459</v>
       </c>
       <c r="N86" t="n">
         <v>3.6</v>
       </c>
       <c r="O86" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="P86" t="n">
-        <v>3.571428571</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>189</v>
-      </c>
-      <c r="R86" t="s">
-        <v>95</v>
+        <v>56.92857143</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="B87" t="n">
-        <v>9667</v>
+        <v>103750</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D87" t="n">
-        <v>37</v>
-      </c>
-      <c r="E87" s="1"/>
+        <v>200</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F87" t="n">
         <v>0.058</v>
       </c>
@@ -5637,44 +5017,40 @@
         <v>0.6</v>
       </c>
       <c r="K87" t="n">
-        <v>0.027908568</v>
+        <v>0.051591803</v>
       </c>
       <c r="L87" t="n">
-        <v>7.806058271</v>
+        <v>1.597906366</v>
       </c>
       <c r="M87" t="n">
-        <v>7.511047218</v>
+        <v>0.83135002</v>
       </c>
       <c r="N87" t="n">
         <v>3.6</v>
       </c>
       <c r="O87" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="P87" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>191</v>
-      </c>
-      <c r="R87" t="s">
-        <v>89</v>
+        <v>290.7142857</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>192</v>
+        <v>104</v>
       </c>
       <c r="B88" t="n">
-        <v>3525</v>
+        <v>13705</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F88" t="n">
         <v>0.058</v>
       </c>
@@ -5691,44 +5067,40 @@
         <v>0.6</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0306</v>
+        <v>0.010377512</v>
       </c>
       <c r="L88" t="n">
-        <v>7.683</v>
+        <v>6.498560453</v>
       </c>
       <c r="M88" t="n">
-        <v>8.088</v>
+        <v>20.49619836</v>
       </c>
       <c r="N88" t="n">
         <v>3.6</v>
       </c>
       <c r="O88" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="P88" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>193</v>
-      </c>
-      <c r="R88" t="s">
-        <v>95</v>
+        <v>3.571428571</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>194</v>
+        <v>105</v>
       </c>
       <c r="B89" t="n">
-        <v>3127</v>
+        <v>9667</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>5</v>
-      </c>
-      <c r="E89" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F89" t="n">
         <v>0.058</v>
       </c>
@@ -5745,44 +5117,40 @@
         <v>0.6</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0306</v>
+        <v>0.027908568</v>
       </c>
       <c r="L89" t="n">
-        <v>7.683</v>
+        <v>7.806058271</v>
       </c>
       <c r="M89" t="n">
-        <v>8.088</v>
+        <v>7.511047218</v>
       </c>
       <c r="N89" t="n">
         <v>3.6</v>
       </c>
       <c r="O89" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q89" t="s">
-        <v>195</v>
-      </c>
-      <c r="R89" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="B90" t="n">
-        <v>284971</v>
+        <v>3525</v>
       </c>
       <c r="C90" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>368</v>
-      </c>
-      <c r="E90" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F90" t="n">
         <v>0.058</v>
       </c>
@@ -5799,44 +5167,40 @@
         <v>0.6</v>
       </c>
       <c r="K90" t="n">
-        <v>0.005776417</v>
+        <v>0.0306</v>
       </c>
       <c r="L90" t="n">
-        <v>21.65713644</v>
+        <v>7.683</v>
       </c>
       <c r="M90" t="n">
-        <v>28.1133255</v>
+        <v>8.088</v>
       </c>
       <c r="N90" t="n">
         <v>3.6</v>
       </c>
       <c r="O90" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="P90" t="n">
-        <v>71.14285714</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>197</v>
-      </c>
-      <c r="R90" t="s">
-        <v>21</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="B91" t="n">
-        <v>11309</v>
+        <v>3127</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="E91" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F91" t="n">
         <v>0.058</v>
       </c>
@@ -5865,32 +5229,28 @@
         <v>3.6</v>
       </c>
       <c r="O91" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="P91" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
-      <c r="Q91" t="s">
-        <v>199</v>
-      </c>
-      <c r="R91" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="B92" t="n">
-        <v>16128</v>
+        <v>284971</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D92" t="n">
-        <v>47</v>
-      </c>
-      <c r="E92" s="1"/>
+        <v>368</v>
+      </c>
+      <c r="E92" s="1" t="n">
+        <v>43982</v>
+      </c>
       <c r="F92" t="n">
         <v>0.058</v>
       </c>
@@ -5907,82 +5267,172 @@
         <v>0.6</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0306</v>
+        <v>0.005776417</v>
       </c>
       <c r="L92" t="n">
-        <v>7.683</v>
+        <v>21.65713644</v>
       </c>
       <c r="M92" t="n">
-        <v>8.088</v>
+        <v>28.1133255</v>
       </c>
       <c r="N92" t="n">
         <v>3.6</v>
       </c>
       <c r="O92" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="P92" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>201</v>
-      </c>
-      <c r="R92" t="s">
-        <v>63</v>
+        <v>71.14285714</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="B93" t="n">
+        <v>11309</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1" t="n">
+        <v>43982</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.0306</v>
+      </c>
+      <c r="L93" t="n">
+        <v>7.683</v>
+      </c>
+      <c r="M93" t="n">
+        <v>8.088</v>
+      </c>
+      <c r="N93" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O93" t="s">
+        <v>57</v>
+      </c>
+      <c r="P93" t="n">
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" t="n">
+        <v>16128</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>47</v>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>43982</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.0306</v>
+      </c>
+      <c r="L94" t="n">
+        <v>7.683</v>
+      </c>
+      <c r="M94" t="n">
+        <v>8.088</v>
+      </c>
+      <c r="N94" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O94" t="s">
+        <v>39</v>
+      </c>
+      <c r="P94" t="n">
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" t="n">
         <v>26037</v>
       </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="n">
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
         <v>21</v>
       </c>
-      <c r="E93" s="1"/>
-      <c r="F93" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K93" t="n">
+      <c r="E95" s="1" t="n">
+        <v>43982</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.053746421</v>
       </c>
-      <c r="L93" t="n">
+      <c r="L95" t="n">
         <v>1.957159446</v>
       </c>
-      <c r="M93" t="n">
+      <c r="M95" t="n">
         <v>61.99407372</v>
       </c>
-      <c r="N93" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O93" t="s">
-        <v>73</v>
-      </c>
-      <c r="P93" t="n">
+      <c r="N95" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O95" t="s">
+        <v>46</v>
+      </c>
+      <c r="P95" t="n">
         <v>1.642857143</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>203</v>
-      </c>
-      <c r="R93" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/mcr_aglomerados.xlsx
+++ b/mcr_aglomerados.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t xml:space="preserve">aglomerado</t>
   </si>
@@ -122,6 +122,12 @@
     <t xml:space="preserve">Bom Jesus do Araguaia</t>
   </si>
   <si>
+    <t xml:space="preserve">Brasnorte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campinapolis</t>
+  </si>
+  <si>
     <t xml:space="preserve">Campo Novo do Parecis</t>
   </si>
   <si>
@@ -134,6 +140,12 @@
     <t xml:space="preserve">Pontes e Lacerda</t>
   </si>
   <si>
+    <t xml:space="preserve">Cana Brava do Norte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porto Alegre do Norte</t>
+  </si>
+  <si>
     <t xml:space="preserve">Canarana</t>
   </si>
   <si>
@@ -152,9 +164,6 @@
     <t xml:space="preserve">Confresa</t>
   </si>
   <si>
-    <t xml:space="preserve">Porto Alegre do Norte</t>
-  </si>
-  <si>
     <t xml:space="preserve">Conquista do Oeste</t>
   </si>
   <si>
@@ -173,6 +182,15 @@
     <t xml:space="preserve">Dom Aquino</t>
   </si>
   <si>
+    <t xml:space="preserve">Feliz Natal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaucha do Norte</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guaranta do Norte</t>
   </si>
   <si>
@@ -185,12 +203,15 @@
     <t xml:space="preserve">Ipiranga do Norte</t>
   </si>
   <si>
-    <t xml:space="preserve">Sinop</t>
-  </si>
-  <si>
     <t xml:space="preserve">Itanhanga</t>
   </si>
   <si>
+    <t xml:space="preserve">Itauba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itiquira</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jaciara</t>
   </si>
   <si>
@@ -215,6 +236,9 @@
     <t xml:space="preserve">Luciara</t>
   </si>
   <si>
+    <t xml:space="preserve">Marcelandia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Matupa</t>
   </si>
   <si>
@@ -233,6 +257,9 @@
     <t xml:space="preserve">Nova Lacerda</t>
   </si>
   <si>
+    <t xml:space="preserve">Nova Marilandia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nova Maringa</t>
   </si>
   <si>
@@ -263,6 +290,9 @@
     <t xml:space="preserve">Paranaita</t>
   </si>
   <si>
+    <t xml:space="preserve">Paranatinga</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pedra Preta</t>
   </si>
   <si>
@@ -299,18 +329,30 @@
     <t xml:space="preserve">Rosario Oeste</t>
   </si>
   <si>
+    <t xml:space="preserve">Santa Carmem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Cruz do Xingu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Santa Rita do Trivelato</t>
   </si>
   <si>
     <t xml:space="preserve">Santo Afonso</t>
   </si>
   <si>
+    <t xml:space="preserve">Santo Antonio do Leste</t>
+  </si>
+  <si>
     <t xml:space="preserve">Santo Antonio do Leverger</t>
   </si>
   <si>
     <t xml:space="preserve">Sao Jose do Povo</t>
   </si>
   <si>
+    <t xml:space="preserve">Sao Jose do Rio Claro</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sao Jose do Xingu</t>
   </si>
   <si>
@@ -324,6 +366,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sorriso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabapora</t>
   </si>
   <si>
     <t xml:space="preserve">Tapurah</t>
@@ -748,9 +793,7 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>43982</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" t="n">
         <v>0.058</v>
       </c>
@@ -767,13 +810,13 @@
         <v>0.6</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0299203859394207</v>
+        <v>0.00326581755260535</v>
       </c>
       <c r="L2" t="n">
-        <v>7.17294568963489</v>
+        <v>16.8831084672101</v>
       </c>
       <c r="M2" t="n">
-        <v>0.445990039502988</v>
+        <v>0.316192678677331</v>
       </c>
       <c r="N2" t="n">
         <v>3.6</v>
@@ -782,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="3">
@@ -798,9 +841,7 @@
       <c r="D3" t="n">
         <v>77</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>43982</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" t="n">
         <v>0.058</v>
       </c>
@@ -817,13 +858,13 @@
         <v>0.6</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0306</v>
+        <v>0.0762862363481625</v>
       </c>
       <c r="L3" t="n">
-        <v>7.683</v>
+        <v>2.0001761083759</v>
       </c>
       <c r="M3" t="n">
-        <v>8.088</v>
+        <v>75.2207698698588</v>
       </c>
       <c r="N3" t="n">
         <v>3.6</v>
@@ -832,7 +873,7 @@
         <v>18</v>
       </c>
       <c r="P3" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -848,9 +889,7 @@
       <c r="D4" t="n">
         <v>141</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>43982</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" t="n">
         <v>0.058</v>
       </c>
@@ -867,13 +906,13 @@
         <v>0.6</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0288350169634605</v>
+        <v>0.0166916306818528</v>
       </c>
       <c r="L4" t="n">
-        <v>5.85906130962716</v>
+        <v>5.1962702372424</v>
       </c>
       <c r="M4" t="n">
-        <v>18.8106909259408</v>
+        <v>11.0275068661736</v>
       </c>
       <c r="N4" t="n">
         <v>3.6</v>
@@ -882,7 +921,7 @@
         <v>19</v>
       </c>
       <c r="P4" t="n">
-        <v>17.3571428571429</v>
+        <v>68.6428571428571</v>
       </c>
     </row>
     <row r="5">
@@ -898,9 +937,7 @@
       <c r="D5" t="n">
         <v>98</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>43982</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" t="n">
         <v>0.058</v>
       </c>
@@ -917,13 +954,13 @@
         <v>0.6</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0473497466631955</v>
+        <v>0.0509359056973647</v>
       </c>
       <c r="L5" t="n">
-        <v>4.97248978737766</v>
+        <v>0.696502823359291</v>
       </c>
       <c r="M5" t="n">
-        <v>9.95141858050192</v>
+        <v>5.67117450758369</v>
       </c>
       <c r="N5" t="n">
         <v>3.6</v>
@@ -932,7 +969,7 @@
         <v>21</v>
       </c>
       <c r="P5" t="n">
-        <v>4.07142857142857</v>
+        <v>3.42857142857143</v>
       </c>
     </row>
     <row r="6">
@@ -948,9 +985,7 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <v>43982</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" t="n">
         <v>0.058</v>
       </c>
@@ -982,7 +1017,7 @@
         <v>23</v>
       </c>
       <c r="P6" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>70.8571428571429</v>
       </c>
     </row>
     <row r="7">
@@ -998,9 +1033,7 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <v>43982</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" t="n">
         <v>0.058</v>
       </c>
@@ -1048,9 +1081,7 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <v>43982</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" t="n">
         <v>0.058</v>
       </c>
@@ -1098,9 +1129,7 @@
       <c r="D9" t="n">
         <v>19</v>
       </c>
-      <c r="E9" s="1" t="n">
-        <v>43982</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" t="n">
         <v>0.058</v>
       </c>
@@ -1148,9 +1177,7 @@
       <c r="D10" t="n">
         <v>10</v>
       </c>
-      <c r="E10" s="1" t="n">
-        <v>43982</v>
-      </c>
+      <c r="E10" s="1"/>
       <c r="F10" t="n">
         <v>0.058</v>
       </c>
@@ -1198,9 +1225,7 @@
       <c r="D11" t="n">
         <v>33</v>
       </c>
-      <c r="E11" s="1" t="n">
-        <v>43982</v>
-      </c>
+      <c r="E11" s="1"/>
       <c r="F11" t="n">
         <v>0.058</v>
       </c>
@@ -1217,13 +1242,13 @@
         <v>0.6</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0191843620359967</v>
+        <v>0.0182213952221658</v>
       </c>
       <c r="L11" t="n">
-        <v>17.2307455043667</v>
+        <v>10.2426914047094</v>
       </c>
       <c r="M11" t="n">
-        <v>27.3661121094003</v>
+        <v>15.7342799586542</v>
       </c>
       <c r="N11" t="n">
         <v>3.6</v>
@@ -1232,7 +1257,7 @@
         <v>31</v>
       </c>
       <c r="P11" t="n">
-        <v>7.28571428571429</v>
+        <v>181.857142857143</v>
       </c>
     </row>
     <row r="12">
@@ -1248,9 +1273,7 @@
       <c r="D12" t="n">
         <v>59</v>
       </c>
-      <c r="E12" s="1" t="n">
-        <v>43982</v>
-      </c>
+      <c r="E12" s="1"/>
       <c r="F12" t="n">
         <v>0.058</v>
       </c>
@@ -1298,9 +1321,7 @@
       <c r="D13" t="n">
         <v>114</v>
       </c>
-      <c r="E13" s="1" t="n">
-        <v>43982</v>
-      </c>
+      <c r="E13" s="1"/>
       <c r="F13" t="n">
         <v>0.058</v>
       </c>
@@ -1317,13 +1338,13 @@
         <v>0.6</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00322377312537881</v>
+        <v>0.000641321790449558</v>
       </c>
       <c r="L13" t="n">
-        <v>2.05858467694226</v>
+        <v>1.22578506346202</v>
       </c>
       <c r="M13" t="n">
-        <v>0.206082171450231</v>
+        <v>0.00222434485236275</v>
       </c>
       <c r="N13" t="n">
         <v>3.6</v>
@@ -1332,7 +1353,7 @@
         <v>34</v>
       </c>
       <c r="P13" t="n">
-        <v>98.2142857142857</v>
+        <v>426.571428571429</v>
       </c>
     </row>
     <row r="14">
@@ -1348,9 +1369,7 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="1" t="n">
-        <v>43982</v>
-      </c>
+      <c r="E14" s="1"/>
       <c r="F14" t="n">
         <v>0.058</v>
       </c>
@@ -1367,13 +1386,13 @@
         <v>0.6</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0306</v>
+        <v>0.00879411236342887</v>
       </c>
       <c r="L14" t="n">
-        <v>7.683</v>
+        <v>12.1109244554057</v>
       </c>
       <c r="M14" t="n">
-        <v>8.088</v>
+        <v>13.305616536097</v>
       </c>
       <c r="N14" t="n">
         <v>3.6</v>
@@ -1382,25 +1401,23 @@
         <v>23</v>
       </c>
       <c r="P14" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>9.57142857142857</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B15" t="n">
-        <v>94376</v>
+        <v>19695</v>
       </c>
       <c r="C15" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>225</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E15" s="1"/>
       <c r="F15" t="n">
         <v>0.058</v>
       </c>
@@ -1417,40 +1434,38 @@
         <v>0.6</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0143275712762328</v>
+        <v>0.011999679</v>
       </c>
       <c r="L15" t="n">
-        <v>6.99227813798714</v>
+        <v>9.355964802</v>
       </c>
       <c r="M15" t="n">
-        <v>15.409815856818</v>
+        <v>17.00140937</v>
       </c>
       <c r="N15" t="n">
         <v>3.6</v>
       </c>
       <c r="O15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P15" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B16" t="n">
-        <v>35360</v>
+        <v>94376</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D16" t="n">
-        <v>32</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="E16" s="1"/>
       <c r="F16" t="n">
         <v>0.058</v>
       </c>
@@ -1467,22 +1482,22 @@
         <v>0.6</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0212535280844268</v>
+        <v>0.0155768708074898</v>
       </c>
       <c r="L16" t="n">
-        <v>8.08305757896702</v>
+        <v>8.87654880631316</v>
       </c>
       <c r="M16" t="n">
-        <v>0.838056983568618</v>
+        <v>11.919459831933</v>
       </c>
       <c r="N16" t="n">
         <v>3.6</v>
       </c>
       <c r="O16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="P16" t="n">
-        <v>1.57142857142857</v>
+        <v>9.64285714285714</v>
       </c>
     </row>
     <row r="17">
@@ -1490,17 +1505,15 @@
         <v>37</v>
       </c>
       <c r="B17" t="n">
-        <v>44041</v>
+        <v>15980</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E17" s="1"/>
       <c r="F17" t="n">
         <v>0.058</v>
       </c>
@@ -1517,22 +1530,22 @@
         <v>0.6</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0506070350744436</v>
+        <v>0.000920536</v>
       </c>
       <c r="L17" t="n">
-        <v>7.45688841458627</v>
+        <v>1.013761257</v>
       </c>
       <c r="M17" t="n">
-        <v>11.8729304318132</v>
+        <v>0.002561003</v>
       </c>
       <c r="N17" t="n">
         <v>3.6</v>
       </c>
       <c r="O17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="P17" t="n">
-        <v>55.8571428571429</v>
+        <v>237.1428571</v>
       </c>
     </row>
     <row r="18">
@@ -1540,17 +1553,15 @@
         <v>38</v>
       </c>
       <c r="B18" t="n">
-        <v>6891</v>
+        <v>35360</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>16</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E18" s="1"/>
       <c r="F18" t="n">
         <v>0.058</v>
       </c>
@@ -1567,40 +1578,38 @@
         <v>0.6</v>
       </c>
       <c r="K18" t="n">
-        <v>0.012703974</v>
+        <v>0.00112705350778287</v>
       </c>
       <c r="L18" t="n">
-        <v>20.32214124</v>
+        <v>17.9871929972309</v>
       </c>
       <c r="M18" t="n">
-        <v>14.51748441</v>
+        <v>0.0385271887575174</v>
       </c>
       <c r="N18" t="n">
         <v>3.6</v>
       </c>
       <c r="O18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="P18" t="n">
-        <v>9.571428571</v>
+        <v>169.785714285714</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" t="n">
-        <v>21579</v>
+        <v>44041</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>48</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E19" s="1"/>
       <c r="F19" t="n">
         <v>0.058</v>
       </c>
@@ -1617,72 +1626,70 @@
         <v>0.6</v>
       </c>
       <c r="K19" t="n">
-        <v>0.026618153</v>
+        <v>0.103327817107607</v>
       </c>
       <c r="L19" t="n">
-        <v>7.285567626</v>
+        <v>1.94497503801555</v>
       </c>
       <c r="M19" t="n">
-        <v>9.19421699</v>
+        <v>8.06064636189037</v>
       </c>
       <c r="N19" t="n">
         <v>3.6</v>
       </c>
       <c r="O19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P19" t="n">
-        <v>14</v>
+        <v>169.071428571429</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6891</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>16</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.020022311</v>
+      </c>
+      <c r="L20" t="n">
+        <v>12.82983404</v>
+      </c>
+      <c r="M20" t="n">
+        <v>22.12825082</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="n">
-        <v>19752</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>43982</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.0124264078122861</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4.92077203768328</v>
-      </c>
-      <c r="M20" t="n">
-        <v>15.7123392424054</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O20" t="s">
-        <v>17</v>
-      </c>
       <c r="P20" t="n">
-        <v>0.714285714285714</v>
+        <v>49.1428571428571</v>
       </c>
     </row>
     <row r="21">
@@ -1690,17 +1697,15 @@
         <v>42</v>
       </c>
       <c r="B21" t="n">
-        <v>33438</v>
+        <v>4743</v>
       </c>
       <c r="C21" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>113</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E21" s="1"/>
       <c r="F21" t="n">
         <v>0.058</v>
       </c>
@@ -1729,7 +1734,7 @@
         <v>3.6</v>
       </c>
       <c r="O21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P21" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
@@ -1737,20 +1742,18 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" t="n">
-        <v>38582</v>
+        <v>21579</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>31</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E22" s="1"/>
       <c r="F22" t="n">
         <v>0.058</v>
       </c>
@@ -1767,40 +1770,38 @@
         <v>0.6</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0306</v>
+        <v>0.0246766806346082</v>
       </c>
       <c r="L22" t="n">
-        <v>7.683</v>
+        <v>8.64045707675925</v>
       </c>
       <c r="M22" t="n">
-        <v>8.088</v>
+        <v>19.7961230452245</v>
       </c>
       <c r="N22" t="n">
         <v>3.6</v>
       </c>
       <c r="O22" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="P22" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>34.2142857142857</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" t="n">
-        <v>20763</v>
+        <v>19752</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>42</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E23" s="1"/>
       <c r="F23" t="n">
         <v>0.058</v>
       </c>
@@ -1817,40 +1818,38 @@
         <v>0.6</v>
       </c>
       <c r="K23" t="n">
-        <v>0.012703974</v>
+        <v>0.0560521766074245</v>
       </c>
       <c r="L23" t="n">
-        <v>20.32214124</v>
+        <v>1.93955455905217</v>
       </c>
       <c r="M23" t="n">
-        <v>14.51748441</v>
+        <v>12.0886065214153</v>
       </c>
       <c r="N23" t="n">
         <v>3.6</v>
       </c>
       <c r="O23" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="P23" t="n">
-        <v>9.571428571</v>
+        <v>2.71428571428571</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" t="n">
-        <v>30933</v>
+        <v>33438</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D24" t="n">
-        <v>53</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="E24" s="1"/>
       <c r="F24" t="n">
         <v>0.058</v>
       </c>
@@ -1867,13 +1866,13 @@
         <v>0.6</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0196529444519433</v>
+        <v>0.092535508681034</v>
       </c>
       <c r="L24" t="n">
-        <v>7.25093392009641</v>
+        <v>0.982432952977977</v>
       </c>
       <c r="M24" t="n">
-        <v>32.6690937011047</v>
+        <v>14.2982283888858</v>
       </c>
       <c r="N24" t="n">
         <v>3.6</v>
@@ -1882,7 +1881,7 @@
         <v>46</v>
       </c>
       <c r="P24" t="n">
-        <v>16</v>
+        <v>6.78571428571429</v>
       </c>
     </row>
     <row r="25">
@@ -1890,17 +1889,15 @@
         <v>47</v>
       </c>
       <c r="B25" t="n">
-        <v>4038</v>
+        <v>38582</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E25" s="1"/>
       <c r="F25" t="n">
         <v>0.058</v>
       </c>
@@ -1929,7 +1926,7 @@
         <v>3.6</v>
       </c>
       <c r="O25" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P25" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
@@ -1940,17 +1937,15 @@
         <v>48</v>
       </c>
       <c r="B26" t="n">
-        <v>19750</v>
+        <v>20763</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>33</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E26" s="1"/>
       <c r="F26" t="n">
         <v>0.058</v>
       </c>
@@ -1967,22 +1962,22 @@
         <v>0.6</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0306</v>
+        <v>0.012703974</v>
       </c>
       <c r="L26" t="n">
-        <v>7.683</v>
+        <v>20.32214124</v>
       </c>
       <c r="M26" t="n">
-        <v>8.088</v>
+        <v>14.51748441</v>
       </c>
       <c r="N26" t="n">
         <v>3.6</v>
       </c>
       <c r="O26" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P26" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>9.571428571</v>
       </c>
     </row>
     <row r="27">
@@ -1990,17 +1985,15 @@
         <v>49</v>
       </c>
       <c r="B27" t="n">
-        <v>612547</v>
+        <v>30933</v>
       </c>
       <c r="C27" t="n">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1898</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E27" s="1"/>
       <c r="F27" t="n">
         <v>0.058</v>
       </c>
@@ -2017,22 +2010,22 @@
         <v>0.6</v>
       </c>
       <c r="K27" t="n">
-        <v>0.022949579</v>
+        <v>0.0281344408656497</v>
       </c>
       <c r="L27" t="n">
-        <v>5.646002608</v>
+        <v>2.49191514891493</v>
       </c>
       <c r="M27" t="n">
-        <v>47.21198293</v>
+        <v>25.2976684455512</v>
       </c>
       <c r="N27" t="n">
         <v>3.6</v>
       </c>
       <c r="O27" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="P27" t="n">
-        <v>204.6428571</v>
+        <v>1117.85714285714</v>
       </c>
     </row>
     <row r="28">
@@ -2040,7 +2033,7 @@
         <v>50</v>
       </c>
       <c r="B28" t="n">
-        <v>5219</v>
+        <v>4038</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2048,9 +2041,7 @@
       <c r="D28" t="n">
         <v>0</v>
       </c>
-      <c r="E28" s="1" t="n">
-        <v>43982</v>
-      </c>
+      <c r="E28" s="1"/>
       <c r="F28" t="n">
         <v>0.058</v>
       </c>
@@ -2067,22 +2058,22 @@
         <v>0.6</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0306</v>
+        <v>0.0716822223903637</v>
       </c>
       <c r="L28" t="n">
-        <v>7.683</v>
+        <v>0.952462136771222</v>
       </c>
       <c r="M28" t="n">
-        <v>8.088</v>
+        <v>29.4283528103947</v>
       </c>
       <c r="N28" t="n">
         <v>3.6</v>
       </c>
       <c r="O28" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="P28" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>1.14285714285714</v>
       </c>
     </row>
     <row r="29">
@@ -2090,17 +2081,15 @@
         <v>51</v>
       </c>
       <c r="B29" t="n">
-        <v>9462</v>
+        <v>19750</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E29" s="1"/>
       <c r="F29" t="n">
         <v>0.058</v>
       </c>
@@ -2117,22 +2106,22 @@
         <v>0.6</v>
       </c>
       <c r="K29" t="n">
-        <v>0.041736166</v>
+        <v>0.0136031185152252</v>
       </c>
       <c r="L29" t="n">
-        <v>3.559643653</v>
+        <v>7.72662432574177</v>
       </c>
       <c r="M29" t="n">
-        <v>0.983200816</v>
+        <v>16.2080351294571</v>
       </c>
       <c r="N29" t="n">
         <v>3.6</v>
       </c>
       <c r="O29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P29" t="n">
-        <v>239.2142857</v>
+        <v>0.928571428571429</v>
       </c>
     </row>
     <row r="30">
@@ -2140,17 +2129,15 @@
         <v>52</v>
       </c>
       <c r="B30" t="n">
-        <v>8178</v>
+        <v>612547</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="D30" t="n">
-        <v>20</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>1898</v>
+      </c>
+      <c r="E30" s="1"/>
       <c r="F30" t="n">
         <v>0.058</v>
       </c>
@@ -2167,22 +2154,22 @@
         <v>0.6</v>
       </c>
       <c r="K30" t="n">
-        <v>0.033660158</v>
+        <v>0.0284647065292876</v>
       </c>
       <c r="L30" t="n">
-        <v>5.827907827</v>
+        <v>2.82346863244444</v>
       </c>
       <c r="M30" t="n">
-        <v>12.74171193</v>
+        <v>67.3816369957026</v>
       </c>
       <c r="N30" t="n">
         <v>3.6</v>
       </c>
       <c r="O30" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P30" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>1209.35714285714</v>
       </c>
     </row>
     <row r="31">
@@ -2190,17 +2177,15 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>35016</v>
+        <v>5219</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>48</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E31" s="1"/>
       <c r="F31" t="n">
         <v>0.058</v>
       </c>
@@ -2229,7 +2214,7 @@
         <v>3.6</v>
       </c>
       <c r="O31" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="P31" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
@@ -2237,20 +2222,18 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>15141</v>
+        <v>9462</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>22</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E32" s="1"/>
       <c r="F32" t="n">
         <v>0.058</v>
       </c>
@@ -2267,40 +2250,38 @@
         <v>0.6</v>
       </c>
       <c r="K32" t="n">
-        <v>0.029629965</v>
+        <v>0.041736166</v>
       </c>
       <c r="L32" t="n">
-        <v>5.792212078</v>
+        <v>3.559643653</v>
       </c>
       <c r="M32" t="n">
-        <v>17.39054258</v>
+        <v>0.983200816</v>
       </c>
       <c r="N32" t="n">
         <v>3.6</v>
       </c>
       <c r="O32" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="P32" t="n">
-        <v>172.8571429</v>
+        <v>239.2142857</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B33" t="n">
-        <v>7667</v>
+        <v>22041</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E33" s="1"/>
       <c r="F33" t="n">
         <v>0.058</v>
       </c>
@@ -2329,7 +2310,7 @@
         <v>3.6</v>
       </c>
       <c r="O33" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P33" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
@@ -2337,20 +2318,18 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B34" t="n">
-        <v>6737</v>
+        <v>8178</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E34" s="1"/>
       <c r="F34" t="n">
         <v>0.058</v>
       </c>
@@ -2367,40 +2346,38 @@
         <v>0.6</v>
       </c>
       <c r="K34" t="n">
-        <v>0.026663023</v>
+        <v>0.0321461487582332</v>
       </c>
       <c r="L34" t="n">
-        <v>6.941391743</v>
+        <v>3.23378835153766</v>
       </c>
       <c r="M34" t="n">
-        <v>8.402639483</v>
+        <v>11.988971608453</v>
       </c>
       <c r="N34" t="n">
         <v>3.6</v>
       </c>
       <c r="O34" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="P34" t="n">
-        <v>53.85714286</v>
+        <v>3.85714285714286</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>27776</v>
+        <v>14192</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>60</v>
-      </c>
-      <c r="E35" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E35" s="1"/>
       <c r="F35" t="n">
         <v>0.058</v>
       </c>
@@ -2417,40 +2394,38 @@
         <v>0.6</v>
       </c>
       <c r="K35" t="n">
-        <v>0.069645977</v>
+        <v>0.016811648</v>
       </c>
       <c r="L35" t="n">
-        <v>4.153498272</v>
+        <v>6.61415328</v>
       </c>
       <c r="M35" t="n">
-        <v>10.90377979</v>
+        <v>0.605459625</v>
       </c>
       <c r="N35" t="n">
         <v>3.6</v>
       </c>
       <c r="O35" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="P35" t="n">
-        <v>14.57142857</v>
+        <v>43.92857143</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B36" t="n">
-        <v>8409</v>
+        <v>7648</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E36" s="1"/>
       <c r="F36" t="n">
         <v>0.058</v>
       </c>
@@ -2467,40 +2442,38 @@
         <v>0.6</v>
       </c>
       <c r="K36" t="n">
-        <v>0.00950126</v>
+        <v>0.084144217</v>
       </c>
       <c r="L36" t="n">
-        <v>2.416326327</v>
+        <v>1.842648379</v>
       </c>
       <c r="M36" t="n">
-        <v>29.0867683</v>
+        <v>68.39961682</v>
       </c>
       <c r="N36" t="n">
         <v>3.6</v>
       </c>
       <c r="O36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P36" t="n">
-        <v>6.857142857</v>
+        <v>0.642857143</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B37" t="n">
-        <v>8793</v>
+        <v>35016</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>37</v>
-      </c>
-      <c r="E37" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E37" s="1"/>
       <c r="F37" t="n">
         <v>0.058</v>
       </c>
@@ -2517,40 +2490,38 @@
         <v>0.6</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0276</v>
+        <v>0.0108854418096442</v>
       </c>
       <c r="L37" t="n">
-        <v>7.683</v>
+        <v>18.0113144820605</v>
       </c>
       <c r="M37" t="n">
-        <v>8.088</v>
+        <v>52.8473303914707</v>
       </c>
       <c r="N37" t="n">
         <v>3.6</v>
       </c>
       <c r="O37" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="P37" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>18.0714285714286</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>34974</v>
+        <v>15141</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>65</v>
-      </c>
-      <c r="E38" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E38" s="1"/>
       <c r="F38" t="n">
         <v>0.058</v>
       </c>
@@ -2567,40 +2538,38 @@
         <v>0.6</v>
       </c>
       <c r="K38" t="n">
-        <v>0.036980711</v>
+        <v>0.029629965</v>
       </c>
       <c r="L38" t="n">
-        <v>5.277084777</v>
+        <v>5.792212078</v>
       </c>
       <c r="M38" t="n">
-        <v>14.43647743</v>
+        <v>17.39054258</v>
       </c>
       <c r="N38" t="n">
         <v>3.6</v>
       </c>
       <c r="O38" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="P38" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>172.8571429</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>40997</v>
+        <v>7667</v>
       </c>
       <c r="C39" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>129</v>
-      </c>
-      <c r="E39" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E39" s="1"/>
       <c r="F39" t="n">
         <v>0.058</v>
       </c>
@@ -2629,7 +2598,7 @@
         <v>3.6</v>
       </c>
       <c r="O39" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="P39" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
@@ -2640,17 +2609,15 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>11221</v>
+        <v>6737</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>33</v>
-      </c>
-      <c r="E40" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E40" s="1"/>
       <c r="F40" t="n">
         <v>0.058</v>
       </c>
@@ -2667,22 +2634,22 @@
         <v>0.6</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0336</v>
+        <v>0.026663023</v>
       </c>
       <c r="L40" t="n">
-        <v>6.822</v>
+        <v>6.941391743</v>
       </c>
       <c r="M40" t="n">
-        <v>8.9133</v>
+        <v>8.402639483</v>
       </c>
       <c r="N40" t="n">
         <v>3.6</v>
       </c>
       <c r="O40" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="P40" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>53.85714286</v>
       </c>
     </row>
     <row r="41">
@@ -2690,17 +2657,15 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>6121</v>
+        <v>3802</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E41" s="1"/>
       <c r="F41" t="n">
         <v>0.058</v>
       </c>
@@ -2717,22 +2682,22 @@
         <v>0.6</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0306</v>
+        <v>0.096965831</v>
       </c>
       <c r="L41" t="n">
-        <v>7.683</v>
+        <v>1.441592123</v>
       </c>
       <c r="M41" t="n">
-        <v>8.088</v>
+        <v>21.41825256</v>
       </c>
       <c r="N41" t="n">
         <v>3.6</v>
       </c>
       <c r="O41" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="P41" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>3.714285714</v>
       </c>
     </row>
     <row r="42">
@@ -2740,17 +2705,15 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>65534</v>
+        <v>13345</v>
       </c>
       <c r="C42" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>101</v>
-      </c>
-      <c r="E42" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E42" s="1"/>
       <c r="F42" t="n">
         <v>0.058</v>
       </c>
@@ -2767,22 +2730,22 @@
         <v>0.6</v>
       </c>
       <c r="K42" t="n">
-        <v>0.011363294</v>
+        <v>0.01308958</v>
       </c>
       <c r="L42" t="n">
-        <v>7.446116658</v>
+        <v>9.209578687</v>
       </c>
       <c r="M42" t="n">
-        <v>20.40108581</v>
+        <v>92.82725535</v>
       </c>
       <c r="N42" t="n">
         <v>3.6</v>
       </c>
       <c r="O42" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="P42" t="n">
-        <v>22.57142857</v>
+        <v>20.64285714</v>
       </c>
     </row>
     <row r="43">
@@ -2790,17 +2753,15 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>2077</v>
+        <v>27776</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E43" s="1"/>
       <c r="F43" t="n">
         <v>0.058</v>
       </c>
@@ -2817,22 +2778,22 @@
         <v>0.6</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0306</v>
+        <v>0.0372827825686631</v>
       </c>
       <c r="L43" t="n">
-        <v>7.683</v>
+        <v>3.11760122196004</v>
       </c>
       <c r="M43" t="n">
-        <v>8.088</v>
+        <v>10.2962524899144</v>
       </c>
       <c r="N43" t="n">
         <v>3.6</v>
       </c>
       <c r="O43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P43" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>31.7142857142857</v>
       </c>
     </row>
     <row r="44">
@@ -2840,17 +2801,15 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>16566</v>
+        <v>8409</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>44</v>
-      </c>
-      <c r="E44" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E44" s="1"/>
       <c r="F44" t="n">
         <v>0.058</v>
       </c>
@@ -2867,22 +2826,22 @@
         <v>0.6</v>
       </c>
       <c r="K44" t="n">
-        <v>0.027908568</v>
+        <v>0.0902933819997869</v>
       </c>
       <c r="L44" t="n">
-        <v>7.806058271</v>
+        <v>0.858918345641211</v>
       </c>
       <c r="M44" t="n">
-        <v>7.511047218</v>
+        <v>9.87290057389519</v>
       </c>
       <c r="N44" t="n">
         <v>3.6</v>
       </c>
       <c r="O44" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="P44" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="45">
@@ -2890,17 +2849,15 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>27739</v>
+        <v>8793</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>90</v>
-      </c>
-      <c r="E45" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E45" s="1"/>
       <c r="F45" t="n">
         <v>0.058</v>
       </c>
@@ -2917,7 +2874,7 @@
         <v>0.6</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0306</v>
+        <v>0.0276</v>
       </c>
       <c r="L45" t="n">
         <v>7.683</v>
@@ -2929,10 +2886,10 @@
         <v>3.6</v>
       </c>
       <c r="O45" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="P45" t="n">
-        <v>6.214285714</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="46">
@@ -2940,17 +2897,15 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>15336</v>
+        <v>34974</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>41</v>
-      </c>
-      <c r="E46" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E46" s="1"/>
       <c r="F46" t="n">
         <v>0.058</v>
       </c>
@@ -2967,40 +2922,38 @@
         <v>0.6</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0306</v>
+        <v>0.231063080858716</v>
       </c>
       <c r="L46" t="n">
-        <v>7.683</v>
+        <v>0.520733875778989</v>
       </c>
       <c r="M46" t="n">
-        <v>8.088</v>
+        <v>16.0674742690122</v>
       </c>
       <c r="N46" t="n">
         <v>3.6</v>
       </c>
       <c r="O46" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="P46" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>2.14285714285714</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B47" t="n">
-        <v>13216</v>
+        <v>40997</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D47" t="n">
-        <v>16</v>
-      </c>
-      <c r="E47" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="E47" s="1"/>
       <c r="F47" t="n">
         <v>0.058</v>
       </c>
@@ -3017,40 +2970,38 @@
         <v>0.6</v>
       </c>
       <c r="K47" t="n">
-        <v>0.038250899</v>
+        <v>0.00805898547119907</v>
       </c>
       <c r="L47" t="n">
-        <v>3.653086829</v>
+        <v>13.2734611243024</v>
       </c>
       <c r="M47" t="n">
-        <v>11.47915988</v>
+        <v>21.3590919497208</v>
       </c>
       <c r="N47" t="n">
         <v>3.6</v>
       </c>
       <c r="O47" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="P47" t="n">
-        <v>0.714285714</v>
+        <v>1.64285714285714</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" t="n">
-        <v>4519</v>
+        <v>11221</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E48" s="1"/>
       <c r="F48" t="n">
         <v>0.058</v>
       </c>
@@ -3067,40 +3018,38 @@
         <v>0.6</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0306</v>
+        <v>0.0534102173051985</v>
       </c>
       <c r="L48" t="n">
-        <v>7.683</v>
+        <v>5.31029391182437</v>
       </c>
       <c r="M48" t="n">
-        <v>8.088</v>
+        <v>11.7778029291582</v>
       </c>
       <c r="N48" t="n">
         <v>3.6</v>
       </c>
       <c r="O48" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="P48" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>3.28571428571429</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" t="n">
-        <v>6640</v>
+        <v>6121</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>6</v>
-      </c>
-      <c r="E49" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E49" s="1"/>
       <c r="F49" t="n">
         <v>0.058</v>
       </c>
@@ -3129,7 +3078,7 @@
         <v>3.6</v>
       </c>
       <c r="O49" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="P49" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
@@ -3137,20 +3086,18 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B50" t="n">
-        <v>22041</v>
+        <v>65534</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D50" t="n">
-        <v>6</v>
-      </c>
-      <c r="E50" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E50" s="1"/>
       <c r="F50" t="n">
         <v>0.058</v>
       </c>
@@ -3167,40 +3114,38 @@
         <v>0.6</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0306</v>
+        <v>0.00938720275307242</v>
       </c>
       <c r="L50" t="n">
-        <v>7.683</v>
+        <v>14.3326736305897</v>
       </c>
       <c r="M50" t="n">
-        <v>8.088</v>
+        <v>26.5211111811441</v>
       </c>
       <c r="N50" t="n">
         <v>3.6</v>
       </c>
       <c r="O50" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="P50" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>147.928571428571</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B51" t="n">
-        <v>9178</v>
+        <v>2077</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>13</v>
-      </c>
-      <c r="E51" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E51" s="1"/>
       <c r="F51" t="n">
         <v>0.058</v>
       </c>
@@ -3229,7 +3174,7 @@
         <v>3.6</v>
       </c>
       <c r="O51" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P51" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
@@ -3237,20 +3182,18 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B52" t="n">
-        <v>45378</v>
+        <v>10499</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>37</v>
-      </c>
-      <c r="E52" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E52" s="1"/>
       <c r="F52" t="n">
         <v>0.058</v>
       </c>
@@ -3267,40 +3210,38 @@
         <v>0.6</v>
       </c>
       <c r="K52" t="n">
-        <v>0.015578166</v>
+        <v>0.0306</v>
       </c>
       <c r="L52" t="n">
-        <v>11.99163669</v>
+        <v>7.683</v>
       </c>
       <c r="M52" t="n">
-        <v>18.69451795</v>
+        <v>8.088</v>
       </c>
       <c r="N52" t="n">
         <v>3.6</v>
       </c>
       <c r="O52" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P52" t="n">
-        <v>2.071428571</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" t="n">
-        <v>20301</v>
+        <v>16566</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>50</v>
-      </c>
-      <c r="E53" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E53" s="1"/>
       <c r="F53" t="n">
         <v>0.058</v>
       </c>
@@ -3317,40 +3258,38 @@
         <v>0.6</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0306</v>
+        <v>0.0151814780632191</v>
       </c>
       <c r="L53" t="n">
-        <v>7.683</v>
+        <v>9.72918319222553</v>
       </c>
       <c r="M53" t="n">
-        <v>8.088</v>
+        <v>26.3095980633468</v>
       </c>
       <c r="N53" t="n">
         <v>3.6</v>
       </c>
       <c r="O53" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="P53" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>21.2142857142857</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B54" t="n">
-        <v>3718</v>
+        <v>27739</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E54" s="1"/>
       <c r="F54" t="n">
         <v>0.058</v>
       </c>
@@ -3367,40 +3306,38 @@
         <v>0.6</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0306</v>
+        <v>0.0481143626321144</v>
       </c>
       <c r="L54" t="n">
-        <v>7.683</v>
+        <v>1.13128791306326</v>
       </c>
       <c r="M54" t="n">
-        <v>8.088</v>
+        <v>0.267877021229254</v>
       </c>
       <c r="N54" t="n">
         <v>3.6</v>
       </c>
       <c r="O54" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="P54" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>1.14285714285714</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B55" t="n">
-        <v>11982</v>
+        <v>15336</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E55" s="1"/>
       <c r="F55" t="n">
         <v>0.058</v>
       </c>
@@ -3417,40 +3354,38 @@
         <v>0.6</v>
       </c>
       <c r="K55" t="n">
-        <v>0.040216496</v>
+        <v>0.0306</v>
       </c>
       <c r="L55" t="n">
-        <v>8.213276233</v>
+        <v>7.683</v>
       </c>
       <c r="M55" t="n">
-        <v>9.177596187</v>
+        <v>8.088</v>
       </c>
       <c r="N55" t="n">
         <v>3.6</v>
       </c>
       <c r="O55" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="P55" t="n">
-        <v>9.857142857</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B56" t="n">
-        <v>21374</v>
+        <v>13216</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>34</v>
-      </c>
-      <c r="E56" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E56" s="1"/>
       <c r="F56" t="n">
         <v>0.058</v>
       </c>
@@ -3467,30 +3402,30 @@
         <v>0.6</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0306</v>
+        <v>0.0931090109070912</v>
       </c>
       <c r="L56" t="n">
-        <v>7.683</v>
+        <v>2.33444156889783</v>
       </c>
       <c r="M56" t="n">
-        <v>8.088</v>
+        <v>21.3305862180985</v>
       </c>
       <c r="N56" t="n">
         <v>3.6</v>
       </c>
       <c r="O56" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="P56" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57" t="n">
-        <v>9178</v>
+        <v>4519</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -3498,9 +3433,7 @@
       <c r="D57" t="n">
         <v>0</v>
       </c>
-      <c r="E57" s="1" t="n">
-        <v>43982</v>
-      </c>
+      <c r="E57" s="1"/>
       <c r="F57" t="n">
         <v>0.058</v>
       </c>
@@ -3529,7 +3462,7 @@
         <v>3.6</v>
       </c>
       <c r="O57" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="P57" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
@@ -3537,20 +3470,18 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B58" t="n">
-        <v>2640</v>
+        <v>6640</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E58" s="1"/>
       <c r="F58" t="n">
         <v>0.058</v>
       </c>
@@ -3567,40 +3498,38 @@
         <v>0.6</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0306</v>
+        <v>0.0181171672124875</v>
       </c>
       <c r="L58" t="n">
-        <v>7.683</v>
+        <v>7.23813384959731</v>
       </c>
       <c r="M58" t="n">
-        <v>8.088</v>
+        <v>10.5858217638256</v>
       </c>
       <c r="N58" t="n">
         <v>3.6</v>
       </c>
       <c r="O58" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="P58" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>2.35714285714286</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59" t="n">
-        <v>11225</v>
+        <v>3278</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>32</v>
-      </c>
-      <c r="E59" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E59" s="1"/>
       <c r="F59" t="n">
         <v>0.058</v>
       </c>
@@ -3617,40 +3546,38 @@
         <v>0.6</v>
       </c>
       <c r="K59" t="n">
-        <v>0.016163788</v>
+        <v>0.007513109</v>
       </c>
       <c r="L59" t="n">
-        <v>4.999584583</v>
+        <v>7.801712967</v>
       </c>
       <c r="M59" t="n">
-        <v>11.78338213</v>
+        <v>0.400176674</v>
       </c>
       <c r="N59" t="n">
         <v>3.6</v>
       </c>
       <c r="O59" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="P59" t="n">
-        <v>3.428571429</v>
+        <v>862.6428571</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B60" t="n">
-        <v>17626</v>
+        <v>22041</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>31</v>
-      </c>
-      <c r="E60" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E60" s="1"/>
       <c r="F60" t="n">
         <v>0.058</v>
       </c>
@@ -3667,19 +3594,19 @@
         <v>0.6</v>
       </c>
       <c r="K60" t="n">
-        <v>0.033660158</v>
+        <v>0.0306</v>
       </c>
       <c r="L60" t="n">
-        <v>5.827907827</v>
+        <v>7.683</v>
       </c>
       <c r="M60" t="n">
-        <v>12.74171193</v>
+        <v>8.088</v>
       </c>
       <c r="N60" t="n">
         <v>3.6</v>
       </c>
       <c r="O60" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="P60" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
@@ -3687,20 +3614,18 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="B61" t="n">
-        <v>34976</v>
+        <v>9178</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>56</v>
-      </c>
-      <c r="E61" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E61" s="1"/>
       <c r="F61" t="n">
         <v>0.058</v>
       </c>
@@ -3717,22 +3642,22 @@
         <v>0.6</v>
       </c>
       <c r="K61" t="n">
-        <v>0.033900478</v>
+        <v>0.0306</v>
       </c>
       <c r="L61" t="n">
-        <v>4.166551781</v>
+        <v>7.683</v>
       </c>
       <c r="M61" t="n">
-        <v>11.59731613</v>
+        <v>8.088</v>
       </c>
       <c r="N61" t="n">
         <v>3.6</v>
       </c>
       <c r="O61" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="P61" t="n">
-        <v>7.642857143</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="62">
@@ -3740,17 +3665,15 @@
         <v>84</v>
       </c>
       <c r="B62" t="n">
-        <v>32843</v>
+        <v>45378</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>64</v>
-      </c>
-      <c r="E62" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E62" s="1"/>
       <c r="F62" t="n">
         <v>0.058</v>
       </c>
@@ -3767,22 +3690,22 @@
         <v>0.6</v>
       </c>
       <c r="K62" t="n">
-        <v>0.0306</v>
+        <v>0.014446909</v>
       </c>
       <c r="L62" t="n">
-        <v>7.683</v>
+        <v>11.69658517</v>
       </c>
       <c r="M62" t="n">
-        <v>8.088</v>
+        <v>14.10104278</v>
       </c>
       <c r="N62" t="n">
         <v>3.6</v>
       </c>
       <c r="O62" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="P62" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>30.9285714285714</v>
       </c>
     </row>
     <row r="63">
@@ -3790,17 +3713,15 @@
         <v>85</v>
       </c>
       <c r="B63" t="n">
-        <v>6711</v>
+        <v>20301</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E63" s="1"/>
       <c r="F63" t="n">
         <v>0.058</v>
       </c>
@@ -3817,22 +3738,22 @@
         <v>0.6</v>
       </c>
       <c r="K63" t="n">
-        <v>0.021779467</v>
+        <v>0.011051321205894</v>
       </c>
       <c r="L63" t="n">
-        <v>2.397102273</v>
+        <v>4.61253259909848</v>
       </c>
       <c r="M63" t="n">
-        <v>37.23467509</v>
+        <v>12.7035729449849</v>
       </c>
       <c r="N63" t="n">
         <v>3.6</v>
       </c>
       <c r="O63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P63" t="n">
-        <v>0.214285714</v>
+        <v>0.714285714285714</v>
       </c>
     </row>
     <row r="64">
@@ -3840,17 +3761,15 @@
         <v>86</v>
       </c>
       <c r="B64" t="n">
-        <v>1576</v>
+        <v>3718</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>21</v>
-      </c>
-      <c r="E64" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E64" s="1"/>
       <c r="F64" t="n">
         <v>0.058</v>
       </c>
@@ -3879,7 +3798,7 @@
         <v>3.6</v>
       </c>
       <c r="O64" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="P64" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
@@ -3887,20 +3806,18 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B65" t="n">
-        <v>45093</v>
+        <v>11982</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>69</v>
-      </c>
-      <c r="E65" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E65" s="1"/>
       <c r="F65" t="n">
         <v>0.058</v>
       </c>
@@ -3917,40 +3834,38 @@
         <v>0.6</v>
       </c>
       <c r="K65" t="n">
-        <v>0.024041681</v>
+        <v>0.0254101705871858</v>
       </c>
       <c r="L65" t="n">
-        <v>9.251814022</v>
+        <v>4.27898689420697</v>
       </c>
       <c r="M65" t="n">
-        <v>19.27673719</v>
+        <v>139.944568595969</v>
       </c>
       <c r="N65" t="n">
         <v>3.6</v>
       </c>
       <c r="O65" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="P65" t="n">
-        <v>11.21428571</v>
+        <v>380.285714285714</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B66" t="n">
-        <v>12517</v>
+        <v>21374</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>18</v>
-      </c>
-      <c r="E66" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E66" s="1"/>
       <c r="F66" t="n">
         <v>0.058</v>
       </c>
@@ -3979,7 +3894,7 @@
         <v>3.6</v>
       </c>
       <c r="O66" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="P66" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
@@ -3987,10 +3902,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B67" t="n">
-        <v>12017</v>
+        <v>9178</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -3998,9 +3913,7 @@
       <c r="D67" t="n">
         <v>0</v>
       </c>
-      <c r="E67" s="1" t="n">
-        <v>43982</v>
-      </c>
+      <c r="E67" s="1"/>
       <c r="F67" t="n">
         <v>0.058</v>
       </c>
@@ -4017,40 +3930,38 @@
         <v>0.6</v>
       </c>
       <c r="K67" t="n">
-        <v>0.009065261</v>
+        <v>0.0319226499515871</v>
       </c>
       <c r="L67" t="n">
-        <v>3.417739283</v>
+        <v>0.619230030988142</v>
       </c>
       <c r="M67" t="n">
-        <v>33.08135546</v>
+        <v>24.7743151699584</v>
       </c>
       <c r="N67" t="n">
         <v>3.6</v>
       </c>
       <c r="O67" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="P67" t="n">
-        <v>5.071428571</v>
+        <v>40.4285714285714</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B68" t="n">
-        <v>16219</v>
+        <v>2640</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>96</v>
-      </c>
-      <c r="E68" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E68" s="1"/>
       <c r="F68" t="n">
         <v>0.058</v>
       </c>
@@ -4067,19 +3978,19 @@
         <v>0.6</v>
       </c>
       <c r="K68" t="n">
-        <v>0.0336</v>
+        <v>0.0306</v>
       </c>
       <c r="L68" t="n">
-        <v>6.822</v>
+        <v>7.683</v>
       </c>
       <c r="M68" t="n">
-        <v>8.9133</v>
+        <v>8.088</v>
       </c>
       <c r="N68" t="n">
         <v>3.6</v>
       </c>
       <c r="O68" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P68" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
@@ -4087,20 +3998,18 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B69" t="n">
-        <v>62019</v>
+        <v>11225</v>
       </c>
       <c r="C69" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>162</v>
-      </c>
-      <c r="E69" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E69" s="1"/>
       <c r="F69" t="n">
         <v>0.058</v>
       </c>
@@ -4117,40 +4026,38 @@
         <v>0.6</v>
       </c>
       <c r="K69" t="n">
-        <v>0.010792288</v>
+        <v>0.016163788</v>
       </c>
       <c r="L69" t="n">
-        <v>9.96414484</v>
+        <v>4.999584583</v>
       </c>
       <c r="M69" t="n">
-        <v>61.90580714</v>
+        <v>11.78338213</v>
       </c>
       <c r="N69" t="n">
         <v>3.6</v>
       </c>
       <c r="O69" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P69" t="n">
-        <v>16.64285714</v>
+        <v>3.428571429</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B70" t="n">
-        <v>17479</v>
+        <v>22563</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>31</v>
-      </c>
-      <c r="E70" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E70" s="1"/>
       <c r="F70" t="n">
         <v>0.058</v>
       </c>
@@ -4167,40 +4074,38 @@
         <v>0.6</v>
       </c>
       <c r="K70" t="n">
-        <v>0.01675045</v>
+        <v>0.035174527</v>
       </c>
       <c r="L70" t="n">
-        <v>4.572354043</v>
+        <v>3.959561107</v>
       </c>
       <c r="M70" t="n">
-        <v>0.923854503</v>
+        <v>31.99503328</v>
       </c>
       <c r="N70" t="n">
         <v>3.6</v>
       </c>
       <c r="O70" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P70" t="n">
-        <v>12.71428571</v>
+        <v>145.6428571</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B71" t="n">
-        <v>10206</v>
+        <v>17626</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>32</v>
-      </c>
-      <c r="E71" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E71" s="1"/>
       <c r="F71" t="n">
         <v>0.058</v>
       </c>
@@ -4217,40 +4122,38 @@
         <v>0.6</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0306</v>
+        <v>0.0160368</v>
       </c>
       <c r="L71" t="n">
-        <v>7.683</v>
+        <v>11.91796228</v>
       </c>
       <c r="M71" t="n">
-        <v>8.088</v>
+        <v>39.70978353</v>
       </c>
       <c r="N71" t="n">
         <v>3.6</v>
       </c>
       <c r="O71" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P71" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>6.78571428571429</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="B72" t="n">
-        <v>5156</v>
+        <v>34976</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>18</v>
-      </c>
-      <c r="E72" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E72" s="1"/>
       <c r="F72" t="n">
         <v>0.058</v>
       </c>
@@ -4267,40 +4170,38 @@
         <v>0.6</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0306</v>
+        <v>0.0134921239906855</v>
       </c>
       <c r="L72" t="n">
-        <v>7.683</v>
+        <v>9.60182631751488</v>
       </c>
       <c r="M72" t="n">
-        <v>8.088</v>
+        <v>8.53611513869114</v>
       </c>
       <c r="N72" t="n">
         <v>3.6</v>
       </c>
       <c r="O72" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="P72" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>13.7857142857143</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" t="n">
-        <v>4001</v>
+        <v>32843</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E73" s="1"/>
       <c r="F73" t="n">
         <v>0.058</v>
       </c>
@@ -4329,28 +4230,26 @@
         <v>3.6</v>
       </c>
       <c r="O73" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="P73" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>1.85714285714286</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="B74" t="n">
-        <v>232491</v>
+        <v>6711</v>
       </c>
       <c r="C74" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>526</v>
-      </c>
-      <c r="E74" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E74" s="1"/>
       <c r="F74" t="n">
         <v>0.058</v>
       </c>
@@ -4367,40 +4266,38 @@
         <v>0.6</v>
       </c>
       <c r="K74" t="n">
-        <v>0.035174527</v>
+        <v>0.0156999332366506</v>
       </c>
       <c r="L74" t="n">
-        <v>3.959561107</v>
+        <v>5.10736859773269</v>
       </c>
       <c r="M74" t="n">
-        <v>31.99503328</v>
+        <v>42.5819135735746</v>
       </c>
       <c r="N74" t="n">
         <v>3.6</v>
       </c>
       <c r="O74" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="P74" t="n">
-        <v>145.6428571</v>
+        <v>2.85714285714286</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B75" t="n">
-        <v>17151</v>
+        <v>1576</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>63</v>
-      </c>
-      <c r="E75" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E75" s="1"/>
       <c r="F75" t="n">
         <v>0.058</v>
       </c>
@@ -4417,40 +4314,38 @@
         <v>0.6</v>
       </c>
       <c r="K75" t="n">
-        <v>0.000808592</v>
+        <v>0.0306</v>
       </c>
       <c r="L75" t="n">
-        <v>4.413414322</v>
+        <v>7.683</v>
       </c>
       <c r="M75" t="n">
-        <v>0.452892713</v>
+        <v>8.088</v>
       </c>
       <c r="N75" t="n">
         <v>3.6</v>
       </c>
       <c r="O75" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P75" t="n">
-        <v>244.5714286</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="B76" t="n">
-        <v>3429</v>
+        <v>45093</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E76" s="1"/>
       <c r="F76" t="n">
         <v>0.058</v>
       </c>
@@ -4467,40 +4362,38 @@
         <v>0.6</v>
       </c>
       <c r="K76" t="n">
-        <v>0.0306</v>
+        <v>0.0046041357211948</v>
       </c>
       <c r="L76" t="n">
-        <v>7.683</v>
+        <v>29.4111075863477</v>
       </c>
       <c r="M76" t="n">
-        <v>8.088</v>
+        <v>20.5502086712336</v>
       </c>
       <c r="N76" t="n">
         <v>3.6</v>
       </c>
       <c r="O76" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="P76" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>19.3571428571429</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="B77" t="n">
-        <v>3146</v>
+        <v>12517</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E77" s="1"/>
       <c r="F77" t="n">
         <v>0.058</v>
       </c>
@@ -4517,22 +4410,22 @@
         <v>0.6</v>
       </c>
       <c r="K77" t="n">
-        <v>0.041736166</v>
+        <v>0.0306</v>
       </c>
       <c r="L77" t="n">
-        <v>3.559643653</v>
+        <v>7.683</v>
       </c>
       <c r="M77" t="n">
-        <v>0.983200816</v>
+        <v>8.088</v>
       </c>
       <c r="N77" t="n">
         <v>3.6</v>
       </c>
       <c r="O77" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="P77" t="n">
-        <v>239.2142857</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="78">
@@ -4540,17 +4433,15 @@
         <v>97</v>
       </c>
       <c r="B78" t="n">
-        <v>16628</v>
+        <v>12017</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>20</v>
-      </c>
-      <c r="E78" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E78" s="1"/>
       <c r="F78" t="n">
         <v>0.058</v>
       </c>
@@ -4567,40 +4458,38 @@
         <v>0.6</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0306</v>
+        <v>0.009065261</v>
       </c>
       <c r="L78" t="n">
-        <v>7.683</v>
+        <v>3.417739283</v>
       </c>
       <c r="M78" t="n">
-        <v>8.088</v>
+        <v>33.08135546</v>
       </c>
       <c r="N78" t="n">
         <v>3.6</v>
       </c>
       <c r="O78" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="P78" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>5.071428571</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="B79" t="n">
-        <v>11708</v>
+        <v>16219</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>40</v>
-      </c>
-      <c r="E79" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E79" s="1"/>
       <c r="F79" t="n">
         <v>0.058</v>
       </c>
@@ -4617,19 +4506,19 @@
         <v>0.6</v>
       </c>
       <c r="K79" t="n">
-        <v>0.0306</v>
+        <v>0.0336</v>
       </c>
       <c r="L79" t="n">
-        <v>7.683</v>
+        <v>6.822</v>
       </c>
       <c r="M79" t="n">
-        <v>8.088</v>
+        <v>8.9133</v>
       </c>
       <c r="N79" t="n">
         <v>3.6</v>
       </c>
       <c r="O79" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P79" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
@@ -4637,20 +4526,18 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B80" t="n">
-        <v>4063</v>
+        <v>62019</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="E80" s="1"/>
       <c r="F80" t="n">
         <v>0.058</v>
       </c>
@@ -4667,13 +4554,13 @@
         <v>0.6</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0336</v>
+        <v>0.0745706848001875</v>
       </c>
       <c r="L80" t="n">
-        <v>6.822</v>
+        <v>1.09496498463325</v>
       </c>
       <c r="M80" t="n">
-        <v>8.9133</v>
+        <v>46.313682084165</v>
       </c>
       <c r="N80" t="n">
         <v>3.6</v>
@@ -4682,25 +4569,23 @@
         <v>21</v>
       </c>
       <c r="P80" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>40.4285714285714</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B81" t="n">
-        <v>5595</v>
+        <v>17479</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>8</v>
-      </c>
-      <c r="E81" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E81" s="1"/>
       <c r="F81" t="n">
         <v>0.058</v>
       </c>
@@ -4717,40 +4602,38 @@
         <v>0.6</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0306</v>
+        <v>0.002013417</v>
       </c>
       <c r="L81" t="n">
-        <v>7.683</v>
+        <v>0.333972228</v>
       </c>
       <c r="M81" t="n">
-        <v>8.088</v>
+        <v>0.058314399</v>
       </c>
       <c r="N81" t="n">
         <v>3.6</v>
       </c>
       <c r="O81" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="P81" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>138.714285714286</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B82" t="n">
-        <v>18906</v>
+        <v>10206</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>25</v>
-      </c>
-      <c r="E82" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E82" s="1"/>
       <c r="F82" t="n">
         <v>0.058</v>
       </c>
@@ -4767,40 +4650,38 @@
         <v>0.6</v>
       </c>
       <c r="K82" t="n">
-        <v>0.047121185</v>
+        <v>0.0127627512296171</v>
       </c>
       <c r="L82" t="n">
-        <v>1.71852428</v>
+        <v>4.88576426365002</v>
       </c>
       <c r="M82" t="n">
-        <v>16.3980957</v>
+        <v>20.3965112368355</v>
       </c>
       <c r="N82" t="n">
         <v>3.6</v>
       </c>
       <c r="O82" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="P82" t="n">
-        <v>0.071428571</v>
+        <v>5.14285714285714</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B83" t="n">
-        <v>4727</v>
+        <v>5156</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E83" s="1"/>
       <c r="F83" t="n">
         <v>0.058</v>
       </c>
@@ -4817,40 +4698,38 @@
         <v>0.6</v>
       </c>
       <c r="K83" t="n">
-        <v>0.010689864</v>
+        <v>0.0306</v>
       </c>
       <c r="L83" t="n">
-        <v>8.317893074</v>
+        <v>7.683</v>
       </c>
       <c r="M83" t="n">
-        <v>10.7961697</v>
+        <v>8.088</v>
       </c>
       <c r="N83" t="n">
         <v>3.6</v>
       </c>
       <c r="O83" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P83" t="n">
-        <v>1.5</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B84" t="n">
-        <v>25881</v>
+        <v>4001</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>53</v>
-      </c>
-      <c r="E84" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E84" s="1"/>
       <c r="F84" t="n">
         <v>0.058</v>
       </c>
@@ -4867,7 +4746,7 @@
         <v>0.6</v>
       </c>
       <c r="K84" t="n">
-        <v>0.0366</v>
+        <v>0.0306</v>
       </c>
       <c r="L84" t="n">
         <v>7.683</v>
@@ -4879,7 +4758,7 @@
         <v>3.6</v>
       </c>
       <c r="O84" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="P84" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
@@ -4887,20 +4766,18 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B85" t="n">
-        <v>139000</v>
+        <v>232491</v>
       </c>
       <c r="C85" t="n">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="D85" t="n">
-        <v>266</v>
-      </c>
-      <c r="E85" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="E85" s="1"/>
       <c r="F85" t="n">
         <v>0.058</v>
       </c>
@@ -4917,90 +4794,86 @@
         <v>0.6</v>
       </c>
       <c r="K85" t="n">
-        <v>0.010083197</v>
+        <v>0.0127874967458308</v>
       </c>
       <c r="L85" t="n">
-        <v>8.31766505</v>
+        <v>7.55337937578266</v>
       </c>
       <c r="M85" t="n">
-        <v>0.918223745</v>
+        <v>157.810086110335</v>
       </c>
       <c r="N85" t="n">
         <v>3.6</v>
       </c>
       <c r="O85" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="P85" t="n">
-        <v>8.5</v>
+        <v>224.142857142857</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B86" t="n">
-        <v>90313</v>
+        <v>17151</v>
       </c>
       <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>63</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.00195769085883867</v>
+      </c>
+      <c r="L86" t="n">
+        <v>26.0659230846404</v>
+      </c>
+      <c r="M86" t="n">
+        <v>12.0379426878532</v>
+      </c>
+      <c r="N86" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O86" t="s">
         <v>26</v>
       </c>
-      <c r="D86" t="n">
-        <v>160</v>
-      </c>
-      <c r="E86" s="1" t="n">
-        <v>43982</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.02418042</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.239810757</v>
-      </c>
-      <c r="M86" t="n">
-        <v>17.24934459</v>
-      </c>
-      <c r="N86" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O86" t="s">
-        <v>57</v>
-      </c>
       <c r="P86" t="n">
-        <v>56.92857143</v>
+        <v>16.2857142857143</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="B87" t="n">
-        <v>103750</v>
+        <v>4525</v>
       </c>
       <c r="C87" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>200</v>
-      </c>
-      <c r="E87" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E87" s="1"/>
       <c r="F87" t="n">
         <v>0.058</v>
       </c>
@@ -5017,40 +4890,38 @@
         <v>0.6</v>
       </c>
       <c r="K87" t="n">
-        <v>0.051591803</v>
+        <v>0.019872934</v>
       </c>
       <c r="L87" t="n">
-        <v>1.597906366</v>
+        <v>5.140306929</v>
       </c>
       <c r="M87" t="n">
-        <v>0.83135002</v>
+        <v>0.906265962</v>
       </c>
       <c r="N87" t="n">
         <v>3.6</v>
       </c>
       <c r="O87" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="P87" t="n">
-        <v>290.7142857</v>
+        <v>9.071428571</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B88" t="n">
-        <v>13705</v>
+        <v>2564</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>20</v>
-      </c>
-      <c r="E88" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E88" s="1"/>
       <c r="F88" t="n">
         <v>0.058</v>
       </c>
@@ -5067,40 +4938,38 @@
         <v>0.6</v>
       </c>
       <c r="K88" t="n">
-        <v>0.010377512</v>
+        <v>0.0306</v>
       </c>
       <c r="L88" t="n">
-        <v>6.498560453</v>
+        <v>7.683</v>
       </c>
       <c r="M88" t="n">
-        <v>20.49619836</v>
+        <v>8.088</v>
       </c>
       <c r="N88" t="n">
         <v>3.6</v>
       </c>
       <c r="O88" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="P88" t="n">
-        <v>3.571428571</v>
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B89" t="n">
-        <v>9667</v>
+        <v>3429</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>37</v>
-      </c>
-      <c r="E89" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E89" s="1"/>
       <c r="F89" t="n">
         <v>0.058</v>
       </c>
@@ -5117,19 +4986,19 @@
         <v>0.6</v>
       </c>
       <c r="K89" t="n">
-        <v>0.027908568</v>
+        <v>0.0306</v>
       </c>
       <c r="L89" t="n">
-        <v>7.806058271</v>
+        <v>7.683</v>
       </c>
       <c r="M89" t="n">
-        <v>7.511047218</v>
+        <v>8.088</v>
       </c>
       <c r="N89" t="n">
         <v>3.6</v>
       </c>
       <c r="O89" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P89" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
@@ -5137,10 +5006,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B90" t="n">
-        <v>3525</v>
+        <v>3146</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -5148,9 +5017,7 @@
       <c r="D90" t="n">
         <v>0</v>
       </c>
-      <c r="E90" s="1" t="n">
-        <v>43982</v>
-      </c>
+      <c r="E90" s="1"/>
       <c r="F90" t="n">
         <v>0.058</v>
       </c>
@@ -5167,40 +5034,38 @@
         <v>0.6</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0306</v>
+        <v>0.041736166</v>
       </c>
       <c r="L90" t="n">
-        <v>7.683</v>
+        <v>3.559643653</v>
       </c>
       <c r="M90" t="n">
-        <v>8.088</v>
+        <v>0.983200816</v>
       </c>
       <c r="N90" t="n">
         <v>3.6</v>
       </c>
       <c r="O90" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="P90" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>239.2142857</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B91" t="n">
-        <v>3127</v>
+        <v>5174</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>5</v>
-      </c>
-      <c r="E91" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E91" s="1"/>
       <c r="F91" t="n">
         <v>0.058</v>
       </c>
@@ -5217,40 +5082,38 @@
         <v>0.6</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0306</v>
+        <v>0.035174527</v>
       </c>
       <c r="L91" t="n">
-        <v>7.683</v>
+        <v>3.959561107</v>
       </c>
       <c r="M91" t="n">
-        <v>8.088</v>
+        <v>31.99503328</v>
       </c>
       <c r="N91" t="n">
         <v>3.6</v>
       </c>
       <c r="O91" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="P91" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>145.6428571</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B92" t="n">
-        <v>284971</v>
+        <v>16628</v>
       </c>
       <c r="C92" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>368</v>
-      </c>
-      <c r="E92" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E92" s="1"/>
       <c r="F92" t="n">
         <v>0.058</v>
       </c>
@@ -5267,13 +5130,13 @@
         <v>0.6</v>
       </c>
       <c r="K92" t="n">
-        <v>0.005776417</v>
+        <v>0.0653678015985299</v>
       </c>
       <c r="L92" t="n">
-        <v>21.65713644</v>
+        <v>1.7055047884539</v>
       </c>
       <c r="M92" t="n">
-        <v>28.1133255</v>
+        <v>16.6197963167295</v>
       </c>
       <c r="N92" t="n">
         <v>3.6</v>
@@ -5282,25 +5145,23 @@
         <v>17</v>
       </c>
       <c r="P92" t="n">
-        <v>71.14285714</v>
+        <v>3.07142857142857</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="B93" t="n">
-        <v>11309</v>
+        <v>11708</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E93" s="1"/>
       <c r="F93" t="n">
         <v>0.058</v>
       </c>
@@ -5329,7 +5190,7 @@
         <v>3.6</v>
       </c>
       <c r="O93" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="P93" t="n">
         <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
@@ -5337,20 +5198,18 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B94" t="n">
-        <v>16128</v>
+        <v>4063</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>47</v>
-      </c>
-      <c r="E94" s="1" t="n">
-        <v>43982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E94" s="1"/>
       <c r="F94" t="n">
         <v>0.058</v>
       </c>
@@ -5367,72 +5226,838 @@
         <v>0.6</v>
       </c>
       <c r="K94" t="n">
-        <v>0.0306</v>
+        <v>0.036492875891972</v>
       </c>
       <c r="L94" t="n">
-        <v>7.683</v>
+        <v>6.40536016134362</v>
       </c>
       <c r="M94" t="n">
-        <v>8.088</v>
+        <v>9.46458304700349</v>
       </c>
       <c r="N94" t="n">
         <v>3.6</v>
       </c>
       <c r="O94" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="P94" t="n">
-        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+        <v>0.714285714285714</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B95" t="n">
+        <v>20554</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>22</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.0306</v>
+      </c>
+      <c r="L95" t="n">
+        <v>7.683</v>
+      </c>
+      <c r="M95" t="n">
+        <v>8.088</v>
+      </c>
+      <c r="N95" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O95" t="s">
+        <v>26</v>
+      </c>
+      <c r="P95" t="n">
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" t="n">
+        <v>5595</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>8</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.0306</v>
+      </c>
+      <c r="L96" t="n">
+        <v>7.683</v>
+      </c>
+      <c r="M96" t="n">
+        <v>8.088</v>
+      </c>
+      <c r="N96" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O96" t="s">
+        <v>43</v>
+      </c>
+      <c r="P96" t="n">
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97" t="n">
+        <v>18906</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>25</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.239460334328322</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.757706917431386</v>
+      </c>
+      <c r="M97" t="n">
+        <v>44.8074419242168</v>
+      </c>
+      <c r="N97" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O97" t="s">
+        <v>28</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4.57142857142857</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98" t="n">
+        <v>4727</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.00295259943856172</v>
+      </c>
+      <c r="L98" t="n">
+        <v>4.29832078199307</v>
+      </c>
+      <c r="M98" t="n">
+        <v>11.4633250345902</v>
+      </c>
+      <c r="N98" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O98" t="s">
+        <v>21</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0.785714285714286</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>116</v>
+      </c>
+      <c r="B99" t="n">
+        <v>25881</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>53</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.0365279321686915</v>
+      </c>
+      <c r="L99" t="n">
+        <v>5.45341844315783</v>
+      </c>
+      <c r="M99" t="n">
+        <v>11.3475319490782</v>
+      </c>
+      <c r="N99" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O99" t="s">
+        <v>33</v>
+      </c>
+      <c r="P99" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>57</v>
+      </c>
+      <c r="B100" t="n">
+        <v>139000</v>
+      </c>
+      <c r="C100" t="n">
+        <v>42</v>
+      </c>
+      <c r="D100" t="n">
+        <v>266</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.0126111183659442</v>
+      </c>
+      <c r="L100" t="n">
+        <v>6.60616661480264</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.485880948308726</v>
+      </c>
+      <c r="N100" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O100" t="s">
+        <v>57</v>
+      </c>
+      <c r="P100" t="n">
+        <v>409.714285714286</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" t="n">
+        <v>90313</v>
+      </c>
+      <c r="C101" t="n">
+        <v>26</v>
+      </c>
+      <c r="D101" t="n">
+        <v>160</v>
+      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.0277782479112002</v>
+      </c>
+      <c r="L101" t="n">
+        <v>5.39968562918988</v>
+      </c>
+      <c r="M101" t="n">
+        <v>17.5788858953321</v>
+      </c>
+      <c r="N101" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O101" t="s">
+        <v>57</v>
+      </c>
+      <c r="P101" t="n">
+        <v>830.428571428571</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102" t="n">
+        <v>9489</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>15</v>
+      </c>
+      <c r="E102" s="1"/>
+      <c r="F102" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.036980711</v>
+      </c>
+      <c r="L102" t="n">
+        <v>5.277084777</v>
+      </c>
+      <c r="M102" t="n">
+        <v>14.43647743</v>
+      </c>
+      <c r="N102" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O102" t="s">
+        <v>69</v>
+      </c>
+      <c r="P102" t="n">
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>33</v>
+      </c>
+      <c r="B103" t="n">
+        <v>103750</v>
+      </c>
+      <c r="C103" t="n">
+        <v>47</v>
+      </c>
+      <c r="D103" t="n">
+        <v>200</v>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.00439314469271156</v>
+      </c>
+      <c r="L103" t="n">
+        <v>3.82311906974344</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.322842979646777</v>
+      </c>
+      <c r="N103" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O103" t="s">
+        <v>33</v>
+      </c>
+      <c r="P103" t="n">
+        <v>2751.71428571429</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>119</v>
+      </c>
+      <c r="B104" t="n">
+        <v>13705</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>20</v>
+      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.0380453096004547</v>
+      </c>
+      <c r="L104" t="n">
+        <v>2.42580286506503</v>
+      </c>
+      <c r="M104" t="n">
+        <v>27.533716605191</v>
+      </c>
+      <c r="N104" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O104" t="s">
+        <v>57</v>
+      </c>
+      <c r="P104" t="n">
+        <v>88.6428571428571</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>120</v>
+      </c>
+      <c r="B105" t="n">
+        <v>9667</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>37</v>
+      </c>
+      <c r="E105" s="1"/>
+      <c r="F105" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.027908568</v>
+      </c>
+      <c r="L105" t="n">
+        <v>7.806058271</v>
+      </c>
+      <c r="M105" t="n">
+        <v>7.511047218</v>
+      </c>
+      <c r="N105" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O105" t="s">
+        <v>60</v>
+      </c>
+      <c r="P105" t="n">
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>121</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3525</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1"/>
+      <c r="F106" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.0306</v>
+      </c>
+      <c r="L106" t="n">
+        <v>7.683</v>
+      </c>
+      <c r="M106" t="n">
+        <v>8.088</v>
+      </c>
+      <c r="N106" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O106" t="s">
+        <v>57</v>
+      </c>
+      <c r="P106" t="n">
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>122</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3127</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>5</v>
+      </c>
+      <c r="E107" s="1"/>
+      <c r="F107" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.0306</v>
+      </c>
+      <c r="L107" t="n">
+        <v>7.683</v>
+      </c>
+      <c r="M107" t="n">
+        <v>8.088</v>
+      </c>
+      <c r="N107" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O107" t="s">
+        <v>41</v>
+      </c>
+      <c r="P107" t="n">
+        <v>10000000000000000159028911097599180468360808563945281389781327557747838772170381060813469985856815104</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>123</v>
+      </c>
+      <c r="B108" t="n">
+        <v>284971</v>
+      </c>
+      <c r="C108" t="n">
+        <v>78</v>
+      </c>
+      <c r="D108" t="n">
+        <v>368</v>
+      </c>
+      <c r="E108" s="1"/>
+      <c r="F108" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.00505565502224069</v>
+      </c>
+      <c r="L108" t="n">
+        <v>15.6208783642773</v>
+      </c>
+      <c r="M108" t="n">
+        <v>37.0523863672971</v>
+      </c>
+      <c r="N108" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O108" t="s">
+        <v>17</v>
+      </c>
+      <c r="P108" t="n">
+        <v>532.857142857143</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>124</v>
+      </c>
+      <c r="B109" t="n">
+        <v>11309</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1"/>
+      <c r="F109" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.039069356133763</v>
+      </c>
+      <c r="L109" t="n">
+        <v>5.72985284237913</v>
+      </c>
+      <c r="M109" t="n">
+        <v>18.5226856672368</v>
+      </c>
+      <c r="N109" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O109" t="s">
+        <v>57</v>
+      </c>
+      <c r="P109" t="n">
+        <v>2.14285714285714</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>125</v>
+      </c>
+      <c r="B110" t="n">
+        <v>16128</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>47</v>
+      </c>
+      <c r="E110" s="1"/>
+      <c r="F110" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.0404270888733728</v>
+      </c>
+      <c r="L110" t="n">
+        <v>5.06474566867864</v>
+      </c>
+      <c r="M110" t="n">
+        <v>23.3008816907044</v>
+      </c>
+      <c r="N110" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O110" t="s">
+        <v>41</v>
+      </c>
+      <c r="P110" t="n">
+        <v>60.2142857142857</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>126</v>
+      </c>
+      <c r="B111" t="n">
         <v>26037</v>
       </c>
-      <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="n">
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
         <v>21</v>
       </c>
-      <c r="E95" s="1" t="n">
-        <v>43982</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.053746421</v>
-      </c>
-      <c r="L95" t="n">
-        <v>1.957159446</v>
-      </c>
-      <c r="M95" t="n">
-        <v>61.99407372</v>
-      </c>
-      <c r="N95" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O95" t="s">
-        <v>46</v>
-      </c>
-      <c r="P95" t="n">
-        <v>1.642857143</v>
+      <c r="E111" s="1"/>
+      <c r="F111" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.0609769401141992</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1.43585442652237</v>
+      </c>
+      <c r="M111" t="n">
+        <v>309.877416109188</v>
+      </c>
+      <c r="N111" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O111" t="s">
+        <v>43</v>
+      </c>
+      <c r="P111" t="n">
+        <v>7.21428571428571</v>
       </c>
     </row>
   </sheetData>
